--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/project_bulletin/amcgic-bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{BB4DEC7A-5FBF-4091-B83B-1D13320D8598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{55E49D15-C619-4094-A2DE-BC67A135251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42765" yWindow="525" windowWidth="33675" windowHeight="19395" activeTab="1" xr2:uid="{A4986FC2-E32E-4EB8-A7E9-7734962D2B72}"/>
+    <workbookView xWindow="3300" yWindow="465" windowWidth="33675" windowHeight="19395" xr2:uid="{A4986FC2-E32E-4EB8-A7E9-7734962D2B72}"/>
   </bookViews>
   <sheets>
     <sheet name="2024년 EGD 교육 프로그램 구성표" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>실무</t>
   </si>
@@ -1145,12 +1145,20 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>AI patient Hx taking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(https://amcgi-22questions.streamlit.app/)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,6 +1308,39 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2447,15 +2488,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2929,9 +2973,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3040,6 +3081,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3072,39 +3133,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3120,6 +3152,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3132,11 +3167,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{B62E1C3E-74F2-4089-86F6-D1DF3F8216B8}"/>
     <cellStyle name="표준 3" xfId="2" xr:uid="{C4045EF1-7C4C-4D72-906C-B9B19F78DB16}"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8"/>
     <cellStyle name="하이퍼링크 2" xfId="3" xr:uid="{0035B456-59B8-451D-A9EE-AE2ABAC4F735}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3153,9 +3204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3193,7 +3244,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3299,7 +3350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3441,7 +3492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3454,8 +3505,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22:AC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -3484,7 +3535,7 @@
     <col min="22" max="22" width="22.5" style="138" customWidth="1"/>
     <col min="23" max="23" width="1.625" style="138" customWidth="1"/>
     <col min="24" max="24" width="1.125" style="138" customWidth="1"/>
-    <col min="25" max="25" width="19.75" style="138" customWidth="1"/>
+    <col min="25" max="25" width="34.375" style="138" customWidth="1"/>
     <col min="26" max="26" width="1.125" style="138" customWidth="1"/>
     <col min="27" max="16384" width="11" style="138"/>
   </cols>
@@ -3520,112 +3571,112 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="137"/>
       <c r="B2" s="139"/>
-      <c r="C2" s="221" t="s">
+      <c r="C2" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
-      <c r="N2" s="222"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="222"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="198" t="s">
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="205" t="s">
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="207"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="137"/>
       <c r="B3" s="140"/>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="210" t="s">
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="217" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="212"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="202"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="218"/>
+      <c r="O3" s="218"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="209"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="209"/>
+      <c r="V3" s="209"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="209"/>
+      <c r="Z3" s="210"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="141"/>
       <c r="B4" s="142"/>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215" t="s">
+      <c r="D4" s="220"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="203"/>
-      <c r="H4" s="215" t="s">
+      <c r="G4" s="210"/>
+      <c r="H4" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="203"/>
-      <c r="J4" s="210" t="s">
+      <c r="I4" s="210"/>
+      <c r="J4" s="217" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="213"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="215" t="s">
+      <c r="K4" s="220"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="222" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="204"/>
-      <c r="O4" s="215" t="s">
+      <c r="N4" s="211"/>
+      <c r="O4" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204"/>
-      <c r="V4" s="204"/>
-      <c r="W4" s="203"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="208"/>
+      <c r="P4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="208"/>
+      <c r="S4" s="211"/>
+      <c r="T4" s="211"/>
+      <c r="U4" s="211"/>
+      <c r="V4" s="211"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="213"/>
+      <c r="Y4" s="214"/>
+      <c r="Z4" s="215"/>
     </row>
     <row r="5" spans="1:26" ht="3.75" customHeight="1">
       <c r="A5" s="141"/>
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="197" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="143"/>
@@ -3655,7 +3706,7 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="137"/>
-      <c r="B6" s="217"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="143"/>
       <c r="D6" s="152" t="s">
         <v>18</v>
@@ -3685,7 +3736,7 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="137"/>
-      <c r="B7" s="217"/>
+      <c r="B7" s="198"/>
       <c r="C7" s="143"/>
       <c r="D7" s="152" t="s">
         <v>19</v>
@@ -3715,7 +3766,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="137"/>
-      <c r="B8" s="217"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="143"/>
       <c r="D8" s="152" t="s">
         <v>20</v>
@@ -3745,7 +3796,7 @@
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="137"/>
-      <c r="B9" s="217"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="143"/>
       <c r="D9" s="152" t="s">
         <v>25</v>
@@ -3775,7 +3826,7 @@
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="137"/>
-      <c r="B10" s="217"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="143"/>
       <c r="D10" s="152" t="s">
         <v>29</v>
@@ -3800,34 +3851,34 @@
       <c r="V10" s="157"/>
       <c r="W10" s="158"/>
       <c r="X10" s="159"/>
-      <c r="Y10" s="161" t="s">
+      <c r="Y10" s="240" t="s">
         <v>71</v>
       </c>
       <c r="Z10" s="160"/>
     </row>
     <row r="11" spans="1:26" ht="5.25" customHeight="1" thickBot="1">
       <c r="A11" s="137"/>
-      <c r="B11" s="218"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="168"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="165"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="166"/>
+      <c r="S11" s="167"/>
       <c r="T11" s="157"/>
       <c r="U11" s="157"/>
-      <c r="V11" s="168"/>
+      <c r="V11" s="167"/>
       <c r="W11" s="158"/>
       <c r="X11" s="159"/>
       <c r="Y11" s="159"/>
@@ -3835,13 +3886,13 @@
     </row>
     <row r="12" spans="1:26" ht="5.25" customHeight="1">
       <c r="A12" s="137"/>
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="200" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="154"/>
       <c r="D12" s="154"/>
       <c r="E12" s="154"/>
-      <c r="F12" s="169"/>
+      <c r="F12" s="168"/>
       <c r="G12" s="143"/>
       <c r="H12" s="143"/>
       <c r="I12" s="143"/>
@@ -3853,23 +3904,23 @@
       <c r="O12" s="154"/>
       <c r="P12" s="154"/>
       <c r="Q12" s="154"/>
-      <c r="R12" s="170"/>
+      <c r="R12" s="169"/>
       <c r="S12" s="139"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="172"/>
+      <c r="T12" s="170"/>
+      <c r="U12" s="171"/>
       <c r="V12" s="139"/>
-      <c r="W12" s="173"/>
+      <c r="W12" s="172"/>
       <c r="X12" s="159"/>
       <c r="Y12" s="159"/>
       <c r="Z12" s="160"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="137"/>
-      <c r="B13" s="217"/>
+      <c r="B13" s="198"/>
       <c r="C13" s="157"/>
       <c r="D13" s="154"/>
       <c r="E13" s="154"/>
-      <c r="F13" s="169"/>
+      <c r="F13" s="168"/>
       <c r="G13" s="152" t="s">
         <v>73</v>
       </c>
@@ -3887,27 +3938,27 @@
       <c r="O13" s="154"/>
       <c r="P13" s="154"/>
       <c r="Q13" s="154"/>
-      <c r="R13" s="170"/>
+      <c r="R13" s="169"/>
       <c r="S13" s="143"/>
       <c r="T13" s="143"/>
-      <c r="U13" s="174"/>
+      <c r="U13" s="173"/>
       <c r="V13" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="175"/>
+      <c r="W13" s="174"/>
       <c r="X13" s="159"/>
-      <c r="Y13" s="176" t="s">
+      <c r="Y13" s="175" t="s">
         <v>75</v>
       </c>
       <c r="Z13" s="160"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="137"/>
-      <c r="B14" s="217"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="157"/>
       <c r="D14" s="154"/>
       <c r="E14" s="154"/>
-      <c r="F14" s="169"/>
+      <c r="F14" s="168"/>
       <c r="G14" s="152" t="s">
         <v>38</v>
       </c>
@@ -3923,28 +3974,28 @@
       <c r="O14" s="154"/>
       <c r="P14" s="154"/>
       <c r="Q14" s="154"/>
-      <c r="R14" s="170"/>
+      <c r="R14" s="169"/>
       <c r="S14" s="143"/>
       <c r="T14" s="143"/>
-      <c r="U14" s="174"/>
-      <c r="V14" s="177" t="s">
+      <c r="U14" s="173"/>
+      <c r="V14" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="W14" s="175"/>
+      <c r="W14" s="174"/>
       <c r="X14" s="159"/>
       <c r="Y14" s="159"/>
       <c r="Z14" s="160"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="137"/>
-      <c r="B15" s="217"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="157"/>
       <c r="D15" s="154"/>
       <c r="E15" s="154"/>
-      <c r="F15" s="169"/>
+      <c r="F15" s="168"/>
       <c r="G15" s="143"/>
       <c r="H15" s="143"/>
-      <c r="I15" s="177" t="s">
+      <c r="I15" s="176" t="s">
         <v>78</v>
       </c>
       <c r="J15" s="143"/>
@@ -3955,30 +4006,32 @@
       <c r="O15" s="154"/>
       <c r="P15" s="154"/>
       <c r="Q15" s="154"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="178" t="s">
+      <c r="R15" s="169"/>
+      <c r="S15" s="177" t="s">
         <v>79</v>
       </c>
       <c r="T15" s="143"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="178" t="s">
+      <c r="U15" s="173"/>
+      <c r="V15" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="W15" s="175"/>
+      <c r="W15" s="174"/>
       <c r="X15" s="159"/>
-      <c r="Y15" s="159"/>
+      <c r="Y15" s="241" t="s">
+        <v>87</v>
+      </c>
       <c r="Z15" s="160"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="137"/>
-      <c r="B16" s="217"/>
+      <c r="B16" s="198"/>
       <c r="C16" s="157"/>
       <c r="D16" s="154"/>
       <c r="E16" s="154"/>
-      <c r="F16" s="169"/>
+      <c r="F16" s="168"/>
       <c r="G16" s="143"/>
       <c r="H16" s="143"/>
-      <c r="I16" s="177" t="s">
+      <c r="I16" s="176" t="s">
         <v>81</v>
       </c>
       <c r="J16" s="143"/>
@@ -3989,23 +4042,25 @@
       <c r="O16" s="154"/>
       <c r="P16" s="154"/>
       <c r="Q16" s="154"/>
-      <c r="R16" s="170"/>
+      <c r="R16" s="169"/>
       <c r="S16" s="143"/>
       <c r="T16" s="143"/>
-      <c r="U16" s="174"/>
+      <c r="U16" s="173"/>
       <c r="V16" s="143"/>
-      <c r="W16" s="175"/>
+      <c r="W16" s="174"/>
       <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
+      <c r="Y16" s="239" t="s">
+        <v>88</v>
+      </c>
       <c r="Z16" s="160"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="137"/>
-      <c r="B17" s="217"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="157"/>
       <c r="D17" s="154"/>
       <c r="E17" s="154"/>
-      <c r="F17" s="169"/>
+      <c r="F17" s="168"/>
       <c r="G17" s="143"/>
       <c r="H17" s="143"/>
       <c r="I17" s="152" t="s">
@@ -4019,25 +4074,25 @@
       <c r="O17" s="154"/>
       <c r="P17" s="154"/>
       <c r="Q17" s="154"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="178" t="s">
+      <c r="R17" s="169"/>
+      <c r="S17" s="177" t="s">
         <v>83</v>
       </c>
       <c r="T17" s="143"/>
-      <c r="U17" s="174"/>
+      <c r="U17" s="173"/>
       <c r="V17" s="143"/>
-      <c r="W17" s="175"/>
+      <c r="W17" s="174"/>
       <c r="X17" s="159"/>
       <c r="Y17" s="159"/>
       <c r="Z17" s="160"/>
     </row>
     <row r="18" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A18" s="137"/>
-      <c r="B18" s="218"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="157"/>
       <c r="D18" s="154"/>
       <c r="E18" s="154"/>
-      <c r="F18" s="169"/>
+      <c r="F18" s="168"/>
       <c r="G18" s="143"/>
       <c r="H18" s="143"/>
       <c r="I18" s="143"/>
@@ -4049,49 +4104,49 @@
       <c r="O18" s="154"/>
       <c r="P18" s="154"/>
       <c r="Q18" s="154"/>
-      <c r="R18" s="170"/>
+      <c r="R18" s="169"/>
       <c r="S18" s="143"/>
       <c r="T18" s="143"/>
-      <c r="U18" s="179"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="180"/>
+      <c r="U18" s="178"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="179"/>
       <c r="X18" s="159"/>
       <c r="Y18" s="159"/>
       <c r="Z18" s="160"/>
     </row>
     <row r="19" spans="1:26" ht="4.5" customHeight="1">
       <c r="A19" s="137"/>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="201" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="170"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="181"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="169"/>
       <c r="S19" s="143"/>
       <c r="T19" s="143"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="175"/>
+      <c r="U19" s="173"/>
+      <c r="V19" s="185"/>
+      <c r="W19" s="174"/>
       <c r="X19" s="159"/>
       <c r="Y19" s="159"/>
       <c r="Z19" s="160"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="137"/>
-      <c r="B20" s="217"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="156"/>
       <c r="D20" s="154"/>
       <c r="E20" s="154"/>
@@ -4102,8 +4157,8 @@
       <c r="J20" s="154"/>
       <c r="K20" s="154"/>
       <c r="L20" s="154"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="177" t="s">
+      <c r="M20" s="173"/>
+      <c r="N20" s="176" t="s">
         <v>48</v>
       </c>
       <c r="O20" s="143"/>
@@ -4111,23 +4166,23 @@
         <v>70</v>
       </c>
       <c r="Q20" s="143"/>
-      <c r="R20" s="170"/>
+      <c r="R20" s="169"/>
       <c r="S20" s="152" t="s">
         <v>84</v>
       </c>
       <c r="T20" s="143"/>
-      <c r="U20" s="174"/>
-      <c r="V20" s="178" t="s">
+      <c r="U20" s="173"/>
+      <c r="V20" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="W20" s="187"/>
+      <c r="W20" s="186"/>
       <c r="X20" s="159"/>
       <c r="Y20" s="159"/>
       <c r="Z20" s="160"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="137"/>
-      <c r="B21" s="217"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="156"/>
       <c r="D21" s="154"/>
       <c r="E21" s="154"/>
@@ -4138,56 +4193,56 @@
       <c r="J21" s="154"/>
       <c r="K21" s="154"/>
       <c r="L21" s="154"/>
-      <c r="M21" s="174"/>
+      <c r="M21" s="173"/>
       <c r="N21" s="152" t="s">
         <v>69</v>
       </c>
       <c r="O21" s="143"/>
       <c r="P21" s="143"/>
       <c r="Q21" s="143"/>
-      <c r="R21" s="170"/>
+      <c r="R21" s="169"/>
       <c r="S21" s="143"/>
       <c r="T21" s="143"/>
-      <c r="U21" s="174"/>
+      <c r="U21" s="173"/>
       <c r="V21" s="143"/>
-      <c r="W21" s="187"/>
+      <c r="W21" s="186"/>
       <c r="X21" s="159"/>
       <c r="Y21" s="159"/>
       <c r="Z21" s="160"/>
     </row>
     <row r="22" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A22" s="137"/>
-      <c r="B22" s="218"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="189"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="192"/>
-      <c r="S22" s="191"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="190"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="193"/>
-      <c r="X22" s="194"/>
-      <c r="Y22" s="194"/>
-      <c r="Z22" s="195"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="191"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="190"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="193"/>
+      <c r="Y22" s="193"/>
+      <c r="Z22" s="194"/>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="137"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="137"/>
       <c r="F23" s="137"/>
       <c r="G23" s="137"/>
@@ -31625,11 +31680,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="R2:W4"/>
     <mergeCell ref="X2:Z4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:Q3"/>
@@ -31639,10 +31689,16 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="R2:W4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Y13" r:id="rId1" display="https://edu.amc.seoul.kr/" xr:uid="{D0ADB600-AD40-42EF-B8A5-45E24DD26D86}"/>
+    <hyperlink ref="Y16" r:id="rId2" xr:uid="{D8964E10-76E4-4153-BCE6-8C7770E43F0A}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -31653,7 +31709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B78AD1-A9DA-44CE-92FC-806C1A0DCF21}">
   <dimension ref="B1:AF983"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
@@ -31679,67 +31735,67 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="229"/>
-      <c r="H2" s="227" t="s">
+      <c r="G2" s="236"/>
+      <c r="H2" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="228"/>
-      <c r="J2" s="227" t="s">
+      <c r="I2" s="224"/>
+      <c r="J2" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="228"/>
-      <c r="L2" s="230" t="s">
+      <c r="K2" s="224"/>
+      <c r="L2" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="229"/>
-      <c r="N2" s="227" t="s">
+      <c r="M2" s="236"/>
+      <c r="N2" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="228"/>
-      <c r="P2" s="227" t="s">
+      <c r="O2" s="224"/>
+      <c r="P2" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="227" t="s">
+      <c r="Q2" s="224"/>
+      <c r="R2" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="228"/>
-      <c r="T2" s="227" t="s">
+      <c r="S2" s="224"/>
+      <c r="T2" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="228"/>
-      <c r="V2" s="227" t="s">
+      <c r="U2" s="224"/>
+      <c r="V2" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="229"/>
-      <c r="X2" s="227" t="s">
+      <c r="W2" s="236"/>
+      <c r="X2" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="227" t="s">
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="223" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="228"/>
-      <c r="AB2" s="230" t="s">
+      <c r="AA2" s="224"/>
+      <c r="AB2" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="229"/>
-      <c r="AD2" s="227" t="s">
+      <c r="AC2" s="236"/>
+      <c r="AD2" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="228"/>
+      <c r="AE2" s="224"/>
     </row>
     <row r="3" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B3" s="231" t="s">
+      <c r="B3" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="234" t="s">
+      <c r="C3" s="228" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="224" t="s">
+      <c r="D3" s="230" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -31773,9 +31829,9 @@
       <c r="AE3" s="16"/>
     </row>
     <row r="4" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B4" s="232"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="231"/>
       <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
@@ -31807,9 +31863,9 @@
       <c r="AE4" s="26"/>
     </row>
     <row r="5" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B5" s="232"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="236"/>
+      <c r="B5" s="226"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="17" t="s">
         <v>19</v>
       </c>
@@ -31841,9 +31897,9 @@
       <c r="AE5" s="26"/>
     </row>
     <row r="6" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B6" s="232"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
@@ -31875,11 +31931,11 @@
       <c r="AE6" s="26"/>
     </row>
     <row r="7" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="233"/>
+      <c r="B7" s="227"/>
       <c r="C7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="236"/>
+      <c r="D7" s="231"/>
       <c r="E7" s="34" t="s">
         <v>22</v>
       </c>
@@ -31917,7 +31973,7 @@
       <c r="C8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="236"/>
+      <c r="D8" s="231"/>
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
@@ -31953,7 +32009,7 @@
       <c r="C9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="236"/>
+      <c r="D9" s="231"/>
       <c r="E9" s="17" t="s">
         <v>27</v>
       </c>
@@ -31991,7 +32047,7 @@
       <c r="C10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="236"/>
+      <c r="D10" s="231"/>
       <c r="E10" s="17" t="s">
         <v>29</v>
       </c>
@@ -32027,7 +32083,7 @@
       <c r="C11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="237"/>
+      <c r="D11" s="232"/>
       <c r="E11" s="34" t="s">
         <v>31</v>
       </c>
@@ -32065,7 +32121,7 @@
       <c r="C12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="238" t="s">
+      <c r="D12" s="233" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="57" t="s">
@@ -32106,7 +32162,7 @@
       <c r="C13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="238"/>
+      <c r="D13" s="233"/>
       <c r="E13" s="69" t="s">
         <v>34</v>
       </c>
@@ -32145,7 +32201,7 @@
       <c r="C14" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="238"/>
+      <c r="D14" s="233"/>
       <c r="E14" s="69" t="s">
         <v>35</v>
       </c>
@@ -32184,7 +32240,7 @@
       <c r="C15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="238"/>
+      <c r="D15" s="233"/>
       <c r="E15" s="69" t="s">
         <v>36</v>
       </c>
@@ -32223,7 +32279,7 @@
       <c r="C16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="238"/>
+      <c r="D16" s="233"/>
       <c r="E16" s="69" t="s">
         <v>37</v>
       </c>
@@ -32262,7 +32318,7 @@
       <c r="C17" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="238"/>
+      <c r="D17" s="233"/>
       <c r="E17" s="85" t="s">
         <v>38</v>
       </c>
@@ -32301,7 +32357,7 @@
       <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="238"/>
+      <c r="D18" s="233"/>
       <c r="E18" s="69" t="s">
         <v>41</v>
       </c>
@@ -32340,7 +32396,7 @@
       <c r="C19" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="238"/>
+      <c r="D19" s="233"/>
       <c r="E19" s="69" t="s">
         <v>43</v>
       </c>
@@ -32377,7 +32433,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="91"/>
-      <c r="D20" s="239"/>
+      <c r="D20" s="234"/>
       <c r="E20" s="92" t="s">
         <v>44</v>
       </c>
@@ -32416,7 +32472,7 @@
       <c r="C21" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="224" t="s">
+      <c r="D21" s="230" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="102" t="s">
@@ -32456,7 +32512,7 @@
       <c r="C22" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="225"/>
+      <c r="D22" s="237"/>
       <c r="E22" s="69" t="s">
         <v>49</v>
       </c>
@@ -32494,7 +32550,7 @@
       <c r="C23" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="225"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="69" t="s">
         <v>50</v>
       </c>
@@ -32532,7 +32588,7 @@
       <c r="C24" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="225"/>
+      <c r="D24" s="237"/>
       <c r="E24" s="69" t="s">
         <v>51</v>
       </c>
@@ -32570,7 +32626,7 @@
       <c r="C25" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="225"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="69" t="s">
         <v>52</v>
       </c>
@@ -32608,7 +32664,7 @@
       <c r="C26" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="225"/>
+      <c r="D26" s="237"/>
       <c r="E26" s="92" t="s">
         <v>55</v>
       </c>
@@ -32644,7 +32700,7 @@
       <c r="C27" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="226"/>
+      <c r="D27" s="238"/>
       <c r="E27" s="124" t="s">
         <v>57</v>
       </c>
@@ -32679,7 +32735,7 @@
       <c r="B28" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="197" t="s">
+      <c r="C28" s="196" t="s">
         <v>59</v>
       </c>
       <c r="AE28" s="131"/>
@@ -35584,13 +35640,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -35602,6 +35651,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/project_bulletin/amcgic-bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:3_{55E49D15-C619-4094-A2DE-BC67A135251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9822064-7448-4FC5-909A-917EE6275546}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:3_{55E49D15-C619-4094-A2DE-BC67A135251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3670CF6-5D8F-4FF2-A87C-751B752A1D5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4986FC2-E32E-4EB8-A7E9-7734962D2B72}"/>
   </bookViews>
@@ -2571,7 +2571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3111,119 +3111,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3241,32 +3135,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3291,18 +3161,136 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="91" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3323,6 +3311,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3628,7 +3620,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -3693,112 +3685,112 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="124"/>
       <c r="B2" s="126"/>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208" t="s">
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="184"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="183" t="s">
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="221" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="185"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="216"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="124"/>
       <c r="B3" s="127"/>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="225" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="190"/>
-      <c r="E3" s="190"/>
-      <c r="F3" s="193" t="s">
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="226" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="194"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="187"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="187"/>
-      <c r="Z3" s="188"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="227"/>
+      <c r="O3" s="227"/>
+      <c r="P3" s="227"/>
+      <c r="Q3" s="228"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="218"/>
+      <c r="T3" s="218"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="218"/>
+      <c r="W3" s="219"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="218"/>
+      <c r="Z3" s="219"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="128"/>
       <c r="B4" s="129"/>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="226" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="198" t="s">
+      <c r="D4" s="229"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="231" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="188"/>
-      <c r="H4" s="198" t="s">
+      <c r="G4" s="219"/>
+      <c r="H4" s="231" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="188"/>
-      <c r="J4" s="193" t="s">
+      <c r="I4" s="219"/>
+      <c r="J4" s="226" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="196"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="198" t="s">
+      <c r="K4" s="229"/>
+      <c r="L4" s="230"/>
+      <c r="M4" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="199"/>
-      <c r="O4" s="198" t="s">
+      <c r="N4" s="220"/>
+      <c r="O4" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="199"/>
-      <c r="Q4" s="199"/>
-      <c r="R4" s="186"/>
-      <c r="S4" s="199"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="199"/>
-      <c r="V4" s="199"/>
-      <c r="W4" s="188"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="191"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="220"/>
+      <c r="R4" s="217"/>
+      <c r="S4" s="220"/>
+      <c r="T4" s="220"/>
+      <c r="U4" s="220"/>
+      <c r="V4" s="220"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="222"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="224"/>
     </row>
     <row r="5" spans="1:26" ht="3.75" customHeight="1">
       <c r="A5" s="128"/>
-      <c r="B5" s="200" t="s">
+      <c r="B5" s="206" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="130"/>
@@ -3828,7 +3820,7 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="124"/>
-      <c r="B6" s="201"/>
+      <c r="B6" s="207"/>
       <c r="C6" s="130"/>
       <c r="D6" s="139" t="s">
         <v>18</v>
@@ -3858,7 +3850,7 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="124"/>
-      <c r="B7" s="201"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="130"/>
       <c r="D7" s="139" t="s">
         <v>19</v>
@@ -3887,7 +3879,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="124"/>
-      <c r="B8" s="201"/>
+      <c r="B8" s="207"/>
       <c r="C8" s="130"/>
       <c r="D8" s="139" t="s">
         <v>20</v>
@@ -3912,14 +3904,14 @@
       <c r="V8" s="144"/>
       <c r="W8" s="145"/>
       <c r="X8" s="146"/>
-      <c r="Y8" s="258" t="s">
+      <c r="Y8" s="204" t="s">
         <v>70</v>
       </c>
       <c r="Z8" s="147"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="124"/>
-      <c r="B9" s="201"/>
+      <c r="B9" s="207"/>
       <c r="C9" s="130"/>
       <c r="D9" s="139" t="s">
         <v>25</v>
@@ -3944,12 +3936,12 @@
       <c r="V9" s="144"/>
       <c r="W9" s="145"/>
       <c r="X9" s="146"/>
-      <c r="Y9" s="257"/>
+      <c r="Y9" s="203"/>
       <c r="Z9" s="147"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="124"/>
-      <c r="B10" s="201"/>
+      <c r="B10" s="207"/>
       <c r="C10" s="130"/>
       <c r="D10" s="139" t="s">
         <v>29</v>
@@ -3974,12 +3966,12 @@
       <c r="V10" s="144"/>
       <c r="W10" s="145"/>
       <c r="X10" s="146"/>
-      <c r="Y10" s="257"/>
+      <c r="Y10" s="203"/>
       <c r="Z10" s="147"/>
     </row>
     <row r="11" spans="1:26" ht="5.25" customHeight="1" thickBot="1">
       <c r="A11" s="124"/>
-      <c r="B11" s="202"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="148"/>
       <c r="D11" s="149"/>
       <c r="E11" s="149"/>
@@ -4002,12 +3994,12 @@
       <c r="V11" s="154"/>
       <c r="W11" s="145"/>
       <c r="X11" s="146"/>
-      <c r="Y11" s="256"/>
+      <c r="Y11" s="202"/>
       <c r="Z11" s="147"/>
     </row>
     <row r="12" spans="1:26" ht="5.25" customHeight="1">
       <c r="A12" s="124"/>
-      <c r="B12" s="203" t="s">
+      <c r="B12" s="209" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="141"/>
@@ -4037,7 +4029,7 @@
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="124"/>
-      <c r="B13" s="201"/>
+      <c r="B13" s="207"/>
       <c r="C13" s="144"/>
       <c r="D13" s="141"/>
       <c r="E13" s="141"/>
@@ -4068,14 +4060,14 @@
       </c>
       <c r="W13" s="161"/>
       <c r="X13" s="146"/>
-      <c r="Y13" s="255" t="s">
+      <c r="Y13" s="201" t="s">
         <v>87</v>
       </c>
       <c r="Z13" s="147"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="124"/>
-      <c r="B14" s="201"/>
+      <c r="B14" s="207"/>
       <c r="C14" s="144"/>
       <c r="D14" s="141"/>
       <c r="E14" s="141"/>
@@ -4106,12 +4098,12 @@
       </c>
       <c r="W14" s="161"/>
       <c r="X14" s="146"/>
-      <c r="Y14" s="255"/>
+      <c r="Y14" s="201"/>
       <c r="Z14" s="147"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="124"/>
-      <c r="B15" s="201"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="144"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
@@ -4140,12 +4132,12 @@
       </c>
       <c r="W15" s="161"/>
       <c r="X15" s="146"/>
-      <c r="Y15" s="257"/>
+      <c r="Y15" s="203"/>
       <c r="Z15" s="147"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="124"/>
-      <c r="B16" s="201"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="144"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
@@ -4172,12 +4164,12 @@
       <c r="V16" s="130"/>
       <c r="W16" s="161"/>
       <c r="X16" s="146"/>
-      <c r="Y16" s="257"/>
+      <c r="Y16" s="203"/>
       <c r="Z16" s="147"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="124"/>
-      <c r="B17" s="201"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="144"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
@@ -4196,7 +4188,7 @@
       <c r="P17" s="141"/>
       <c r="Q17" s="141"/>
       <c r="R17" s="156"/>
-      <c r="S17" s="259" t="s">
+      <c r="S17" s="205" t="s">
         <v>89</v>
       </c>
       <c r="T17" s="130"/>
@@ -4204,14 +4196,14 @@
       <c r="V17" s="130"/>
       <c r="W17" s="161"/>
       <c r="X17" s="146"/>
-      <c r="Y17" s="255" t="s">
+      <c r="Y17" s="201" t="s">
         <v>91</v>
       </c>
       <c r="Z17" s="147"/>
     </row>
     <row r="18" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A18" s="124"/>
-      <c r="B18" s="202"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="144"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
@@ -4239,7 +4231,7 @@
     </row>
     <row r="19" spans="1:26" ht="4.5" customHeight="1">
       <c r="A19" s="124"/>
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="210" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="166"/>
@@ -4269,7 +4261,7 @@
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="124"/>
-      <c r="B20" s="201"/>
+      <c r="B20" s="207"/>
       <c r="C20" s="143"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
@@ -4297,12 +4289,12 @@
       </c>
       <c r="W20" s="172"/>
       <c r="X20" s="146"/>
-      <c r="Y20" s="255"/>
+      <c r="Y20" s="201"/>
       <c r="Z20" s="147"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="124"/>
-      <c r="B21" s="201"/>
+      <c r="B21" s="207"/>
       <c r="C21" s="143"/>
       <c r="D21" s="141"/>
       <c r="E21" s="141"/>
@@ -4332,7 +4324,7 @@
     </row>
     <row r="22" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A22" s="124"/>
-      <c r="B22" s="202"/>
+      <c r="B22" s="208"/>
       <c r="C22" s="173"/>
       <c r="D22" s="174"/>
       <c r="E22" s="174"/>
@@ -31800,11 +31792,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="R2:W4"/>
     <mergeCell ref="X2:Z4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:Q3"/>
@@ -31814,12 +31801,17 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="R2:W4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Y13" r:id="rId1" xr:uid="{203C13F3-A1EF-4441-9773-109B3A440BD5}"/>
     <hyperlink ref="Y8" r:id="rId2" xr:uid="{A6B10000-E896-4C22-BB35-44C8FBAC0C5B}"/>
-    <hyperlink ref="Y17" r:id="rId3" display="EGD Dx. training" xr:uid="{01D4BE13-5832-411F-89CA-E76EB13C1EE8}"/>
+    <hyperlink ref="Y17" r:id="rId3" xr:uid="{01D4BE13-5832-411F-89CA-E76EB13C1EE8}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -31856,67 +31848,67 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="213"/>
-      <c r="H2" s="211" t="s">
+      <c r="G2" s="245"/>
+      <c r="H2" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="211" t="s">
+      <c r="I2" s="233"/>
+      <c r="J2" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="212"/>
-      <c r="L2" s="214" t="s">
+      <c r="K2" s="233"/>
+      <c r="L2" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="213"/>
-      <c r="N2" s="211" t="s">
+      <c r="M2" s="245"/>
+      <c r="N2" s="232" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="212"/>
-      <c r="P2" s="211" t="s">
+      <c r="O2" s="233"/>
+      <c r="P2" s="232" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="211" t="s">
+      <c r="Q2" s="233"/>
+      <c r="R2" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="212"/>
-      <c r="T2" s="211" t="s">
+      <c r="S2" s="233"/>
+      <c r="T2" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="212"/>
-      <c r="V2" s="211" t="s">
+      <c r="U2" s="233"/>
+      <c r="V2" s="232" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="213"/>
-      <c r="X2" s="211" t="s">
+      <c r="W2" s="245"/>
+      <c r="X2" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="211" t="s">
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="212"/>
-      <c r="AB2" s="214" t="s">
+      <c r="AA2" s="233"/>
+      <c r="AB2" s="244" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="213"/>
-      <c r="AD2" s="211" t="s">
+      <c r="AC2" s="245"/>
+      <c r="AD2" s="232" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="212"/>
+      <c r="AE2" s="233"/>
     </row>
     <row r="3" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="234" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="218" t="s">
+      <c r="C3" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="209" t="s">
+      <c r="D3" s="239" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -31950,9 +31942,9 @@
       <c r="AE3" s="16"/>
     </row>
     <row r="4" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B4" s="216"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="220"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="17" t="s">
         <v>18</v>
       </c>
@@ -31984,9 +31976,9 @@
       <c r="AE4" s="26"/>
     </row>
     <row r="5" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B5" s="216"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="220"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="240"/>
       <c r="E5" s="17" t="s">
         <v>19</v>
       </c>
@@ -32018,9 +32010,9 @@
       <c r="AE5" s="26"/>
     </row>
     <row r="6" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B6" s="216"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="220"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
@@ -32052,11 +32044,11 @@
       <c r="AE6" s="26"/>
     </row>
     <row r="7" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B7" s="217"/>
+      <c r="B7" s="236"/>
       <c r="C7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="220"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="34" t="s">
         <v>22</v>
       </c>
@@ -32094,7 +32086,7 @@
       <c r="C8" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="220"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
@@ -32130,7 +32122,7 @@
       <c r="C9" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="220"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="17" t="s">
         <v>27</v>
       </c>
@@ -32168,7 +32160,7 @@
       <c r="C10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="220"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="17" t="s">
         <v>29</v>
       </c>
@@ -32204,7 +32196,7 @@
       <c r="C11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="221"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="34" t="s">
         <v>31</v>
       </c>
@@ -32242,7 +32234,7 @@
       <c r="C12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="242" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="57" t="s">
@@ -32283,7 +32275,7 @@
       <c r="C13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="222"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="69" t="s">
         <v>34</v>
       </c>
@@ -32322,7 +32314,7 @@
       <c r="C14" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="222"/>
+      <c r="D14" s="242"/>
       <c r="E14" s="69" t="s">
         <v>35</v>
       </c>
@@ -32361,7 +32353,7 @@
       <c r="C15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="222"/>
+      <c r="D15" s="242"/>
       <c r="E15" s="69" t="s">
         <v>36</v>
       </c>
@@ -32400,7 +32392,7 @@
       <c r="C16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="222"/>
+      <c r="D16" s="242"/>
       <c r="E16" s="69" t="s">
         <v>37</v>
       </c>
@@ -32439,7 +32431,7 @@
       <c r="C17" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="222"/>
+      <c r="D17" s="242"/>
       <c r="E17" s="85" t="s">
         <v>38</v>
       </c>
@@ -32478,7 +32470,7 @@
       <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="222"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="69" t="s">
         <v>41</v>
       </c>
@@ -32517,7 +32509,7 @@
       <c r="C19" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="222"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="69" t="s">
         <v>43</v>
       </c>
@@ -32554,7 +32546,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="91"/>
-      <c r="D20" s="223"/>
+      <c r="D20" s="243"/>
       <c r="E20" s="92" t="s">
         <v>44</v>
       </c>
@@ -32593,21 +32585,21 @@
       <c r="C21" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="209" t="s">
+      <c r="D21" s="239" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="241"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="229"/>
-      <c r="I21" s="229"/>
-      <c r="J21" s="229"/>
-      <c r="K21" s="242"/>
-      <c r="L21" s="235"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="248"/>
+      <c r="K21" s="249"/>
+      <c r="L21" s="189"/>
       <c r="M21" s="107"/>
-      <c r="N21" s="232"/>
+      <c r="N21" s="186"/>
       <c r="O21" s="104"/>
       <c r="P21" s="105"/>
       <c r="Q21" s="103"/>
@@ -32633,19 +32625,19 @@
       <c r="C22" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="210"/>
+      <c r="D22" s="246"/>
       <c r="E22" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="243"/>
-      <c r="G22" s="230"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="230"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="244"/>
+      <c r="F22" s="250"/>
+      <c r="G22" s="251"/>
+      <c r="H22" s="251"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="251"/>
+      <c r="K22" s="252"/>
       <c r="L22" s="70"/>
       <c r="M22" s="76"/>
-      <c r="N22" s="233"/>
+      <c r="N22" s="187"/>
       <c r="O22" s="108"/>
       <c r="P22" s="109"/>
       <c r="Q22" s="71"/>
@@ -32671,19 +32663,19 @@
       <c r="C23" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="210"/>
+      <c r="D23" s="246"/>
       <c r="E23" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="243"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="244"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="251"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="251"/>
+      <c r="K23" s="252"/>
       <c r="L23" s="70"/>
       <c r="M23" s="76"/>
-      <c r="N23" s="233"/>
+      <c r="N23" s="187"/>
       <c r="O23" s="108"/>
       <c r="P23" s="109"/>
       <c r="Q23" s="71"/>
@@ -32709,16 +32701,16 @@
       <c r="C24" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="210"/>
+      <c r="D24" s="246"/>
       <c r="E24" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="243"/>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="230"/>
-      <c r="K24" s="244"/>
+      <c r="F24" s="250"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="251"/>
+      <c r="K24" s="252"/>
       <c r="L24" s="70"/>
       <c r="M24" s="76"/>
       <c r="N24" s="75"/>
@@ -32747,19 +32739,19 @@
       <c r="C25" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="210"/>
+      <c r="D25" s="246"/>
       <c r="E25" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="243"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="230"/>
-      <c r="I25" s="230"/>
-      <c r="J25" s="230"/>
-      <c r="K25" s="244"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="252"/>
       <c r="L25" s="70"/>
       <c r="M25" s="76"/>
-      <c r="N25" s="234"/>
+      <c r="N25" s="188"/>
       <c r="O25" s="108"/>
       <c r="P25" s="110"/>
       <c r="Q25" s="108"/>
@@ -32785,18 +32777,18 @@
       <c r="C26" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="210"/>
+      <c r="D26" s="246"/>
       <c r="E26" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="243"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="230"/>
-      <c r="J26" s="230"/>
-      <c r="K26" s="244"/>
-      <c r="L26" s="236"/>
-      <c r="M26" s="225"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="251"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="251"/>
+      <c r="K26" s="252"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="184"/>
       <c r="N26" s="98"/>
       <c r="O26" s="99"/>
       <c r="P26" s="112"/>
@@ -32821,24 +32813,24 @@
       <c r="C27" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="210"/>
+      <c r="D27" s="246"/>
       <c r="E27" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="243"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="230"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="230"/>
-      <c r="K27" s="244"/>
-      <c r="L27" s="236"/>
-      <c r="M27" s="225"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="251"/>
+      <c r="K27" s="252"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="184"/>
       <c r="N27" s="98"/>
       <c r="O27" s="99"/>
       <c r="P27" s="112"/>
       <c r="Q27" s="99"/>
       <c r="R27" s="112"/>
-      <c r="S27" s="224"/>
+      <c r="S27" s="183"/>
       <c r="T27" s="112"/>
       <c r="U27" s="99"/>
       <c r="V27" s="112"/>
@@ -32846,87 +32838,87 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="99"/>
       <c r="Z27" s="112"/>
-      <c r="AA27" s="224"/>
+      <c r="AA27" s="183"/>
       <c r="AB27" s="112"/>
       <c r="AC27" s="99"/>
       <c r="AD27" s="112"/>
-      <c r="AE27" s="225"/>
+      <c r="AE27" s="184"/>
     </row>
     <row r="28" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="226" t="s">
+      <c r="B28" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="227" t="s">
+      <c r="C28" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="237"/>
-      <c r="E28" s="239" t="s">
+      <c r="D28" s="191"/>
+      <c r="E28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="243"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="230"/>
-      <c r="J28" s="230"/>
-      <c r="K28" s="244"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="248"/>
-      <c r="N28" s="249"/>
-      <c r="O28" s="250"/>
-      <c r="P28" s="247"/>
-      <c r="Q28" s="248"/>
-      <c r="R28" s="249"/>
-      <c r="S28" s="250"/>
-      <c r="T28" s="247"/>
-      <c r="U28" s="248"/>
-      <c r="V28" s="249"/>
-      <c r="W28" s="250"/>
-      <c r="X28" s="247"/>
-      <c r="Y28" s="248"/>
-      <c r="Z28" s="249"/>
-      <c r="AA28" s="250"/>
-      <c r="AB28" s="247"/>
-      <c r="AC28" s="248"/>
-      <c r="AD28" s="249"/>
-      <c r="AE28" s="248"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="251"/>
+      <c r="H28" s="251"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="251"/>
+      <c r="K28" s="252"/>
+      <c r="L28" s="193"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="195"/>
+      <c r="O28" s="196"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="195"/>
+      <c r="S28" s="196"/>
+      <c r="T28" s="193"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="195"/>
+      <c r="W28" s="196"/>
+      <c r="X28" s="193"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="195"/>
+      <c r="AA28" s="196"/>
+      <c r="AB28" s="193"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="195"/>
+      <c r="AE28" s="194"/>
     </row>
     <row r="29" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B29" s="226" t="s">
+      <c r="B29" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="228" t="s">
+      <c r="C29" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="238"/>
-      <c r="E29" s="240" t="s">
+      <c r="D29" s="192"/>
+      <c r="E29" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="245"/>
-      <c r="G29" s="231"/>
-      <c r="H29" s="231"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="231"/>
-      <c r="K29" s="246"/>
-      <c r="L29" s="251"/>
-      <c r="M29" s="252"/>
-      <c r="N29" s="253"/>
-      <c r="O29" s="254"/>
-      <c r="P29" s="251"/>
-      <c r="Q29" s="252"/>
-      <c r="R29" s="253"/>
-      <c r="S29" s="254"/>
-      <c r="T29" s="251"/>
-      <c r="U29" s="252"/>
-      <c r="V29" s="253"/>
-      <c r="W29" s="254"/>
-      <c r="X29" s="251"/>
-      <c r="Y29" s="252"/>
-      <c r="Z29" s="253"/>
-      <c r="AA29" s="254"/>
-      <c r="AB29" s="251"/>
-      <c r="AC29" s="252"/>
-      <c r="AD29" s="253"/>
-      <c r="AE29" s="252"/>
+      <c r="F29" s="253"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="254"/>
+      <c r="K29" s="255"/>
+      <c r="L29" s="197"/>
+      <c r="M29" s="198"/>
+      <c r="N29" s="199"/>
+      <c r="O29" s="200"/>
+      <c r="P29" s="197"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="199"/>
+      <c r="S29" s="200"/>
+      <c r="T29" s="197"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="199"/>
+      <c r="W29" s="200"/>
+      <c r="X29" s="197"/>
+      <c r="Y29" s="198"/>
+      <c r="Z29" s="199"/>
+      <c r="AA29" s="200"/>
+      <c r="AB29" s="197"/>
+      <c r="AC29" s="198"/>
+      <c r="AD29" s="199"/>
+      <c r="AE29" s="198"/>
     </row>
     <row r="30" spans="2:32" ht="16.5" customHeight="1">
       <c r="B30" s="116" t="s">
@@ -35837,13 +35829,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="D12:D20"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -35856,6 +35841,13 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="F21:K29"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="D12:D20"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/project_bulletin/amcgic-bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{B1F088B6-7BBD-479D-A3FA-986F21ACA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:3_{B1F088B6-7BBD-479D-A3FA-986F21ACA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C082D07-CE7A-4368-B6BE-FB291DEA5F19}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1440" windowWidth="33675" windowHeight="19395" activeTab="1" xr2:uid="{A4986FC2-E32E-4EB8-A7E9-7734962D2B72}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A4986FC2-E32E-4EB8-A7E9-7734962D2B72}"/>
   </bookViews>
   <sheets>
     <sheet name="2024년 EGD 교육 프로그램 구성표" sheetId="3" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="106">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -2135,17 +2135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2778,7 +2767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3104,18 +3093,18 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3126,26 +3115,29 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3153,67 +3145,64 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3222,70 +3211,70 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="84" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3309,10 +3298,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3349,7 +3338,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3361,16 +3350,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3379,43 +3368,46 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="94" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="92" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="98" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="99" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3424,11 +3416,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="90" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3436,22 +3428,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3460,50 +3452,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="104" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="105" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="101" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="102" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3515,9 +3481,49 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3545,53 +3551,33 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="98" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="97" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="87" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="88" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="89" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3982,112 +3968,112 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="116"/>
       <c r="B2" s="118"/>
-      <c r="C2" s="255" t="s">
+      <c r="C2" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258" t="s">
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
+      <c r="H2" s="240"/>
+      <c r="I2" s="240"/>
+      <c r="J2" s="240"/>
+      <c r="K2" s="240"/>
+      <c r="L2" s="240"/>
+      <c r="M2" s="240"/>
+      <c r="N2" s="240"/>
+      <c r="O2" s="240"/>
+      <c r="P2" s="240"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="242" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="234"/>
-      <c r="T2" s="234"/>
-      <c r="U2" s="234"/>
-      <c r="V2" s="234"/>
-      <c r="W2" s="235"/>
-      <c r="X2" s="233" t="s">
+      <c r="S2" s="243"/>
+      <c r="T2" s="243"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="243"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="234"/>
-      <c r="Z2" s="235"/>
+      <c r="Y2" s="243"/>
+      <c r="Z2" s="244"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="116"/>
       <c r="B3" s="119"/>
-      <c r="C3" s="242" t="s">
+      <c r="C3" s="253" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="243" t="s">
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="245"/>
-      <c r="R3" s="236"/>
-      <c r="S3" s="237"/>
-      <c r="T3" s="237"/>
-      <c r="U3" s="237"/>
-      <c r="V3" s="237"/>
-      <c r="W3" s="238"/>
-      <c r="X3" s="236"/>
-      <c r="Y3" s="237"/>
-      <c r="Z3" s="238"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="245"/>
+      <c r="S3" s="246"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="246"/>
+      <c r="V3" s="246"/>
+      <c r="W3" s="247"/>
+      <c r="X3" s="245"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="247"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="120"/>
       <c r="B4" s="121"/>
-      <c r="C4" s="243" t="s">
+      <c r="C4" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="246"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="248" t="s">
+      <c r="D4" s="257"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="238"/>
-      <c r="H4" s="248" t="s">
+      <c r="G4" s="247"/>
+      <c r="H4" s="259" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="238"/>
-      <c r="J4" s="243" t="s">
+      <c r="I4" s="247"/>
+      <c r="J4" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="246"/>
-      <c r="L4" s="247"/>
-      <c r="M4" s="248" t="s">
+      <c r="K4" s="257"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="249"/>
-      <c r="O4" s="248" t="s">
+      <c r="N4" s="248"/>
+      <c r="O4" s="259" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="236"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="249"/>
-      <c r="U4" s="249"/>
-      <c r="V4" s="249"/>
-      <c r="W4" s="238"/>
-      <c r="X4" s="239"/>
-      <c r="Y4" s="240"/>
-      <c r="Z4" s="241"/>
+      <c r="P4" s="248"/>
+      <c r="Q4" s="248"/>
+      <c r="R4" s="245"/>
+      <c r="S4" s="248"/>
+      <c r="T4" s="248"/>
+      <c r="U4" s="248"/>
+      <c r="V4" s="248"/>
+      <c r="W4" s="247"/>
+      <c r="X4" s="250"/>
+      <c r="Y4" s="251"/>
+      <c r="Z4" s="252"/>
     </row>
     <row r="5" spans="1:26" ht="3.75" customHeight="1">
       <c r="A5" s="120"/>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="234" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="122"/>
@@ -4117,7 +4103,7 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="116"/>
-      <c r="B6" s="251"/>
+      <c r="B6" s="235"/>
       <c r="C6" s="122"/>
       <c r="D6" s="131" t="s">
         <v>16</v>
@@ -4147,7 +4133,7 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="116"/>
-      <c r="B7" s="251"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="122"/>
       <c r="D7" s="131" t="s">
         <v>17</v>
@@ -4176,7 +4162,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="116"/>
-      <c r="B8" s="251"/>
+      <c r="B8" s="235"/>
       <c r="C8" s="122"/>
       <c r="D8" s="131" t="s">
         <v>18</v>
@@ -4208,7 +4194,7 @@
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="116"/>
-      <c r="B9" s="251"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="122"/>
       <c r="D9" s="131" t="s">
         <v>22</v>
@@ -4238,7 +4224,7 @@
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="116"/>
-      <c r="B10" s="251"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="122"/>
       <c r="D10" s="131" t="s">
         <v>26</v>
@@ -4268,7 +4254,7 @@
     </row>
     <row r="11" spans="1:26" ht="5.25" customHeight="1" thickBot="1">
       <c r="A11" s="116"/>
-      <c r="B11" s="252"/>
+      <c r="B11" s="236"/>
       <c r="C11" s="140"/>
       <c r="D11" s="141"/>
       <c r="E11" s="141"/>
@@ -4296,7 +4282,7 @@
     </row>
     <row r="12" spans="1:26" ht="5.25" customHeight="1">
       <c r="A12" s="116"/>
-      <c r="B12" s="253" t="s">
+      <c r="B12" s="237" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="133"/>
@@ -4326,7 +4312,7 @@
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="116"/>
-      <c r="B13" s="251"/>
+      <c r="B13" s="235"/>
       <c r="C13" s="136"/>
       <c r="D13" s="133"/>
       <c r="E13" s="133"/>
@@ -4364,7 +4350,7 @@
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="116"/>
-      <c r="B14" s="251"/>
+      <c r="B14" s="235"/>
       <c r="C14" s="136"/>
       <c r="D14" s="133"/>
       <c r="E14" s="133"/>
@@ -4400,7 +4386,7 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="116"/>
-      <c r="B15" s="251"/>
+      <c r="B15" s="235"/>
       <c r="C15" s="136"/>
       <c r="D15" s="133"/>
       <c r="E15" s="133"/>
@@ -4434,7 +4420,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="116"/>
-      <c r="B16" s="251"/>
+      <c r="B16" s="235"/>
       <c r="C16" s="136"/>
       <c r="D16" s="133"/>
       <c r="E16" s="133"/>
@@ -4466,7 +4452,7 @@
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="116"/>
-      <c r="B17" s="251"/>
+      <c r="B17" s="235"/>
       <c r="C17" s="136"/>
       <c r="D17" s="133"/>
       <c r="E17" s="133"/>
@@ -4500,7 +4486,7 @@
     </row>
     <row r="18" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A18" s="116"/>
-      <c r="B18" s="252"/>
+      <c r="B18" s="236"/>
       <c r="C18" s="136"/>
       <c r="D18" s="133"/>
       <c r="E18" s="133"/>
@@ -4528,7 +4514,7 @@
     </row>
     <row r="19" spans="1:26" ht="4.5" customHeight="1">
       <c r="A19" s="116"/>
-      <c r="B19" s="254" t="s">
+      <c r="B19" s="238" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="158"/>
@@ -4558,7 +4544,7 @@
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="116"/>
-      <c r="B20" s="251"/>
+      <c r="B20" s="235"/>
       <c r="C20" s="135"/>
       <c r="D20" s="133"/>
       <c r="E20" s="133"/>
@@ -4591,7 +4577,7 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="116"/>
-      <c r="B21" s="251"/>
+      <c r="B21" s="235"/>
       <c r="C21" s="135"/>
       <c r="D21" s="133"/>
       <c r="E21" s="133"/>
@@ -4621,7 +4607,7 @@
     </row>
     <row r="22" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A22" s="116"/>
-      <c r="B22" s="252"/>
+      <c r="B22" s="236"/>
       <c r="C22" s="165"/>
       <c r="D22" s="166"/>
       <c r="E22" s="166"/>
@@ -32089,11 +32075,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="R2:W4"/>
     <mergeCell ref="X2:Z4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:Q3"/>
@@ -32103,6 +32084,11 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="R2:W4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -32119,8 +32105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B78AD1-A9DA-44CE-92FC-806C1A0DCF21}">
   <dimension ref="B1:AF986"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -32149,58 +32135,58 @@
       <c r="E2" s="198" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="270" t="s">
+      <c r="F2" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="272"/>
-      <c r="H2" s="270" t="s">
+      <c r="G2" s="265"/>
+      <c r="H2" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="271"/>
-      <c r="J2" s="270" t="s">
+      <c r="I2" s="261"/>
+      <c r="J2" s="260" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="271"/>
-      <c r="L2" s="273" t="s">
+      <c r="K2" s="261"/>
+      <c r="L2" s="264" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="272"/>
-      <c r="N2" s="270" t="s">
+      <c r="M2" s="265"/>
+      <c r="N2" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="271"/>
-      <c r="P2" s="270" t="s">
+      <c r="O2" s="261"/>
+      <c r="P2" s="260" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="270" t="s">
+      <c r="Q2" s="261"/>
+      <c r="R2" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="271"/>
-      <c r="T2" s="270" t="s">
+      <c r="S2" s="261"/>
+      <c r="T2" s="260" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="271"/>
-      <c r="V2" s="270" t="s">
+      <c r="U2" s="261"/>
+      <c r="V2" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="272"/>
-      <c r="X2" s="270" t="s">
+      <c r="W2" s="265"/>
+      <c r="X2" s="260" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="271"/>
-      <c r="Z2" s="270" t="s">
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="271"/>
-      <c r="AB2" s="273" t="s">
+      <c r="AA2" s="261"/>
+      <c r="AB2" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="272"/>
-      <c r="AD2" s="270" t="s">
+      <c r="AC2" s="265"/>
+      <c r="AD2" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="271"/>
+      <c r="AE2" s="261"/>
     </row>
     <row r="3" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
       <c r="B3" s="195" t="s">
@@ -32209,7 +32195,7 @@
       <c r="C3" s="220" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="266" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="174" t="s">
@@ -32243,13 +32229,13 @@
       <c r="AE3" s="226"/>
     </row>
     <row r="4" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B4" s="262" t="s">
+      <c r="B4" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="267" t="s">
+      <c r="C4" s="274" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="260"/>
+      <c r="D4" s="267"/>
       <c r="E4" s="199" t="s">
         <v>15</v>
       </c>
@@ -32281,9 +32267,9 @@
       <c r="AE4" s="216"/>
     </row>
     <row r="5" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B5" s="263"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="260"/>
+      <c r="B5" s="270"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="267"/>
       <c r="E5" s="200" t="s">
         <v>16</v>
       </c>
@@ -32315,9 +32301,9 @@
       <c r="AE5" s="20"/>
     </row>
     <row r="6" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B6" s="263"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="260"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="274"/>
+      <c r="D6" s="267"/>
       <c r="E6" s="200" t="s">
         <v>17</v>
       </c>
@@ -32349,9 +32335,9 @@
       <c r="AE6" s="20"/>
     </row>
     <row r="7" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B7" s="263"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="260"/>
+      <c r="B7" s="270"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="267"/>
       <c r="E7" s="200" t="s">
         <v>18</v>
       </c>
@@ -32383,11 +32369,11 @@
       <c r="AE7" s="20"/>
     </row>
     <row r="8" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="264"/>
+      <c r="B8" s="271"/>
       <c r="C8" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="260"/>
+      <c r="D8" s="267"/>
       <c r="E8" s="201" t="s">
         <v>19</v>
       </c>
@@ -32425,7 +32411,7 @@
       <c r="C9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="260"/>
+      <c r="D9" s="267"/>
       <c r="E9" s="217" t="s">
         <v>22</v>
       </c>
@@ -32461,7 +32447,7 @@
       <c r="C10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="260"/>
+      <c r="D10" s="267"/>
       <c r="E10" s="218" t="s">
         <v>24</v>
       </c>
@@ -32499,7 +32485,7 @@
       <c r="C11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="260"/>
+      <c r="D11" s="267"/>
       <c r="E11" s="218" t="s">
         <v>26</v>
       </c>
@@ -32535,7 +32521,7 @@
       <c r="C12" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="261"/>
+      <c r="D12" s="268"/>
       <c r="E12" s="219" t="s">
         <v>27</v>
       </c>
@@ -32573,7 +32559,7 @@
       <c r="C13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="283" t="s">
+      <c r="D13" s="262" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="50" t="s">
@@ -32614,7 +32600,7 @@
       <c r="C14" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="283"/>
+      <c r="D14" s="262"/>
       <c r="E14" s="62" t="s">
         <v>30</v>
       </c>
@@ -32653,7 +32639,7 @@
       <c r="C15" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="283"/>
+      <c r="D15" s="262"/>
       <c r="E15" s="62" t="s">
         <v>31</v>
       </c>
@@ -32692,7 +32678,7 @@
       <c r="C16" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="283"/>
+      <c r="D16" s="262"/>
       <c r="E16" s="62" t="s">
         <v>32</v>
       </c>
@@ -32731,7 +32717,7 @@
       <c r="C17" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="283"/>
+      <c r="D17" s="262"/>
       <c r="E17" s="62" t="s">
         <v>33</v>
       </c>
@@ -32770,7 +32756,7 @@
       <c r="C18" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="283"/>
+      <c r="D18" s="262"/>
       <c r="E18" s="78" t="s">
         <v>34</v>
       </c>
@@ -32809,7 +32795,7 @@
       <c r="C19" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="283"/>
+      <c r="D19" s="262"/>
       <c r="E19" s="62" t="s">
         <v>37</v>
       </c>
@@ -32848,7 +32834,7 @@
       <c r="C20" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="283"/>
+      <c r="D20" s="262"/>
       <c r="E20" s="62" t="s">
         <v>38</v>
       </c>
@@ -32885,7 +32871,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="84"/>
-      <c r="D21" s="284"/>
+      <c r="D21" s="263"/>
       <c r="E21" s="85" t="s">
         <v>39</v>
       </c>
@@ -32924,18 +32910,18 @@
       <c r="C22" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="266" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="274"/>
-      <c r="G22" s="275"/>
-      <c r="H22" s="275"/>
-      <c r="I22" s="275"/>
-      <c r="J22" s="275"/>
-      <c r="K22" s="276"/>
+      <c r="F22" s="277"/>
+      <c r="G22" s="278"/>
+      <c r="H22" s="278"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="278"/>
+      <c r="K22" s="279"/>
       <c r="L22" s="180"/>
       <c r="M22" s="100"/>
       <c r="N22" s="177"/>
@@ -32964,16 +32950,16 @@
       <c r="C23" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="269"/>
+      <c r="D23" s="276"/>
       <c r="E23" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="277"/>
-      <c r="G23" s="278"/>
-      <c r="H23" s="278"/>
-      <c r="I23" s="278"/>
-      <c r="J23" s="278"/>
-      <c r="K23" s="279"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="281"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="281"/>
+      <c r="K23" s="282"/>
       <c r="L23" s="63"/>
       <c r="M23" s="69"/>
       <c r="N23" s="178"/>
@@ -33002,16 +32988,16 @@
       <c r="C24" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="269"/>
+      <c r="D24" s="276"/>
       <c r="E24" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="277"/>
-      <c r="G24" s="278"/>
-      <c r="H24" s="278"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="278"/>
-      <c r="K24" s="279"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="281"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="281"/>
+      <c r="K24" s="282"/>
       <c r="L24" s="63"/>
       <c r="M24" s="69"/>
       <c r="N24" s="178"/>
@@ -33040,16 +33026,16 @@
       <c r="C25" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="269"/>
+      <c r="D25" s="276"/>
       <c r="E25" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="277"/>
-      <c r="G25" s="278"/>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="278"/>
-      <c r="K25" s="279"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="281"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="281"/>
+      <c r="K25" s="282"/>
       <c r="L25" s="63"/>
       <c r="M25" s="69"/>
       <c r="N25" s="68"/>
@@ -33078,16 +33064,16 @@
       <c r="C26" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="269"/>
+      <c r="D26" s="276"/>
       <c r="E26" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="277"/>
-      <c r="G26" s="278"/>
-      <c r="H26" s="278"/>
-      <c r="I26" s="278"/>
-      <c r="J26" s="278"/>
-      <c r="K26" s="279"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="281"/>
+      <c r="H26" s="281"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="281"/>
+      <c r="K26" s="282"/>
       <c r="L26" s="63"/>
       <c r="M26" s="69"/>
       <c r="N26" s="179"/>
@@ -33116,16 +33102,16 @@
       <c r="C27" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="269"/>
+      <c r="D27" s="276"/>
       <c r="E27" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="277"/>
-      <c r="G27" s="278"/>
-      <c r="H27" s="278"/>
-      <c r="I27" s="278"/>
-      <c r="J27" s="278"/>
-      <c r="K27" s="279"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="281"/>
+      <c r="H27" s="281"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="281"/>
+      <c r="K27" s="282"/>
       <c r="L27" s="181"/>
       <c r="M27" s="176"/>
       <c r="N27" s="91"/>
@@ -33152,16 +33138,16 @@
       <c r="C28" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="269"/>
+      <c r="D28" s="276"/>
       <c r="E28" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="277"/>
-      <c r="G28" s="278"/>
-      <c r="H28" s="278"/>
-      <c r="I28" s="278"/>
-      <c r="J28" s="278"/>
-      <c r="K28" s="279"/>
+      <c r="F28" s="280"/>
+      <c r="G28" s="281"/>
+      <c r="H28" s="281"/>
+      <c r="I28" s="281"/>
+      <c r="J28" s="281"/>
+      <c r="K28" s="282"/>
       <c r="L28" s="181"/>
       <c r="M28" s="176"/>
       <c r="N28" s="91"/>
@@ -33184,22 +33170,22 @@
       <c r="AE28" s="176"/>
     </row>
     <row r="29" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B29" s="259" t="s">
+      <c r="B29" s="266" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="259" t="s">
+      <c r="C29" s="266" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="265"/>
+      <c r="D29" s="272"/>
       <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="277"/>
-      <c r="G29" s="278"/>
-      <c r="H29" s="278"/>
-      <c r="I29" s="278"/>
-      <c r="J29" s="278"/>
-      <c r="K29" s="279"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="281"/>
+      <c r="H29" s="281"/>
+      <c r="I29" s="281"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="183"/>
       <c r="L29" s="182"/>
       <c r="M29" s="183"/>
       <c r="N29" s="184"/>
@@ -33222,18 +33208,18 @@
       <c r="AE29" s="183"/>
     </row>
     <row r="30" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B30" s="261"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="266"/>
+      <c r="B30" s="268"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="273"/>
       <c r="E30" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="280"/>
-      <c r="G30" s="281"/>
-      <c r="H30" s="281"/>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
-      <c r="K30" s="282"/>
+      <c r="F30" s="283"/>
+      <c r="G30" s="284"/>
+      <c r="H30" s="284"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
       <c r="L30" s="186"/>
       <c r="M30" s="187"/>
       <c r="N30" s="188"/>
@@ -33268,7 +33254,7 @@
       <c r="B32" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="285" t="s">
+      <c r="C32" s="233" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="113"/>
@@ -36163,8 +36149,13 @@
       <c r="C986" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F22:K30"/>
+  <mergeCells count="21">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D22:D28"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="D13:D21"/>
     <mergeCell ref="Z2:AA2"/>
@@ -36180,12 +36171,6 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="D3:D12"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D22:D28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/project_bulletin/amcgic-bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{DC328FE4-5420-4068-837F-AC4789338B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{FE6B1441-B234-42A5-9C33-9FB2743EE440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="390" windowWidth="36615" windowHeight="19395" xr2:uid="{A4986FC2-E32E-4EB8-A7E9-7734962D2B72}"/>
+    <workbookView xWindow="855" yWindow="360" windowWidth="36615" windowHeight="20265" xr2:uid="{A4986FC2-E32E-4EB8-A7E9-7734962D2B72}"/>
   </bookViews>
   <sheets>
     <sheet name="2024년 EGD 교육 프로그램 구성표" sheetId="3" r:id="rId1"/>
     <sheet name="2024년 EGD 교육 프로그램 연간 일정" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>실무</t>
   </si>
@@ -1075,19 +1076,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AI patient Hx taking training</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>교육자료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI Training</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1174,6 +1167,22 @@
   </si>
   <si>
     <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI Hx. Taking Training</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGD Dx. Training</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Program</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGD Dx. Training program</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1374,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,6 +1457,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2743,7 +2758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3172,12 +3187,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3235,9 +3244,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3281,12 +3287,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3422,6 +3422,50 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3483,16 +3527,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="95" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
@@ -3513,27 +3554,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="93" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="99" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="100" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="102" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3557,9 +3588,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3597,7 +3628,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3703,7 +3734,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3845,7 +3876,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3859,7 +3890,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -3924,112 +3955,112 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="114"/>
       <c r="B2" s="116"/>
-      <c r="C2" s="252" t="s">
+      <c r="C2" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="253"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255" t="s">
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="264"/>
+      <c r="K2" s="264"/>
+      <c r="L2" s="264"/>
+      <c r="M2" s="264"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="264"/>
+      <c r="P2" s="264"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="266" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="231"/>
-      <c r="T2" s="231"/>
-      <c r="U2" s="231"/>
-      <c r="V2" s="231"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="230" t="s">
-        <v>80</v>
+      <c r="S2" s="242"/>
+      <c r="T2" s="242"/>
+      <c r="U2" s="242"/>
+      <c r="V2" s="242"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="241" t="s">
+        <v>79</v>
       </c>
-      <c r="Y2" s="231"/>
-      <c r="Z2" s="232"/>
+      <c r="Y2" s="242"/>
+      <c r="Z2" s="243"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="114"/>
       <c r="B3" s="117"/>
-      <c r="C3" s="239" t="s">
+      <c r="C3" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="240" t="s">
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="251" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="241"/>
-      <c r="H3" s="241"/>
-      <c r="I3" s="241"/>
-      <c r="J3" s="241"/>
-      <c r="K3" s="241"/>
-      <c r="L3" s="241"/>
-      <c r="M3" s="241"/>
-      <c r="N3" s="241"/>
-      <c r="O3" s="241"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="233"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="234"/>
-      <c r="U3" s="234"/>
-      <c r="V3" s="234"/>
-      <c r="W3" s="235"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="234"/>
-      <c r="Z3" s="235"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="245"/>
+      <c r="T3" s="245"/>
+      <c r="U3" s="245"/>
+      <c r="V3" s="245"/>
+      <c r="W3" s="246"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="245"/>
+      <c r="Z3" s="246"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="118"/>
       <c r="B4" s="119"/>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="243"/>
-      <c r="E4" s="244"/>
-      <c r="F4" s="245" t="s">
+      <c r="D4" s="254"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="235"/>
-      <c r="H4" s="245" t="s">
+      <c r="G4" s="246"/>
+      <c r="H4" s="256" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="235"/>
-      <c r="J4" s="240" t="s">
+      <c r="I4" s="246"/>
+      <c r="J4" s="251" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="243"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="245" t="s">
+      <c r="K4" s="254"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="256" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="246"/>
-      <c r="O4" s="245" t="s">
+      <c r="N4" s="257"/>
+      <c r="O4" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="246"/>
-      <c r="Q4" s="246"/>
-      <c r="R4" s="233"/>
-      <c r="S4" s="246"/>
-      <c r="T4" s="246"/>
-      <c r="U4" s="246"/>
-      <c r="V4" s="246"/>
-      <c r="W4" s="235"/>
-      <c r="X4" s="236"/>
-      <c r="Y4" s="237"/>
-      <c r="Z4" s="238"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="244"/>
+      <c r="S4" s="257"/>
+      <c r="T4" s="257"/>
+      <c r="U4" s="257"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="246"/>
+      <c r="X4" s="247"/>
+      <c r="Y4" s="248"/>
+      <c r="Z4" s="249"/>
     </row>
     <row r="5" spans="1:26" ht="3.75" customHeight="1">
       <c r="A5" s="118"/>
-      <c r="B5" s="247" t="s">
+      <c r="B5" s="258" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="120"/>
@@ -4059,7 +4090,7 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="114"/>
-      <c r="B6" s="248"/>
+      <c r="B6" s="259"/>
       <c r="C6" s="120"/>
       <c r="D6" s="129" t="s">
         <v>16</v>
@@ -4089,7 +4120,7 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="114"/>
-      <c r="B7" s="248"/>
+      <c r="B7" s="259"/>
       <c r="C7" s="120"/>
       <c r="D7" s="129" t="s">
         <v>17</v>
@@ -4118,7 +4149,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="114"/>
-      <c r="B8" s="248"/>
+      <c r="B8" s="259"/>
       <c r="C8" s="120"/>
       <c r="D8" s="129" t="s">
         <v>18</v>
@@ -4143,14 +4174,11 @@
       <c r="V8" s="134"/>
       <c r="W8" s="135"/>
       <c r="X8" s="136"/>
-      <c r="Y8" s="183" t="s">
-        <v>63</v>
-      </c>
       <c r="Z8" s="137"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="114"/>
-      <c r="B9" s="248"/>
+      <c r="B9" s="259"/>
       <c r="C9" s="120"/>
       <c r="D9" s="129" t="s">
         <v>22</v>
@@ -4175,12 +4203,11 @@
       <c r="V9" s="134"/>
       <c r="W9" s="135"/>
       <c r="X9" s="136"/>
-      <c r="Y9" s="182"/>
       <c r="Z9" s="137"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="114"/>
-      <c r="B10" s="248"/>
+      <c r="B10" s="259"/>
       <c r="C10" s="120"/>
       <c r="D10" s="129" t="s">
         <v>26</v>
@@ -4205,12 +4232,14 @@
       <c r="V10" s="134"/>
       <c r="W10" s="135"/>
       <c r="X10" s="136"/>
-      <c r="Y10" s="182"/>
+      <c r="Y10" s="282" t="s">
+        <v>63</v>
+      </c>
       <c r="Z10" s="137"/>
     </row>
     <row r="11" spans="1:26" ht="5.25" customHeight="1" thickBot="1">
       <c r="A11" s="114"/>
-      <c r="B11" s="249"/>
+      <c r="B11" s="260"/>
       <c r="C11" s="138"/>
       <c r="D11" s="139"/>
       <c r="E11" s="139"/>
@@ -4233,12 +4262,12 @@
       <c r="V11" s="144"/>
       <c r="W11" s="135"/>
       <c r="X11" s="136"/>
-      <c r="Y11" s="181"/>
+      <c r="Y11" s="178"/>
       <c r="Z11" s="137"/>
     </row>
     <row r="12" spans="1:26" ht="5.25" customHeight="1">
       <c r="A12" s="114"/>
-      <c r="B12" s="250" t="s">
+      <c r="B12" s="261" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="131"/>
@@ -4256,19 +4285,19 @@
       <c r="O12" s="131"/>
       <c r="P12" s="131"/>
       <c r="Q12" s="131"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="148"/>
+      <c r="R12" s="233"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="235"/>
+      <c r="U12" s="146"/>
       <c r="V12" s="116"/>
-      <c r="W12" s="149"/>
+      <c r="W12" s="147"/>
       <c r="X12" s="136"/>
       <c r="Y12" s="136"/>
       <c r="Z12" s="137"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="114"/>
-      <c r="B13" s="248"/>
+      <c r="B13" s="259"/>
       <c r="C13" s="134"/>
       <c r="D13" s="131"/>
       <c r="E13" s="131"/>
@@ -4290,23 +4319,25 @@
       <c r="O13" s="131"/>
       <c r="P13" s="131"/>
       <c r="Q13" s="131"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="150"/>
+      <c r="R13" s="233"/>
+      <c r="S13" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="236"/>
+      <c r="U13" s="148"/>
       <c r="V13" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="151"/>
+      <c r="W13" s="149"/>
       <c r="X13" s="136"/>
-      <c r="Y13" s="180" t="s">
-        <v>79</v>
+      <c r="Y13" s="283" t="s">
+        <v>78</v>
       </c>
       <c r="Z13" s="137"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="114"/>
-      <c r="B14" s="248"/>
+      <c r="B14" s="259"/>
       <c r="C14" s="134"/>
       <c r="D14" s="131"/>
       <c r="E14" s="131"/>
@@ -4326,30 +4357,30 @@
       <c r="O14" s="131"/>
       <c r="P14" s="131"/>
       <c r="Q14" s="131"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="153" t="s">
-        <v>70</v>
+      <c r="R14" s="233"/>
+      <c r="S14" s="151" t="s">
+        <v>74</v>
       </c>
-      <c r="T14" s="120"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="152" t="s">
+      <c r="T14" s="236"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="W14" s="151"/>
+      <c r="W14" s="149"/>
       <c r="X14" s="136"/>
-      <c r="Y14" s="180"/>
+      <c r="Y14" s="283"/>
       <c r="Z14" s="137"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="114"/>
-      <c r="B15" s="248"/>
+      <c r="B15" s="259"/>
       <c r="C15" s="134"/>
       <c r="D15" s="131"/>
       <c r="E15" s="131"/>
       <c r="F15" s="145"/>
       <c r="G15" s="120"/>
       <c r="H15" s="120"/>
-      <c r="I15" s="152" t="s">
+      <c r="I15" s="150" t="s">
         <v>69</v>
       </c>
       <c r="J15" s="120"/>
@@ -4360,30 +4391,32 @@
       <c r="O15" s="131"/>
       <c r="P15" s="131"/>
       <c r="Q15" s="131"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="153" t="s">
-        <v>74</v>
+      <c r="R15" s="233"/>
+      <c r="S15" s="150" t="s">
+        <v>80</v>
       </c>
-      <c r="T15" s="120"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="153" t="s">
+      <c r="T15" s="236"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="151" t="s">
         <v>71</v>
       </c>
-      <c r="W15" s="151"/>
+      <c r="W15" s="149"/>
       <c r="X15" s="136"/>
-      <c r="Y15" s="182"/>
+      <c r="Y15" s="284" t="s">
+        <v>95</v>
+      </c>
       <c r="Z15" s="137"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="114"/>
-      <c r="B16" s="248"/>
+      <c r="B16" s="259"/>
       <c r="C16" s="134"/>
       <c r="D16" s="131"/>
       <c r="E16" s="131"/>
       <c r="F16" s="145"/>
       <c r="G16" s="120"/>
       <c r="H16" s="120"/>
-      <c r="I16" s="152" t="s">
+      <c r="I16" s="150" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="120"/>
@@ -4394,21 +4427,21 @@
       <c r="O16" s="131"/>
       <c r="P16" s="131"/>
       <c r="Q16" s="131"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="152" t="s">
-        <v>82</v>
+      <c r="R16" s="233"/>
+      <c r="S16" s="240" t="s">
+        <v>94</v>
       </c>
-      <c r="T16" s="120"/>
-      <c r="U16" s="150"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="148"/>
       <c r="V16" s="120"/>
-      <c r="W16" s="151"/>
+      <c r="W16" s="149"/>
       <c r="X16" s="136"/>
-      <c r="Y16" s="182"/>
+      <c r="Y16" s="179"/>
       <c r="Z16" s="137"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="114"/>
-      <c r="B17" s="248"/>
+      <c r="B17" s="259"/>
       <c r="C17" s="134"/>
       <c r="D17" s="131"/>
       <c r="E17" s="131"/>
@@ -4426,21 +4459,21 @@
       <c r="O17" s="131"/>
       <c r="P17" s="131"/>
       <c r="Q17" s="131"/>
-      <c r="R17" s="146"/>
-      <c r="S17" s="184" t="s">
-        <v>81</v>
+      <c r="R17" s="233"/>
+      <c r="S17" s="240" t="s">
+        <v>95</v>
       </c>
-      <c r="T17" s="120"/>
-      <c r="U17" s="150"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="148"/>
       <c r="V17" s="120"/>
-      <c r="W17" s="151"/>
+      <c r="W17" s="149"/>
       <c r="X17" s="136"/>
-      <c r="Y17" s="180"/>
+      <c r="Y17" s="177"/>
       <c r="Z17" s="137"/>
     </row>
     <row r="18" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A18" s="114"/>
-      <c r="B18" s="249"/>
+      <c r="B18" s="260"/>
       <c r="C18" s="134"/>
       <c r="D18" s="131"/>
       <c r="E18" s="131"/>
@@ -4456,49 +4489,49 @@
       <c r="O18" s="131"/>
       <c r="P18" s="131"/>
       <c r="Q18" s="131"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="154"/>
+      <c r="R18" s="233"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="152"/>
       <c r="V18" s="139"/>
-      <c r="W18" s="155"/>
+      <c r="W18" s="153"/>
       <c r="X18" s="136"/>
       <c r="Y18" s="136"/>
       <c r="Z18" s="137"/>
     </row>
     <row r="19" spans="1:26" ht="4.5" customHeight="1">
       <c r="A19" s="114"/>
-      <c r="B19" s="251" t="s">
+      <c r="B19" s="262" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
-      <c r="Q19" s="160"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="151"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="233"/>
+      <c r="S19" s="237"/>
+      <c r="T19" s="236"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="149"/>
       <c r="X19" s="136"/>
       <c r="Y19" s="136"/>
       <c r="Z19" s="137"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="114"/>
-      <c r="B20" s="248"/>
+      <c r="B20" s="259"/>
       <c r="C20" s="133"/>
       <c r="D20" s="131"/>
       <c r="E20" s="131"/>
@@ -4509,8 +4542,8 @@
       <c r="J20" s="131"/>
       <c r="K20" s="131"/>
       <c r="L20" s="131"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="152" t="s">
+      <c r="M20" s="148"/>
+      <c r="N20" s="150" t="s">
         <v>43</v>
       </c>
       <c r="O20" s="120"/>
@@ -4518,20 +4551,21 @@
         <v>62</v>
       </c>
       <c r="Q20" s="120"/>
-      <c r="R20" s="146"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="153" t="s">
+      <c r="R20" s="233"/>
+      <c r="S20" s="237"/>
+      <c r="T20" s="236"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="W20" s="162"/>
+      <c r="W20" s="160"/>
       <c r="X20" s="136"/>
-      <c r="Y20" s="180"/>
+      <c r="Y20" s="177"/>
       <c r="Z20" s="137"/>
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="114"/>
-      <c r="B21" s="248"/>
+      <c r="B21" s="259"/>
       <c r="C21" s="133"/>
       <c r="D21" s="131"/>
       <c r="E21" s="131"/>
@@ -4542,56 +4576,56 @@
       <c r="J21" s="131"/>
       <c r="K21" s="131"/>
       <c r="L21" s="131"/>
-      <c r="M21" s="150"/>
+      <c r="M21" s="148"/>
       <c r="N21" s="129" t="s">
         <v>61</v>
       </c>
       <c r="O21" s="120"/>
       <c r="P21" s="120"/>
       <c r="Q21" s="120"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="150"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="237"/>
+      <c r="T21" s="236"/>
+      <c r="U21" s="148"/>
       <c r="V21" s="120"/>
-      <c r="W21" s="162"/>
+      <c r="W21" s="160"/>
       <c r="X21" s="136"/>
       <c r="Y21" s="136"/>
       <c r="Z21" s="137"/>
     </row>
     <row r="22" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A22" s="114"/>
-      <c r="B22" s="249"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="164"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="164"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="164"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="166"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="167"/>
-      <c r="S22" s="166"/>
-      <c r="T22" s="166"/>
-      <c r="U22" s="165"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="168"/>
-      <c r="X22" s="169"/>
-      <c r="Y22" s="169"/>
-      <c r="Z22" s="170"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="238"/>
+      <c r="S22" s="239"/>
+      <c r="T22" s="239"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="166"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="167"/>
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="114"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
       <c r="E23" s="114"/>
       <c r="F23" s="114"/>
       <c r="G23" s="114"/>
@@ -32046,8 +32080,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Y13" r:id="rId1" xr:uid="{203C13F3-A1EF-4441-9773-109B3A440BD5}"/>
-    <hyperlink ref="Y8" r:id="rId2" xr:uid="{A6B10000-E896-4C22-BB35-44C8FBAC0C5B}"/>
+    <hyperlink ref="Y10" r:id="rId1" xr:uid="{A6B10000-E896-4C22-BB35-44C8FBAC0C5B}"/>
+    <hyperlink ref="Y13" r:id="rId2" xr:uid="{203C13F3-A1EF-4441-9773-109B3A440BD5}"/>
+    <hyperlink ref="Y15" r:id="rId3" xr:uid="{D8544DAF-2B8D-4B7A-BF40-E7F2A5E4CB53}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
@@ -32056,10 +32091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B78AD1-A9DA-44CE-92FC-806C1A0DCF21}">
-  <dimension ref="B1:AF986"/>
+  <dimension ref="B1:AF987"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+      <selection activeCell="AM16" sqref="AM16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -32083,152 +32118,152 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
-      <c r="E2" s="188" t="s">
-        <v>95</v>
+      <c r="E2" s="183" t="s">
+        <v>93</v>
       </c>
-      <c r="F2" s="264" t="s">
+      <c r="F2" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="269"/>
-      <c r="H2" s="264" t="s">
+      <c r="G2" s="279"/>
+      <c r="H2" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="265"/>
-      <c r="J2" s="264" t="s">
+      <c r="I2" s="275"/>
+      <c r="J2" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="265"/>
-      <c r="L2" s="268" t="s">
+      <c r="K2" s="275"/>
+      <c r="L2" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="269"/>
-      <c r="N2" s="264" t="s">
+      <c r="M2" s="279"/>
+      <c r="N2" s="274" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="265"/>
-      <c r="P2" s="264" t="s">
+      <c r="O2" s="275"/>
+      <c r="P2" s="274" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="264" t="s">
+      <c r="Q2" s="275"/>
+      <c r="R2" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="265"/>
-      <c r="T2" s="264" t="s">
+      <c r="S2" s="275"/>
+      <c r="T2" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="265"/>
-      <c r="V2" s="264" t="s">
+      <c r="U2" s="275"/>
+      <c r="V2" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="269"/>
-      <c r="X2" s="264" t="s">
+      <c r="W2" s="279"/>
+      <c r="X2" s="274" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="265"/>
-      <c r="Z2" s="264" t="s">
+      <c r="Y2" s="275"/>
+      <c r="Z2" s="274" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="265"/>
-      <c r="AB2" s="268" t="s">
+      <c r="AA2" s="275"/>
+      <c r="AB2" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="269"/>
-      <c r="AD2" s="264" t="s">
+      <c r="AC2" s="279"/>
+      <c r="AD2" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="265"/>
+      <c r="AE2" s="275"/>
     </row>
     <row r="3" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="180" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="205" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="210" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="172" t="s">
-        <v>89</v>
+      <c r="E3" s="169" t="s">
+        <v>87</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="220"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="220"/>
-      <c r="Y3" s="221"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="220"/>
-      <c r="AC3" s="221"/>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="216"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="210"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="214"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="210"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="214"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="216"/>
+      <c r="AD3" s="217"/>
+      <c r="AE3" s="211"/>
     </row>
     <row r="4" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="267" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="270" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="261" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="270"/>
-      <c r="E4" s="189" t="s">
+      <c r="D4" s="280"/>
+      <c r="E4" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="194"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="199"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="203"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="203"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="203"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="204"/>
-      <c r="AC4" s="203"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="206"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="193"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="193"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="198"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="198"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="199"/>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="193"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="199"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="201"/>
     </row>
     <row r="5" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B5" s="257"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="270"/>
-      <c r="E5" s="190" t="s">
+      <c r="B5" s="268"/>
+      <c r="C5" s="270"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="185" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="192"/>
+      <c r="H5" s="187"/>
       <c r="I5" s="12"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
@@ -32254,15 +32289,15 @@
       <c r="AE5" s="19"/>
     </row>
     <row r="6" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B6" s="257"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="190" t="s">
+      <c r="B6" s="268"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="185" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="192"/>
+      <c r="H6" s="187"/>
       <c r="I6" s="12"/>
       <c r="J6" s="18"/>
       <c r="K6" s="20"/>
@@ -32288,15 +32323,15 @@
       <c r="AE6" s="19"/>
     </row>
     <row r="7" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B7" s="257"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="190" t="s">
+      <c r="B7" s="268"/>
+      <c r="C7" s="271"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="185" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="192"/>
+      <c r="H7" s="187"/>
       <c r="I7" s="12"/>
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
@@ -32322,17 +32357,17 @@
       <c r="AE7" s="19"/>
     </row>
     <row r="8" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="258"/>
-      <c r="C8" s="187" t="s">
-        <v>88</v>
+      <c r="B8" s="269"/>
+      <c r="C8" s="182" t="s">
+        <v>86</v>
       </c>
-      <c r="D8" s="270"/>
-      <c r="E8" s="191" t="s">
+      <c r="D8" s="280"/>
+      <c r="E8" s="186" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="193"/>
+      <c r="H8" s="188"/>
       <c r="I8" s="27"/>
       <c r="J8" s="29"/>
       <c r="K8" s="30"/>
@@ -32364,12 +32399,12 @@
       <c r="C9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="270"/>
-      <c r="E9" s="207" t="s">
+      <c r="D9" s="280"/>
+      <c r="E9" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="194"/>
-      <c r="G9" s="195"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="190"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="9"/>
@@ -32400,8 +32435,8 @@
       <c r="C10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="270"/>
-      <c r="E10" s="208" t="s">
+      <c r="D10" s="280"/>
+      <c r="E10" s="203" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="11"/>
@@ -32438,8 +32473,8 @@
       <c r="C11" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="270"/>
-      <c r="E11" s="208" t="s">
+      <c r="D11" s="280"/>
+      <c r="E11" s="203" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="11"/>
@@ -32472,10 +32507,10 @@
     <row r="12" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
       <c r="B12" s="43"/>
       <c r="C12" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
-      <c r="D12" s="260"/>
-      <c r="E12" s="209" t="s">
+      <c r="D12" s="281"/>
+      <c r="E12" s="204" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="26"/>
@@ -32512,7 +32547,7 @@
       <c r="C13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="266" t="s">
+      <c r="D13" s="276" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="48" t="s">
@@ -32553,7 +32588,7 @@
       <c r="C14" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="266"/>
+      <c r="D14" s="276"/>
       <c r="E14" s="60" t="s">
         <v>30</v>
       </c>
@@ -32592,7 +32627,7 @@
       <c r="C15" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="266"/>
+      <c r="D15" s="276"/>
       <c r="E15" s="60" t="s">
         <v>31</v>
       </c>
@@ -32631,7 +32666,7 @@
       <c r="C16" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="266"/>
+      <c r="D16" s="276"/>
       <c r="E16" s="60" t="s">
         <v>32</v>
       </c>
@@ -32670,7 +32705,7 @@
       <c r="C17" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="266"/>
+      <c r="D17" s="276"/>
       <c r="E17" s="60" t="s">
         <v>33</v>
       </c>
@@ -32709,7 +32744,7 @@
       <c r="C18" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="266"/>
+      <c r="D18" s="276"/>
       <c r="E18" s="76" t="s">
         <v>34</v>
       </c>
@@ -32748,7 +32783,7 @@
       <c r="C19" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="266"/>
+      <c r="D19" s="276"/>
       <c r="E19" s="60" t="s">
         <v>37</v>
       </c>
@@ -32785,9 +32820,9 @@
         <v>35</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
-      <c r="D20" s="266"/>
+      <c r="D20" s="276"/>
       <c r="E20" s="60" t="s">
         <v>38</v>
       </c>
@@ -32824,7 +32859,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="82"/>
-      <c r="D21" s="267"/>
+      <c r="D21" s="277"/>
       <c r="E21" s="83" t="s">
         <v>39</v>
       </c>
@@ -32863,21 +32898,21 @@
       <c r="C22" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="272" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="224"/>
-      <c r="G22" s="225"/>
-      <c r="H22" s="225"/>
-      <c r="I22" s="225"/>
-      <c r="J22" s="225"/>
-      <c r="K22" s="226"/>
-      <c r="L22" s="178"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
+      <c r="K22" s="221"/>
+      <c r="L22" s="175"/>
       <c r="M22" s="98"/>
-      <c r="N22" s="175"/>
+      <c r="N22" s="172"/>
       <c r="O22" s="95"/>
       <c r="P22" s="96"/>
       <c r="Q22" s="94"/>
@@ -32903,19 +32938,19 @@
       <c r="C23" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="263"/>
+      <c r="D23" s="273"/>
       <c r="E23" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="227"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="229"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="224"/>
       <c r="L23" s="61"/>
       <c r="M23" s="67"/>
-      <c r="N23" s="176"/>
+      <c r="N23" s="173"/>
       <c r="O23" s="99"/>
       <c r="P23" s="100"/>
       <c r="Q23" s="62"/>
@@ -32941,19 +32976,19 @@
       <c r="C24" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="263"/>
+      <c r="D24" s="273"/>
       <c r="E24" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="227"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="229"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="224"/>
       <c r="L24" s="61"/>
       <c r="M24" s="67"/>
-      <c r="N24" s="176"/>
+      <c r="N24" s="173"/>
       <c r="O24" s="99"/>
       <c r="P24" s="100"/>
       <c r="Q24" s="62"/>
@@ -32979,16 +33014,16 @@
       <c r="C25" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="263"/>
+      <c r="D25" s="273"/>
       <c r="E25" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="227"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
-      <c r="J25" s="228"/>
-      <c r="K25" s="229"/>
+      <c r="F25" s="222"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="224"/>
       <c r="L25" s="61"/>
       <c r="M25" s="67"/>
       <c r="N25" s="66"/>
@@ -33017,19 +33052,19 @@
       <c r="C26" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="263"/>
+      <c r="D26" s="273"/>
       <c r="E26" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="227"/>
-      <c r="G26" s="228"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="228"/>
-      <c r="J26" s="228"/>
-      <c r="K26" s="229"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="224"/>
       <c r="L26" s="61"/>
       <c r="M26" s="67"/>
-      <c r="N26" s="177"/>
+      <c r="N26" s="174"/>
       <c r="O26" s="99"/>
       <c r="P26" s="101"/>
       <c r="Q26" s="99"/>
@@ -33053,20 +33088,20 @@
         <v>48</v>
       </c>
       <c r="C27" s="82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
-      <c r="D27" s="263"/>
+      <c r="D27" s="273"/>
       <c r="E27" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="227"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="228"/>
-      <c r="J27" s="228"/>
-      <c r="K27" s="229"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="174"/>
+      <c r="F27" s="222"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="171"/>
       <c r="N27" s="89"/>
       <c r="O27" s="90"/>
       <c r="P27" s="103"/>
@@ -33088,27 +33123,27 @@
     </row>
     <row r="28" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
       <c r="B28" s="82"/>
-      <c r="C28" s="186" t="s">
-        <v>86</v>
+      <c r="C28" s="181" t="s">
+        <v>84</v>
       </c>
-      <c r="D28" s="263"/>
+      <c r="D28" s="273"/>
       <c r="E28" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="227"/>
-      <c r="G28" s="228"/>
-      <c r="H28" s="228"/>
-      <c r="I28" s="228"/>
-      <c r="J28" s="228"/>
-      <c r="K28" s="229"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="174"/>
+      <c r="F28" s="222"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="171"/>
       <c r="N28" s="89"/>
       <c r="O28" s="90"/>
       <c r="P28" s="103"/>
       <c r="Q28" s="90"/>
       <c r="R28" s="103"/>
-      <c r="S28" s="173"/>
+      <c r="S28" s="170"/>
       <c r="T28" s="103"/>
       <c r="U28" s="90"/>
       <c r="V28" s="103"/>
@@ -33116,100 +33151,131 @@
       <c r="X28" s="103"/>
       <c r="Y28" s="90"/>
       <c r="Z28" s="103"/>
-      <c r="AA28" s="173"/>
+      <c r="AA28" s="170"/>
       <c r="AB28" s="103"/>
       <c r="AC28" s="90"/>
       <c r="AD28" s="103"/>
-      <c r="AE28" s="174"/>
+      <c r="AE28" s="171"/>
     </row>
     <row r="29" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B29" s="188" t="s">
-        <v>78</v>
+      <c r="B29" s="272" t="s">
+        <v>96</v>
       </c>
-      <c r="C29" s="188" t="s">
-        <v>87</v>
+      <c r="C29" s="272" t="s">
+        <v>85</v>
       </c>
-      <c r="D29" s="272"/>
-      <c r="E29" s="271" t="s">
+      <c r="D29" s="226"/>
+      <c r="E29" s="225" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="273"/>
-      <c r="G29" s="274"/>
-      <c r="H29" s="274"/>
-      <c r="I29" s="274"/>
-      <c r="J29" s="275"/>
-      <c r="K29" s="276"/>
-      <c r="L29" s="275"/>
-      <c r="M29" s="276"/>
-      <c r="N29" s="277"/>
-      <c r="O29" s="278"/>
-      <c r="P29" s="275"/>
-      <c r="Q29" s="276"/>
-      <c r="R29" s="277"/>
-      <c r="S29" s="278"/>
-      <c r="T29" s="275"/>
-      <c r="U29" s="276"/>
-      <c r="V29" s="277"/>
-      <c r="W29" s="278"/>
-      <c r="X29" s="275"/>
-      <c r="Y29" s="276"/>
-      <c r="Z29" s="277"/>
-      <c r="AA29" s="278"/>
-      <c r="AB29" s="275"/>
-      <c r="AC29" s="276"/>
-      <c r="AD29" s="277"/>
-      <c r="AE29" s="276"/>
-    </row>
-    <row r="30" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B30" s="107" t="s">
+      <c r="F29" s="227"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="230"/>
+      <c r="L29" s="229"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="232"/>
+      <c r="P29" s="229"/>
+      <c r="Q29" s="230"/>
+      <c r="R29" s="231"/>
+      <c r="S29" s="232"/>
+      <c r="T29" s="229"/>
+      <c r="U29" s="230"/>
+      <c r="V29" s="231"/>
+      <c r="W29" s="232"/>
+      <c r="X29" s="229"/>
+      <c r="Y29" s="230"/>
+      <c r="Z29" s="231"/>
+      <c r="AA29" s="232"/>
+      <c r="AB29" s="229"/>
+      <c r="AC29" s="230"/>
+      <c r="AD29" s="231"/>
+      <c r="AE29" s="230"/>
+    </row>
+    <row r="30" spans="2:32" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B30" s="281"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="225" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="229"/>
+      <c r="G30" s="230"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="229"/>
+      <c r="K30" s="230"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="230"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="232"/>
+      <c r="P30" s="229"/>
+      <c r="Q30" s="230"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="232"/>
+      <c r="T30" s="229"/>
+      <c r="U30" s="230"/>
+      <c r="V30" s="231"/>
+      <c r="W30" s="232"/>
+      <c r="X30" s="229"/>
+      <c r="Y30" s="230"/>
+      <c r="Z30" s="231"/>
+      <c r="AA30" s="232"/>
+      <c r="AB30" s="229"/>
+      <c r="AC30" s="230"/>
+      <c r="AD30" s="231"/>
+      <c r="AE30" s="230"/>
+    </row>
+    <row r="31" spans="2:32" ht="16.5" customHeight="1">
+      <c r="B31" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="172" t="s">
+      <c r="C31" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="AE30" s="109"/>
-    </row>
-    <row r="31" spans="2:32" ht="16.5" customHeight="1">
-      <c r="B31" s="110" t="s">
+      <c r="AE31" s="109"/>
+    </row>
+    <row r="32" spans="2:32" ht="16.5" customHeight="1">
+      <c r="B32" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="223" t="s">
+      <c r="C32" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="112"/>
-    </row>
-    <row r="32" spans="2:32" ht="16.5" customHeight="1">
-      <c r="C32" s="113"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
+      <c r="U32" s="111"/>
+      <c r="V32" s="111"/>
+      <c r="W32" s="111"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="111"/>
+      <c r="Z32" s="111"/>
+      <c r="AA32" s="111"/>
+      <c r="AB32" s="111"/>
+      <c r="AC32" s="111"/>
+      <c r="AD32" s="111"/>
+      <c r="AE32" s="112"/>
     </row>
     <row r="33" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C33" s="108"/>
+      <c r="C33" s="113"/>
     </row>
     <row r="34" spans="3:3" ht="16.5" customHeight="1">
       <c r="C34" s="108"/>
@@ -36067,9 +36133,19 @@
     <row r="985" spans="3:3" ht="16.5" customHeight="1">
       <c r="C985" s="108"/>
     </row>
-    <row r="986" spans="3:3" ht="16.5" customHeight="1"/>
+    <row r="986" spans="3:3" ht="16.5" customHeight="1">
+      <c r="C986" s="108"/>
+    </row>
+    <row r="987" spans="3:3" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D22:D28"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="D13:D21"/>
     <mergeCell ref="Z2:AA2"/>
@@ -36083,11 +36159,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D22:D28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/project_bulletin/amcgic-bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{1A8BBF32-AA7C-450B-8F8F-D75686C9D928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{C12C3389-566C-416C-A86C-9619FEE67492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39690" yWindow="600" windowWidth="36615" windowHeight="20265" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39690" yWindow="600" windowWidth="36615" windowHeight="20265" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상부 내시경 교육프로그램 연간 일정" sheetId="1" r:id="rId1"/>
@@ -1276,104 +1276,6 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사정이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>되면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>돼지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대상</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ESD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실습</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -2024,12 +1926,115 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사정이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돼지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ESD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2194,6 +2199,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -4447,9 +4459,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4464,6 +4473,49 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4512,85 +4564,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="117" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4613,8 +4586,47 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4834,8 +4846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF987"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:AE35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4860,68 +4872,68 @@
       </c>
       <c r="D2" s="72"/>
       <c r="E2" s="73"/>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="244"/>
-      <c r="H2" s="243" t="s">
+      <c r="G2" s="236"/>
+      <c r="H2" s="235" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="244"/>
-      <c r="J2" s="243" t="s">
+      <c r="I2" s="236"/>
+      <c r="J2" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="244"/>
-      <c r="L2" s="243" t="s">
+      <c r="K2" s="236"/>
+      <c r="L2" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="244"/>
-      <c r="N2" s="243" t="s">
+      <c r="M2" s="236"/>
+      <c r="N2" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="244"/>
-      <c r="P2" s="243" t="s">
+      <c r="O2" s="236"/>
+      <c r="P2" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="243" t="s">
+      <c r="Q2" s="242"/>
+      <c r="R2" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="244"/>
-      <c r="T2" s="243" t="s">
+      <c r="S2" s="236"/>
+      <c r="T2" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="244"/>
-      <c r="V2" s="243" t="s">
+      <c r="U2" s="236"/>
+      <c r="V2" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="244"/>
-      <c r="X2" s="243" t="s">
+      <c r="W2" s="236"/>
+      <c r="X2" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="243" t="s">
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="244"/>
-      <c r="AB2" s="243" t="s">
+      <c r="AA2" s="236"/>
+      <c r="AB2" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="244"/>
-      <c r="AD2" s="243" t="s">
+      <c r="AC2" s="236"/>
+      <c r="AD2" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="244"/>
+      <c r="AE2" s="236"/>
       <c r="AF2" s="74"/>
     </row>
     <row r="3" spans="1:32" ht="16.5" customHeight="1">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="255" t="s">
+      <c r="C3" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="252" t="s">
+      <c r="D3" s="232" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="75" t="s">
@@ -4956,9 +4968,9 @@
       <c r="AF3" s="74"/>
     </row>
     <row r="4" spans="1:32" ht="16.5" customHeight="1">
-      <c r="B4" s="247"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="258"/>
+      <c r="B4" s="227"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="240"/>
       <c r="E4" s="87" t="s">
         <v>74</v>
       </c>
@@ -4991,9 +5003,9 @@
       <c r="AF4" s="74"/>
     </row>
     <row r="5" spans="1:32" ht="16.5" customHeight="1">
-      <c r="B5" s="247"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="258"/>
+      <c r="B5" s="227"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240"/>
       <c r="E5" s="99" t="s">
         <v>15</v>
       </c>
@@ -5026,9 +5038,9 @@
       <c r="AF5" s="74"/>
     </row>
     <row r="6" spans="1:32" ht="16.5" customHeight="1">
-      <c r="B6" s="247"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="258"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="99" t="s">
         <v>16</v>
       </c>
@@ -5061,9 +5073,9 @@
       <c r="AF6" s="74"/>
     </row>
     <row r="7" spans="1:32" ht="16.5" customHeight="1">
-      <c r="B7" s="247"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="258"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="99" t="s">
         <v>17</v>
       </c>
@@ -5096,11 +5108,11 @@
       <c r="AF7" s="74"/>
     </row>
     <row r="8" spans="1:32" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="248"/>
+      <c r="B8" s="228"/>
       <c r="C8" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="258"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="112" t="s">
         <v>76</v>
       </c>
@@ -5139,7 +5151,7 @@
       <c r="C9" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="258"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="75" t="s">
         <v>18</v>
       </c>
@@ -5176,7 +5188,7 @@
       <c r="C10" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="258"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="99" t="s">
         <v>78</v>
       </c>
@@ -5215,7 +5227,7 @@
       <c r="C11" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="258"/>
+      <c r="D11" s="240"/>
       <c r="E11" s="99" t="s">
         <v>19</v>
       </c>
@@ -5252,7 +5264,7 @@
       <c r="C12" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="259"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="112" t="s">
         <v>80</v>
       </c>
@@ -5292,7 +5304,7 @@
       <c r="C13" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="249" t="s">
+      <c r="D13" s="229" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="133" t="s">
@@ -5334,7 +5346,7 @@
       <c r="C14" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="250"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="140" t="s">
         <v>22</v>
       </c>
@@ -5374,7 +5386,7 @@
       <c r="C15" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="250"/>
+      <c r="D15" s="230"/>
       <c r="E15" s="140" t="s">
         <v>82</v>
       </c>
@@ -5414,7 +5426,7 @@
       <c r="C16" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="250"/>
+      <c r="D16" s="230"/>
       <c r="E16" s="140" t="s">
         <v>83</v>
       </c>
@@ -5454,7 +5466,7 @@
       <c r="C17" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="250"/>
+      <c r="D17" s="230"/>
       <c r="E17" s="140" t="s">
         <v>84</v>
       </c>
@@ -5494,7 +5506,7 @@
       <c r="C18" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="250"/>
+      <c r="D18" s="230"/>
       <c r="E18" s="149" t="s">
         <v>25</v>
       </c>
@@ -5534,7 +5546,7 @@
       <c r="C19" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="250"/>
+      <c r="D19" s="230"/>
       <c r="E19" s="140" t="s">
         <v>85</v>
       </c>
@@ -5574,7 +5586,7 @@
       <c r="C20" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="251"/>
+      <c r="D20" s="231"/>
       <c r="E20" s="152" t="s">
         <v>26</v>
       </c>
@@ -5613,7 +5625,7 @@
       <c r="C21" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="252" t="s">
+      <c r="D21" s="232" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="155" t="s">
@@ -5654,7 +5666,7 @@
       <c r="C22" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="253"/>
+      <c r="D22" s="233"/>
       <c r="E22" s="165" t="s">
         <v>29</v>
       </c>
@@ -5693,7 +5705,7 @@
       <c r="C23" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="253"/>
+      <c r="D23" s="233"/>
       <c r="E23" s="165" t="s">
         <v>30</v>
       </c>
@@ -5732,7 +5744,7 @@
       <c r="C24" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="253"/>
+      <c r="D24" s="233"/>
       <c r="E24" s="165" t="s">
         <v>87</v>
       </c>
@@ -5771,7 +5783,7 @@
       <c r="C25" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="253"/>
+      <c r="D25" s="233"/>
       <c r="E25" s="165" t="s">
         <v>31</v>
       </c>
@@ -5810,7 +5822,7 @@
       <c r="C26" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="253"/>
+      <c r="D26" s="233"/>
       <c r="E26" s="176" t="s">
         <v>63</v>
       </c>
@@ -5832,7 +5844,7 @@
       <c r="U26" s="178"/>
       <c r="V26" s="180"/>
       <c r="W26" s="181"/>
-      <c r="X26" s="226" t="s">
+      <c r="X26" s="225" t="s">
         <v>96</v>
       </c>
       <c r="Y26" s="178"/>
@@ -5849,7 +5861,7 @@
       <c r="C27" s="182" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="254"/>
+      <c r="D27" s="234"/>
       <c r="E27" s="183" t="s">
         <v>90</v>
       </c>
@@ -5887,7 +5899,7 @@
       <c r="C28" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="240" t="s">
+      <c r="D28" s="256" t="s">
         <v>92</v>
       </c>
       <c r="E28" s="191" t="s">
@@ -5926,7 +5938,7 @@
       <c r="C29" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="241"/>
+      <c r="D29" s="257"/>
       <c r="E29" s="202" t="s">
         <v>64</v>
       </c>
@@ -5963,7 +5975,7 @@
       <c r="C30" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="242"/>
+      <c r="D30" s="258"/>
       <c r="E30" s="211" t="s">
         <v>65</v>
       </c>
@@ -5999,3040 +6011,3054 @@
       <c r="B31" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="227" t="s">
+      <c r="C31" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="229"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="228"/>
-      <c r="J31" s="228"/>
-      <c r="K31" s="228"/>
-      <c r="L31" s="228"/>
-      <c r="M31" s="228"/>
-      <c r="N31" s="228"/>
-      <c r="O31" s="228"/>
-      <c r="P31" s="228"/>
-      <c r="Q31" s="228"/>
-      <c r="R31" s="228"/>
-      <c r="S31" s="228"/>
-      <c r="T31" s="228"/>
-      <c r="U31" s="228"/>
-      <c r="V31" s="228"/>
-      <c r="W31" s="228"/>
-      <c r="X31" s="228"/>
-      <c r="Y31" s="228"/>
-      <c r="Z31" s="228"/>
-      <c r="AA31" s="228"/>
-      <c r="AB31" s="228"/>
-      <c r="AC31" s="228"/>
-      <c r="AD31" s="228"/>
-      <c r="AE31" s="230"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="245"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="244"/>
+      <c r="I31" s="244"/>
+      <c r="J31" s="244"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="244"/>
+      <c r="M31" s="244"/>
+      <c r="N31" s="244"/>
+      <c r="O31" s="244"/>
+      <c r="P31" s="244"/>
+      <c r="Q31" s="244"/>
+      <c r="R31" s="244"/>
+      <c r="S31" s="244"/>
+      <c r="T31" s="244"/>
+      <c r="U31" s="244"/>
+      <c r="V31" s="244"/>
+      <c r="W31" s="244"/>
+      <c r="X31" s="244"/>
+      <c r="Y31" s="244"/>
+      <c r="Z31" s="244"/>
+      <c r="AA31" s="244"/>
+      <c r="AB31" s="244"/>
+      <c r="AC31" s="244"/>
+      <c r="AD31" s="244"/>
+      <c r="AE31" s="246"/>
     </row>
     <row r="32" spans="1:32" ht="16.5" customHeight="1">
       <c r="B32" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="231" t="s">
+      <c r="C32" s="247" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="232"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="232"/>
-      <c r="H32" s="232"/>
-      <c r="I32" s="232"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
-      <c r="O32" s="232"/>
-      <c r="P32" s="232"/>
-      <c r="Q32" s="232"/>
-      <c r="R32" s="232"/>
-      <c r="S32" s="232"/>
-      <c r="T32" s="232"/>
-      <c r="U32" s="232"/>
-      <c r="V32" s="232"/>
-      <c r="W32" s="232"/>
-      <c r="X32" s="232"/>
-      <c r="Y32" s="232"/>
-      <c r="Z32" s="232"/>
-      <c r="AA32" s="232"/>
-      <c r="AB32" s="232"/>
-      <c r="AC32" s="232"/>
-      <c r="AD32" s="232"/>
-      <c r="AE32" s="233"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="248"/>
+      <c r="G32" s="248"/>
+      <c r="H32" s="248"/>
+      <c r="I32" s="248"/>
+      <c r="J32" s="248"/>
+      <c r="K32" s="248"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="248"/>
+      <c r="O32" s="248"/>
+      <c r="P32" s="248"/>
+      <c r="Q32" s="248"/>
+      <c r="R32" s="248"/>
+      <c r="S32" s="248"/>
+      <c r="T32" s="248"/>
+      <c r="U32" s="248"/>
+      <c r="V32" s="248"/>
+      <c r="W32" s="248"/>
+      <c r="X32" s="248"/>
+      <c r="Y32" s="248"/>
+      <c r="Z32" s="248"/>
+      <c r="AA32" s="248"/>
+      <c r="AB32" s="248"/>
+      <c r="AC32" s="248"/>
+      <c r="AD32" s="248"/>
+      <c r="AE32" s="249"/>
     </row>
     <row r="33" spans="2:31" ht="16.5" customHeight="1">
       <c r="B33" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="220" t="s">
+      <c r="C33" s="293" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="220"/>
+      <c r="N33" s="220"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="220"/>
+      <c r="S33" s="220"/>
+      <c r="T33" s="220"/>
+      <c r="U33" s="220"/>
+      <c r="V33" s="220"/>
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="220"/>
+      <c r="Z33" s="220"/>
+      <c r="AA33" s="220"/>
+      <c r="AB33" s="220"/>
+      <c r="AC33" s="220"/>
+      <c r="AD33" s="220"/>
+      <c r="AE33" s="221"/>
+    </row>
+    <row r="34" spans="2:31" ht="16.5" customHeight="1">
+      <c r="B34" s="222" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="250" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="221"/>
-      <c r="E33" s="221"/>
-      <c r="F33" s="221"/>
-      <c r="G33" s="221"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="221"/>
-      <c r="K33" s="221"/>
-      <c r="L33" s="221"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="221"/>
-      <c r="O33" s="221"/>
-      <c r="P33" s="221"/>
-      <c r="Q33" s="221"/>
-      <c r="R33" s="221"/>
-      <c r="S33" s="221"/>
-      <c r="T33" s="221"/>
-      <c r="U33" s="221"/>
-      <c r="V33" s="221"/>
-      <c r="W33" s="221"/>
-      <c r="X33" s="221"/>
-      <c r="Y33" s="221"/>
-      <c r="Z33" s="221"/>
-      <c r="AA33" s="221"/>
-      <c r="AB33" s="221"/>
-      <c r="AC33" s="221"/>
-      <c r="AD33" s="221"/>
-      <c r="AE33" s="222"/>
-    </row>
-    <row r="34" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B34" s="223" t="s">
-        <v>95</v>
+      <c r="D34" s="251"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
+      <c r="H34" s="251"/>
+      <c r="I34" s="251"/>
+      <c r="J34" s="251"/>
+      <c r="K34" s="251"/>
+      <c r="L34" s="251"/>
+      <c r="M34" s="251"/>
+      <c r="N34" s="251"/>
+      <c r="O34" s="251"/>
+      <c r="P34" s="251"/>
+      <c r="Q34" s="251"/>
+      <c r="R34" s="251"/>
+      <c r="S34" s="251"/>
+      <c r="T34" s="251"/>
+      <c r="U34" s="251"/>
+      <c r="V34" s="251"/>
+      <c r="W34" s="251"/>
+      <c r="X34" s="251"/>
+      <c r="Y34" s="251"/>
+      <c r="Z34" s="251"/>
+      <c r="AA34" s="251"/>
+      <c r="AB34" s="251"/>
+      <c r="AC34" s="251"/>
+      <c r="AD34" s="251"/>
+      <c r="AE34" s="252"/>
+    </row>
+    <row r="35" spans="2:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B35" s="223" t="s">
+        <v>66</v>
       </c>
-      <c r="C34" s="234" t="s">
+      <c r="C35" s="253" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="235"/>
-      <c r="E34" s="235"/>
-      <c r="F34" s="235"/>
-      <c r="G34" s="235"/>
-      <c r="H34" s="235"/>
-      <c r="I34" s="235"/>
-      <c r="J34" s="235"/>
-      <c r="K34" s="235"/>
-      <c r="L34" s="235"/>
-      <c r="M34" s="235"/>
-      <c r="N34" s="235"/>
-      <c r="O34" s="235"/>
-      <c r="P34" s="235"/>
-      <c r="Q34" s="235"/>
-      <c r="R34" s="235"/>
-      <c r="S34" s="235"/>
-      <c r="T34" s="235"/>
-      <c r="U34" s="235"/>
-      <c r="V34" s="235"/>
-      <c r="W34" s="235"/>
-      <c r="X34" s="235"/>
-      <c r="Y34" s="235"/>
-      <c r="Z34" s="235"/>
-      <c r="AA34" s="235"/>
-      <c r="AB34" s="235"/>
-      <c r="AC34" s="235"/>
-      <c r="AD34" s="235"/>
-      <c r="AE34" s="236"/>
-    </row>
-    <row r="35" spans="2:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B35" s="224" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="237" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="F35" s="238"/>
-      <c r="G35" s="238"/>
-      <c r="H35" s="238"/>
-      <c r="I35" s="238"/>
-      <c r="J35" s="238"/>
-      <c r="K35" s="238"/>
-      <c r="L35" s="238"/>
-      <c r="M35" s="238"/>
-      <c r="N35" s="238"/>
-      <c r="O35" s="238"/>
-      <c r="P35" s="238"/>
-      <c r="Q35" s="238"/>
-      <c r="R35" s="238"/>
-      <c r="S35" s="238"/>
-      <c r="T35" s="238"/>
-      <c r="U35" s="238"/>
-      <c r="V35" s="238"/>
-      <c r="W35" s="238"/>
-      <c r="X35" s="238"/>
-      <c r="Y35" s="238"/>
-      <c r="Z35" s="238"/>
-      <c r="AA35" s="238"/>
-      <c r="AB35" s="238"/>
-      <c r="AC35" s="238"/>
-      <c r="AD35" s="238"/>
-      <c r="AE35" s="239"/>
+      <c r="D35" s="254"/>
+      <c r="E35" s="254"/>
+      <c r="F35" s="254"/>
+      <c r="G35" s="254"/>
+      <c r="H35" s="254"/>
+      <c r="I35" s="254"/>
+      <c r="J35" s="254"/>
+      <c r="K35" s="254"/>
+      <c r="L35" s="254"/>
+      <c r="M35" s="254"/>
+      <c r="N35" s="254"/>
+      <c r="O35" s="254"/>
+      <c r="P35" s="254"/>
+      <c r="Q35" s="254"/>
+      <c r="R35" s="254"/>
+      <c r="S35" s="254"/>
+      <c r="T35" s="254"/>
+      <c r="U35" s="254"/>
+      <c r="V35" s="254"/>
+      <c r="W35" s="254"/>
+      <c r="X35" s="254"/>
+      <c r="Y35" s="254"/>
+      <c r="Z35" s="254"/>
+      <c r="AA35" s="254"/>
+      <c r="AB35" s="254"/>
+      <c r="AC35" s="254"/>
+      <c r="AD35" s="254"/>
+      <c r="AE35" s="255"/>
     </row>
     <row r="36" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C36" s="225"/>
+      <c r="C36" s="224"/>
     </row>
     <row r="37" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C37" s="225"/>
+      <c r="C37" s="224"/>
     </row>
     <row r="38" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C39" s="225"/>
+      <c r="C39" s="224"/>
     </row>
     <row r="40" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C40" s="225"/>
+      <c r="C40" s="224"/>
     </row>
     <row r="41" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C41" s="225"/>
+      <c r="C41" s="224"/>
     </row>
     <row r="42" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C42" s="225"/>
+      <c r="C42" s="224"/>
     </row>
     <row r="43" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C43" s="225"/>
+      <c r="C43" s="224"/>
     </row>
     <row r="44" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C44" s="225"/>
+      <c r="C44" s="224"/>
     </row>
     <row r="45" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C45" s="225"/>
+      <c r="C45" s="224"/>
     </row>
     <row r="46" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C46" s="225"/>
+      <c r="C46" s="224"/>
     </row>
     <row r="47" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C47" s="225"/>
+      <c r="C47" s="224"/>
     </row>
     <row r="48" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C48" s="225"/>
+      <c r="C48" s="224"/>
     </row>
     <row r="49" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C49" s="225"/>
+      <c r="C49" s="224"/>
     </row>
     <row r="50" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C50" s="225"/>
+      <c r="C50" s="224"/>
     </row>
     <row r="51" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C51" s="225"/>
+      <c r="C51" s="224"/>
     </row>
     <row r="52" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C52" s="225"/>
+      <c r="C52" s="224"/>
     </row>
     <row r="53" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C53" s="225"/>
+      <c r="C53" s="224"/>
     </row>
     <row r="54" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C54" s="225"/>
+      <c r="C54" s="224"/>
     </row>
     <row r="55" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C55" s="225"/>
+      <c r="C55" s="224"/>
     </row>
     <row r="56" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C56" s="225"/>
+      <c r="C56" s="224"/>
     </row>
     <row r="57" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C57" s="225"/>
+      <c r="C57" s="224"/>
     </row>
     <row r="58" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C58" s="225"/>
+      <c r="C58" s="224"/>
     </row>
     <row r="59" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C59" s="225"/>
+      <c r="C59" s="224"/>
     </row>
     <row r="60" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C60" s="225"/>
+      <c r="C60" s="224"/>
     </row>
     <row r="61" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C61" s="225"/>
+      <c r="C61" s="224"/>
     </row>
     <row r="62" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C62" s="225"/>
+      <c r="C62" s="224"/>
     </row>
     <row r="63" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C63" s="225"/>
+      <c r="C63" s="224"/>
     </row>
     <row r="64" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C64" s="225"/>
+      <c r="C64" s="224"/>
     </row>
     <row r="65" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C65" s="225"/>
+      <c r="C65" s="224"/>
     </row>
     <row r="66" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C66" s="225"/>
+      <c r="C66" s="224"/>
     </row>
     <row r="67" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C67" s="225"/>
+      <c r="C67" s="224"/>
     </row>
     <row r="68" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C68" s="225"/>
+      <c r="C68" s="224"/>
     </row>
     <row r="69" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C69" s="225"/>
+      <c r="C69" s="224"/>
     </row>
     <row r="70" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C70" s="225"/>
+      <c r="C70" s="224"/>
     </row>
     <row r="71" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C71" s="225"/>
+      <c r="C71" s="224"/>
     </row>
     <row r="72" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C72" s="225"/>
+      <c r="C72" s="224"/>
     </row>
     <row r="73" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C73" s="225"/>
+      <c r="C73" s="224"/>
     </row>
     <row r="74" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C74" s="225"/>
+      <c r="C74" s="224"/>
     </row>
     <row r="75" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C75" s="225"/>
+      <c r="C75" s="224"/>
     </row>
     <row r="76" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C76" s="225"/>
+      <c r="C76" s="224"/>
     </row>
     <row r="77" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C77" s="225"/>
+      <c r="C77" s="224"/>
     </row>
     <row r="78" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C78" s="225"/>
+      <c r="C78" s="224"/>
     </row>
     <row r="79" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C79" s="225"/>
+      <c r="C79" s="224"/>
     </row>
     <row r="80" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C80" s="225"/>
+      <c r="C80" s="224"/>
     </row>
     <row r="81" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C81" s="225"/>
+      <c r="C81" s="224"/>
     </row>
     <row r="82" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C82" s="225"/>
+      <c r="C82" s="224"/>
     </row>
     <row r="83" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C83" s="225"/>
+      <c r="C83" s="224"/>
     </row>
     <row r="84" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C84" s="225"/>
+      <c r="C84" s="224"/>
     </row>
     <row r="85" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C85" s="225"/>
+      <c r="C85" s="224"/>
     </row>
     <row r="86" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C86" s="225"/>
+      <c r="C86" s="224"/>
     </row>
     <row r="87" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C87" s="225"/>
+      <c r="C87" s="224"/>
     </row>
     <row r="88" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C88" s="225"/>
+      <c r="C88" s="224"/>
     </row>
     <row r="89" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C89" s="225"/>
+      <c r="C89" s="224"/>
     </row>
     <row r="90" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C90" s="225"/>
+      <c r="C90" s="224"/>
     </row>
     <row r="91" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C91" s="225"/>
+      <c r="C91" s="224"/>
     </row>
     <row r="92" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C92" s="225"/>
+      <c r="C92" s="224"/>
     </row>
     <row r="93" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C93" s="225"/>
+      <c r="C93" s="224"/>
     </row>
     <row r="94" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C94" s="225"/>
+      <c r="C94" s="224"/>
     </row>
     <row r="95" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C95" s="225"/>
+      <c r="C95" s="224"/>
     </row>
     <row r="96" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C96" s="225"/>
+      <c r="C96" s="224"/>
     </row>
     <row r="97" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C97" s="225"/>
+      <c r="C97" s="224"/>
     </row>
     <row r="98" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C98" s="225"/>
+      <c r="C98" s="224"/>
     </row>
     <row r="99" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C99" s="225"/>
+      <c r="C99" s="224"/>
     </row>
     <row r="100" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C100" s="225"/>
+      <c r="C100" s="224"/>
     </row>
     <row r="101" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C101" s="225"/>
+      <c r="C101" s="224"/>
     </row>
     <row r="102" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C102" s="225"/>
+      <c r="C102" s="224"/>
     </row>
     <row r="103" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C103" s="225"/>
+      <c r="C103" s="224"/>
     </row>
     <row r="104" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C104" s="225"/>
+      <c r="C104" s="224"/>
     </row>
     <row r="105" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C105" s="225"/>
+      <c r="C105" s="224"/>
     </row>
     <row r="106" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C106" s="225"/>
+      <c r="C106" s="224"/>
     </row>
     <row r="107" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C107" s="225"/>
+      <c r="C107" s="224"/>
     </row>
     <row r="108" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C108" s="225"/>
+      <c r="C108" s="224"/>
     </row>
     <row r="109" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C109" s="225"/>
+      <c r="C109" s="224"/>
     </row>
     <row r="110" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C110" s="225"/>
+      <c r="C110" s="224"/>
     </row>
     <row r="111" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C111" s="225"/>
+      <c r="C111" s="224"/>
     </row>
     <row r="112" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C112" s="225"/>
+      <c r="C112" s="224"/>
     </row>
     <row r="113" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C113" s="225"/>
+      <c r="C113" s="224"/>
     </row>
     <row r="114" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C114" s="225"/>
+      <c r="C114" s="224"/>
     </row>
     <row r="115" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C115" s="225"/>
+      <c r="C115" s="224"/>
     </row>
     <row r="116" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C116" s="225"/>
+      <c r="C116" s="224"/>
     </row>
     <row r="117" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C117" s="225"/>
+      <c r="C117" s="224"/>
     </row>
     <row r="118" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C118" s="225"/>
+      <c r="C118" s="224"/>
     </row>
     <row r="119" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C119" s="225"/>
+      <c r="C119" s="224"/>
     </row>
     <row r="120" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C120" s="225"/>
+      <c r="C120" s="224"/>
     </row>
     <row r="121" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C121" s="225"/>
+      <c r="C121" s="224"/>
     </row>
     <row r="122" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C122" s="225"/>
+      <c r="C122" s="224"/>
     </row>
     <row r="123" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C123" s="225"/>
+      <c r="C123" s="224"/>
     </row>
     <row r="124" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C124" s="225"/>
+      <c r="C124" s="224"/>
     </row>
     <row r="125" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C125" s="225"/>
+      <c r="C125" s="224"/>
     </row>
     <row r="126" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C126" s="225"/>
+      <c r="C126" s="224"/>
     </row>
     <row r="127" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C127" s="225"/>
+      <c r="C127" s="224"/>
     </row>
     <row r="128" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C128" s="225"/>
+      <c r="C128" s="224"/>
     </row>
     <row r="129" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C129" s="225"/>
+      <c r="C129" s="224"/>
     </row>
     <row r="130" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C130" s="225"/>
+      <c r="C130" s="224"/>
     </row>
     <row r="131" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C131" s="225"/>
+      <c r="C131" s="224"/>
     </row>
     <row r="132" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C132" s="225"/>
+      <c r="C132" s="224"/>
     </row>
     <row r="133" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C133" s="225"/>
+      <c r="C133" s="224"/>
     </row>
     <row r="134" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C134" s="225"/>
+      <c r="C134" s="224"/>
     </row>
     <row r="135" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C135" s="225"/>
+      <c r="C135" s="224"/>
     </row>
     <row r="136" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C136" s="225"/>
+      <c r="C136" s="224"/>
     </row>
     <row r="137" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C137" s="225"/>
+      <c r="C137" s="224"/>
     </row>
     <row r="138" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C138" s="225"/>
+      <c r="C138" s="224"/>
     </row>
     <row r="139" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C139" s="225"/>
+      <c r="C139" s="224"/>
     </row>
     <row r="140" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C140" s="225"/>
+      <c r="C140" s="224"/>
     </row>
     <row r="141" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C141" s="225"/>
+      <c r="C141" s="224"/>
     </row>
     <row r="142" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C142" s="225"/>
+      <c r="C142" s="224"/>
     </row>
     <row r="143" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C143" s="225"/>
+      <c r="C143" s="224"/>
     </row>
     <row r="144" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C144" s="225"/>
+      <c r="C144" s="224"/>
     </row>
     <row r="145" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C145" s="225"/>
+      <c r="C145" s="224"/>
     </row>
     <row r="146" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C146" s="225"/>
+      <c r="C146" s="224"/>
     </row>
     <row r="147" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C147" s="225"/>
+      <c r="C147" s="224"/>
     </row>
     <row r="148" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C148" s="225"/>
+      <c r="C148" s="224"/>
     </row>
     <row r="149" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C149" s="225"/>
+      <c r="C149" s="224"/>
     </row>
     <row r="150" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C150" s="225"/>
+      <c r="C150" s="224"/>
     </row>
     <row r="151" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C151" s="225"/>
+      <c r="C151" s="224"/>
     </row>
     <row r="152" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C152" s="225"/>
+      <c r="C152" s="224"/>
     </row>
     <row r="153" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C153" s="225"/>
+      <c r="C153" s="224"/>
     </row>
     <row r="154" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C154" s="225"/>
+      <c r="C154" s="224"/>
     </row>
     <row r="155" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C155" s="225"/>
+      <c r="C155" s="224"/>
     </row>
     <row r="156" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C156" s="225"/>
+      <c r="C156" s="224"/>
     </row>
     <row r="157" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C157" s="225"/>
+      <c r="C157" s="224"/>
     </row>
     <row r="158" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C158" s="225"/>
+      <c r="C158" s="224"/>
     </row>
     <row r="159" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C159" s="225"/>
+      <c r="C159" s="224"/>
     </row>
     <row r="160" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C160" s="225"/>
+      <c r="C160" s="224"/>
     </row>
     <row r="161" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C161" s="225"/>
+      <c r="C161" s="224"/>
     </row>
     <row r="162" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C162" s="225"/>
+      <c r="C162" s="224"/>
     </row>
     <row r="163" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C163" s="225"/>
+      <c r="C163" s="224"/>
     </row>
     <row r="164" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C164" s="225"/>
+      <c r="C164" s="224"/>
     </row>
     <row r="165" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C165" s="225"/>
+      <c r="C165" s="224"/>
     </row>
     <row r="166" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C166" s="225"/>
+      <c r="C166" s="224"/>
     </row>
     <row r="167" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C167" s="225"/>
+      <c r="C167" s="224"/>
     </row>
     <row r="168" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C168" s="225"/>
+      <c r="C168" s="224"/>
     </row>
     <row r="169" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C169" s="225"/>
+      <c r="C169" s="224"/>
     </row>
     <row r="170" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C170" s="225"/>
+      <c r="C170" s="224"/>
     </row>
     <row r="171" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C171" s="225"/>
+      <c r="C171" s="224"/>
     </row>
     <row r="172" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C172" s="225"/>
+      <c r="C172" s="224"/>
     </row>
     <row r="173" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C173" s="225"/>
+      <c r="C173" s="224"/>
     </row>
     <row r="174" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C174" s="225"/>
+      <c r="C174" s="224"/>
     </row>
     <row r="175" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C175" s="225"/>
+      <c r="C175" s="224"/>
     </row>
     <row r="176" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C176" s="225"/>
+      <c r="C176" s="224"/>
     </row>
     <row r="177" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C177" s="225"/>
+      <c r="C177" s="224"/>
     </row>
     <row r="178" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C178" s="225"/>
+      <c r="C178" s="224"/>
     </row>
     <row r="179" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C179" s="225"/>
+      <c r="C179" s="224"/>
     </row>
     <row r="180" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C180" s="225"/>
+      <c r="C180" s="224"/>
     </row>
     <row r="181" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C181" s="225"/>
+      <c r="C181" s="224"/>
     </row>
     <row r="182" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C182" s="225"/>
+      <c r="C182" s="224"/>
     </row>
     <row r="183" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C183" s="225"/>
+      <c r="C183" s="224"/>
     </row>
     <row r="184" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C184" s="225"/>
+      <c r="C184" s="224"/>
     </row>
     <row r="185" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C185" s="225"/>
+      <c r="C185" s="224"/>
     </row>
     <row r="186" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C186" s="225"/>
+      <c r="C186" s="224"/>
     </row>
     <row r="187" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C187" s="225"/>
+      <c r="C187" s="224"/>
     </row>
     <row r="188" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C188" s="225"/>
+      <c r="C188" s="224"/>
     </row>
     <row r="189" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C189" s="225"/>
+      <c r="C189" s="224"/>
     </row>
     <row r="190" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C190" s="225"/>
+      <c r="C190" s="224"/>
     </row>
     <row r="191" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C191" s="225"/>
+      <c r="C191" s="224"/>
     </row>
     <row r="192" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C192" s="225"/>
+      <c r="C192" s="224"/>
     </row>
     <row r="193" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C193" s="225"/>
+      <c r="C193" s="224"/>
     </row>
     <row r="194" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C194" s="225"/>
+      <c r="C194" s="224"/>
     </row>
     <row r="195" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C195" s="225"/>
+      <c r="C195" s="224"/>
     </row>
     <row r="196" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C196" s="225"/>
+      <c r="C196" s="224"/>
     </row>
     <row r="197" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C197" s="225"/>
+      <c r="C197" s="224"/>
     </row>
     <row r="198" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C198" s="225"/>
+      <c r="C198" s="224"/>
     </row>
     <row r="199" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C199" s="225"/>
+      <c r="C199" s="224"/>
     </row>
     <row r="200" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C200" s="225"/>
+      <c r="C200" s="224"/>
     </row>
     <row r="201" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C201" s="225"/>
+      <c r="C201" s="224"/>
     </row>
     <row r="202" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C202" s="225"/>
+      <c r="C202" s="224"/>
     </row>
     <row r="203" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C203" s="225"/>
+      <c r="C203" s="224"/>
     </row>
     <row r="204" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C204" s="225"/>
+      <c r="C204" s="224"/>
     </row>
     <row r="205" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C205" s="225"/>
+      <c r="C205" s="224"/>
     </row>
     <row r="206" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C206" s="225"/>
+      <c r="C206" s="224"/>
     </row>
     <row r="207" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C207" s="225"/>
+      <c r="C207" s="224"/>
     </row>
     <row r="208" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C208" s="225"/>
+      <c r="C208" s="224"/>
     </row>
     <row r="209" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C209" s="225"/>
+      <c r="C209" s="224"/>
     </row>
     <row r="210" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C210" s="225"/>
+      <c r="C210" s="224"/>
     </row>
     <row r="211" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C211" s="225"/>
+      <c r="C211" s="224"/>
     </row>
     <row r="212" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C212" s="225"/>
+      <c r="C212" s="224"/>
     </row>
     <row r="213" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C213" s="225"/>
+      <c r="C213" s="224"/>
     </row>
     <row r="214" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C214" s="225"/>
+      <c r="C214" s="224"/>
     </row>
     <row r="215" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C215" s="225"/>
+      <c r="C215" s="224"/>
     </row>
     <row r="216" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C216" s="225"/>
+      <c r="C216" s="224"/>
     </row>
     <row r="217" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C217" s="225"/>
+      <c r="C217" s="224"/>
     </row>
     <row r="218" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C218" s="225"/>
+      <c r="C218" s="224"/>
     </row>
     <row r="219" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C219" s="225"/>
+      <c r="C219" s="224"/>
     </row>
     <row r="220" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C220" s="225"/>
+      <c r="C220" s="224"/>
     </row>
     <row r="221" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C221" s="225"/>
+      <c r="C221" s="224"/>
     </row>
     <row r="222" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C222" s="225"/>
+      <c r="C222" s="224"/>
     </row>
     <row r="223" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C223" s="225"/>
+      <c r="C223" s="224"/>
     </row>
     <row r="224" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C224" s="225"/>
+      <c r="C224" s="224"/>
     </row>
     <row r="225" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C225" s="225"/>
+      <c r="C225" s="224"/>
     </row>
     <row r="226" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C226" s="225"/>
+      <c r="C226" s="224"/>
     </row>
     <row r="227" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C227" s="225"/>
+      <c r="C227" s="224"/>
     </row>
     <row r="228" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C228" s="225"/>
+      <c r="C228" s="224"/>
     </row>
     <row r="229" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C229" s="225"/>
+      <c r="C229" s="224"/>
     </row>
     <row r="230" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C230" s="225"/>
+      <c r="C230" s="224"/>
     </row>
     <row r="231" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C231" s="225"/>
+      <c r="C231" s="224"/>
     </row>
     <row r="232" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C232" s="225"/>
+      <c r="C232" s="224"/>
     </row>
     <row r="233" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C233" s="225"/>
+      <c r="C233" s="224"/>
     </row>
     <row r="234" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C234" s="225"/>
+      <c r="C234" s="224"/>
     </row>
     <row r="235" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C235" s="225"/>
+      <c r="C235" s="224"/>
     </row>
     <row r="236" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C236" s="225"/>
+      <c r="C236" s="224"/>
     </row>
     <row r="237" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C237" s="225"/>
+      <c r="C237" s="224"/>
     </row>
     <row r="238" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C238" s="225"/>
+      <c r="C238" s="224"/>
     </row>
     <row r="239" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C239" s="225"/>
+      <c r="C239" s="224"/>
     </row>
     <row r="240" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C240" s="225"/>
+      <c r="C240" s="224"/>
     </row>
     <row r="241" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C241" s="225"/>
+      <c r="C241" s="224"/>
     </row>
     <row r="242" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C242" s="225"/>
+      <c r="C242" s="224"/>
     </row>
     <row r="243" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C243" s="225"/>
+      <c r="C243" s="224"/>
     </row>
     <row r="244" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C244" s="225"/>
+      <c r="C244" s="224"/>
     </row>
     <row r="245" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C245" s="225"/>
+      <c r="C245" s="224"/>
     </row>
     <row r="246" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C246" s="225"/>
+      <c r="C246" s="224"/>
     </row>
     <row r="247" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C247" s="225"/>
+      <c r="C247" s="224"/>
     </row>
     <row r="248" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C248" s="225"/>
+      <c r="C248" s="224"/>
     </row>
     <row r="249" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C249" s="225"/>
+      <c r="C249" s="224"/>
     </row>
     <row r="250" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C250" s="225"/>
+      <c r="C250" s="224"/>
     </row>
     <row r="251" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C251" s="225"/>
+      <c r="C251" s="224"/>
     </row>
     <row r="252" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C252" s="225"/>
+      <c r="C252" s="224"/>
     </row>
     <row r="253" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C253" s="225"/>
+      <c r="C253" s="224"/>
     </row>
     <row r="254" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C254" s="225"/>
+      <c r="C254" s="224"/>
     </row>
     <row r="255" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C255" s="225"/>
+      <c r="C255" s="224"/>
     </row>
     <row r="256" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C256" s="225"/>
+      <c r="C256" s="224"/>
     </row>
     <row r="257" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C257" s="225"/>
+      <c r="C257" s="224"/>
     </row>
     <row r="258" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C258" s="225"/>
+      <c r="C258" s="224"/>
     </row>
     <row r="259" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C259" s="225"/>
+      <c r="C259" s="224"/>
     </row>
     <row r="260" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C260" s="225"/>
+      <c r="C260" s="224"/>
     </row>
     <row r="261" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C261" s="225"/>
+      <c r="C261" s="224"/>
     </row>
     <row r="262" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C262" s="225"/>
+      <c r="C262" s="224"/>
     </row>
     <row r="263" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C263" s="225"/>
+      <c r="C263" s="224"/>
     </row>
     <row r="264" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C264" s="225"/>
+      <c r="C264" s="224"/>
     </row>
     <row r="265" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C265" s="225"/>
+      <c r="C265" s="224"/>
     </row>
     <row r="266" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C266" s="225"/>
+      <c r="C266" s="224"/>
     </row>
     <row r="267" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C267" s="225"/>
+      <c r="C267" s="224"/>
     </row>
     <row r="268" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C268" s="225"/>
+      <c r="C268" s="224"/>
     </row>
     <row r="269" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C269" s="225"/>
+      <c r="C269" s="224"/>
     </row>
     <row r="270" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C270" s="225"/>
+      <c r="C270" s="224"/>
     </row>
     <row r="271" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C271" s="225"/>
+      <c r="C271" s="224"/>
     </row>
     <row r="272" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C272" s="225"/>
+      <c r="C272" s="224"/>
     </row>
     <row r="273" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C273" s="225"/>
+      <c r="C273" s="224"/>
     </row>
     <row r="274" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C274" s="225"/>
+      <c r="C274" s="224"/>
     </row>
     <row r="275" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C275" s="225"/>
+      <c r="C275" s="224"/>
     </row>
     <row r="276" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C276" s="225"/>
+      <c r="C276" s="224"/>
     </row>
     <row r="277" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C277" s="225"/>
+      <c r="C277" s="224"/>
     </row>
     <row r="278" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C278" s="225"/>
+      <c r="C278" s="224"/>
     </row>
     <row r="279" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C279" s="225"/>
+      <c r="C279" s="224"/>
     </row>
     <row r="280" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C280" s="225"/>
+      <c r="C280" s="224"/>
     </row>
     <row r="281" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C281" s="225"/>
+      <c r="C281" s="224"/>
     </row>
     <row r="282" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C282" s="225"/>
+      <c r="C282" s="224"/>
     </row>
     <row r="283" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C283" s="225"/>
+      <c r="C283" s="224"/>
     </row>
     <row r="284" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C284" s="225"/>
+      <c r="C284" s="224"/>
     </row>
     <row r="285" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C285" s="225"/>
+      <c r="C285" s="224"/>
     </row>
     <row r="286" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C286" s="225"/>
+      <c r="C286" s="224"/>
     </row>
     <row r="287" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C287" s="225"/>
+      <c r="C287" s="224"/>
     </row>
     <row r="288" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C288" s="225"/>
+      <c r="C288" s="224"/>
     </row>
     <row r="289" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C289" s="225"/>
+      <c r="C289" s="224"/>
     </row>
     <row r="290" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C290" s="225"/>
+      <c r="C290" s="224"/>
     </row>
     <row r="291" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C291" s="225"/>
+      <c r="C291" s="224"/>
     </row>
     <row r="292" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C292" s="225"/>
+      <c r="C292" s="224"/>
     </row>
     <row r="293" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C293" s="225"/>
+      <c r="C293" s="224"/>
     </row>
     <row r="294" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C294" s="225"/>
+      <c r="C294" s="224"/>
     </row>
     <row r="295" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C295" s="225"/>
+      <c r="C295" s="224"/>
     </row>
     <row r="296" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C296" s="225"/>
+      <c r="C296" s="224"/>
     </row>
     <row r="297" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C297" s="225"/>
+      <c r="C297" s="224"/>
     </row>
     <row r="298" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C298" s="225"/>
+      <c r="C298" s="224"/>
     </row>
     <row r="299" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C299" s="225"/>
+      <c r="C299" s="224"/>
     </row>
     <row r="300" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C300" s="225"/>
+      <c r="C300" s="224"/>
     </row>
     <row r="301" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C301" s="225"/>
+      <c r="C301" s="224"/>
     </row>
     <row r="302" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C302" s="225"/>
+      <c r="C302" s="224"/>
     </row>
     <row r="303" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C303" s="225"/>
+      <c r="C303" s="224"/>
     </row>
     <row r="304" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C304" s="225"/>
+      <c r="C304" s="224"/>
     </row>
     <row r="305" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C305" s="225"/>
+      <c r="C305" s="224"/>
     </row>
     <row r="306" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C306" s="225"/>
+      <c r="C306" s="224"/>
     </row>
     <row r="307" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C307" s="225"/>
+      <c r="C307" s="224"/>
     </row>
     <row r="308" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C308" s="225"/>
+      <c r="C308" s="224"/>
     </row>
     <row r="309" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C309" s="225"/>
+      <c r="C309" s="224"/>
     </row>
     <row r="310" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C310" s="225"/>
+      <c r="C310" s="224"/>
     </row>
     <row r="311" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C311" s="225"/>
+      <c r="C311" s="224"/>
     </row>
     <row r="312" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C312" s="225"/>
+      <c r="C312" s="224"/>
     </row>
     <row r="313" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C313" s="225"/>
+      <c r="C313" s="224"/>
     </row>
     <row r="314" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C314" s="225"/>
+      <c r="C314" s="224"/>
     </row>
     <row r="315" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C315" s="225"/>
+      <c r="C315" s="224"/>
     </row>
     <row r="316" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C316" s="225"/>
+      <c r="C316" s="224"/>
     </row>
     <row r="317" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C317" s="225"/>
+      <c r="C317" s="224"/>
     </row>
     <row r="318" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C318" s="225"/>
+      <c r="C318" s="224"/>
     </row>
     <row r="319" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C319" s="225"/>
+      <c r="C319" s="224"/>
     </row>
     <row r="320" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C320" s="225"/>
+      <c r="C320" s="224"/>
     </row>
     <row r="321" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C321" s="225"/>
+      <c r="C321" s="224"/>
     </row>
     <row r="322" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C322" s="225"/>
+      <c r="C322" s="224"/>
     </row>
     <row r="323" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C323" s="225"/>
+      <c r="C323" s="224"/>
     </row>
     <row r="324" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C324" s="225"/>
+      <c r="C324" s="224"/>
     </row>
     <row r="325" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C325" s="225"/>
+      <c r="C325" s="224"/>
     </row>
     <row r="326" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C326" s="225"/>
+      <c r="C326" s="224"/>
     </row>
     <row r="327" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C327" s="225"/>
+      <c r="C327" s="224"/>
     </row>
     <row r="328" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C328" s="225"/>
+      <c r="C328" s="224"/>
     </row>
     <row r="329" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C329" s="225"/>
+      <c r="C329" s="224"/>
     </row>
     <row r="330" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C330" s="225"/>
+      <c r="C330" s="224"/>
     </row>
     <row r="331" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C331" s="225"/>
+      <c r="C331" s="224"/>
     </row>
     <row r="332" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C332" s="225"/>
+      <c r="C332" s="224"/>
     </row>
     <row r="333" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C333" s="225"/>
+      <c r="C333" s="224"/>
     </row>
     <row r="334" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C334" s="225"/>
+      <c r="C334" s="224"/>
     </row>
     <row r="335" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C335" s="225"/>
+      <c r="C335" s="224"/>
     </row>
     <row r="336" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C336" s="225"/>
+      <c r="C336" s="224"/>
     </row>
     <row r="337" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C337" s="225"/>
+      <c r="C337" s="224"/>
     </row>
     <row r="338" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C338" s="225"/>
+      <c r="C338" s="224"/>
     </row>
     <row r="339" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C339" s="225"/>
+      <c r="C339" s="224"/>
     </row>
     <row r="340" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C340" s="225"/>
+      <c r="C340" s="224"/>
     </row>
     <row r="341" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C341" s="225"/>
+      <c r="C341" s="224"/>
     </row>
     <row r="342" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C342" s="225"/>
+      <c r="C342" s="224"/>
     </row>
     <row r="343" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C343" s="225"/>
+      <c r="C343" s="224"/>
     </row>
     <row r="344" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C344" s="225"/>
+      <c r="C344" s="224"/>
     </row>
     <row r="345" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C345" s="225"/>
+      <c r="C345" s="224"/>
     </row>
     <row r="346" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C346" s="225"/>
+      <c r="C346" s="224"/>
     </row>
     <row r="347" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C347" s="225"/>
+      <c r="C347" s="224"/>
     </row>
     <row r="348" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C348" s="225"/>
+      <c r="C348" s="224"/>
     </row>
     <row r="349" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C349" s="225"/>
+      <c r="C349" s="224"/>
     </row>
     <row r="350" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C350" s="225"/>
+      <c r="C350" s="224"/>
     </row>
     <row r="351" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C351" s="225"/>
+      <c r="C351" s="224"/>
     </row>
     <row r="352" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C352" s="225"/>
+      <c r="C352" s="224"/>
     </row>
     <row r="353" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C353" s="225"/>
+      <c r="C353" s="224"/>
     </row>
     <row r="354" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C354" s="225"/>
+      <c r="C354" s="224"/>
     </row>
     <row r="355" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C355" s="225"/>
+      <c r="C355" s="224"/>
     </row>
     <row r="356" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C356" s="225"/>
+      <c r="C356" s="224"/>
     </row>
     <row r="357" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C357" s="225"/>
+      <c r="C357" s="224"/>
     </row>
     <row r="358" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C358" s="225"/>
+      <c r="C358" s="224"/>
     </row>
     <row r="359" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C359" s="225"/>
+      <c r="C359" s="224"/>
     </row>
     <row r="360" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C360" s="225"/>
+      <c r="C360" s="224"/>
     </row>
     <row r="361" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C361" s="225"/>
+      <c r="C361" s="224"/>
     </row>
     <row r="362" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C362" s="225"/>
+      <c r="C362" s="224"/>
     </row>
     <row r="363" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C363" s="225"/>
+      <c r="C363" s="224"/>
     </row>
     <row r="364" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C364" s="225"/>
+      <c r="C364" s="224"/>
     </row>
     <row r="365" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C365" s="225"/>
+      <c r="C365" s="224"/>
     </row>
     <row r="366" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C366" s="225"/>
+      <c r="C366" s="224"/>
     </row>
     <row r="367" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C367" s="225"/>
+      <c r="C367" s="224"/>
     </row>
     <row r="368" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C368" s="225"/>
+      <c r="C368" s="224"/>
     </row>
     <row r="369" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C369" s="225"/>
+      <c r="C369" s="224"/>
     </row>
     <row r="370" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C370" s="225"/>
+      <c r="C370" s="224"/>
     </row>
     <row r="371" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C371" s="225"/>
+      <c r="C371" s="224"/>
     </row>
     <row r="372" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C372" s="225"/>
+      <c r="C372" s="224"/>
     </row>
     <row r="373" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C373" s="225"/>
+      <c r="C373" s="224"/>
     </row>
     <row r="374" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C374" s="225"/>
+      <c r="C374" s="224"/>
     </row>
     <row r="375" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C375" s="225"/>
+      <c r="C375" s="224"/>
     </row>
     <row r="376" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C376" s="225"/>
+      <c r="C376" s="224"/>
     </row>
     <row r="377" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C377" s="225"/>
+      <c r="C377" s="224"/>
     </row>
     <row r="378" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C378" s="225"/>
+      <c r="C378" s="224"/>
     </row>
     <row r="379" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C379" s="225"/>
+      <c r="C379" s="224"/>
     </row>
     <row r="380" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C380" s="225"/>
+      <c r="C380" s="224"/>
     </row>
     <row r="381" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C381" s="225"/>
+      <c r="C381" s="224"/>
     </row>
     <row r="382" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C382" s="225"/>
+      <c r="C382" s="224"/>
     </row>
     <row r="383" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C383" s="225"/>
+      <c r="C383" s="224"/>
     </row>
     <row r="384" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C384" s="225"/>
+      <c r="C384" s="224"/>
     </row>
     <row r="385" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C385" s="225"/>
+      <c r="C385" s="224"/>
     </row>
     <row r="386" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C386" s="225"/>
+      <c r="C386" s="224"/>
     </row>
     <row r="387" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C387" s="225"/>
+      <c r="C387" s="224"/>
     </row>
     <row r="388" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C388" s="225"/>
+      <c r="C388" s="224"/>
     </row>
     <row r="389" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C389" s="225"/>
+      <c r="C389" s="224"/>
     </row>
     <row r="390" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C390" s="225"/>
+      <c r="C390" s="224"/>
     </row>
     <row r="391" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C391" s="225"/>
+      <c r="C391" s="224"/>
     </row>
     <row r="392" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C392" s="225"/>
+      <c r="C392" s="224"/>
     </row>
     <row r="393" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C393" s="225"/>
+      <c r="C393" s="224"/>
     </row>
     <row r="394" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C394" s="225"/>
+      <c r="C394" s="224"/>
     </row>
     <row r="395" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C395" s="225"/>
+      <c r="C395" s="224"/>
     </row>
     <row r="396" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C396" s="225"/>
+      <c r="C396" s="224"/>
     </row>
     <row r="397" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C397" s="225"/>
+      <c r="C397" s="224"/>
     </row>
     <row r="398" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C398" s="225"/>
+      <c r="C398" s="224"/>
     </row>
     <row r="399" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C399" s="225"/>
+      <c r="C399" s="224"/>
     </row>
     <row r="400" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C400" s="225"/>
+      <c r="C400" s="224"/>
     </row>
     <row r="401" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C401" s="225"/>
+      <c r="C401" s="224"/>
     </row>
     <row r="402" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C402" s="225"/>
+      <c r="C402" s="224"/>
     </row>
     <row r="403" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C403" s="225"/>
+      <c r="C403" s="224"/>
     </row>
     <row r="404" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C404" s="225"/>
+      <c r="C404" s="224"/>
     </row>
     <row r="405" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C405" s="225"/>
+      <c r="C405" s="224"/>
     </row>
     <row r="406" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C406" s="225"/>
+      <c r="C406" s="224"/>
     </row>
     <row r="407" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C407" s="225"/>
+      <c r="C407" s="224"/>
     </row>
     <row r="408" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C408" s="225"/>
+      <c r="C408" s="224"/>
     </row>
     <row r="409" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C409" s="225"/>
+      <c r="C409" s="224"/>
     </row>
     <row r="410" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C410" s="225"/>
+      <c r="C410" s="224"/>
     </row>
     <row r="411" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C411" s="225"/>
+      <c r="C411" s="224"/>
     </row>
     <row r="412" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C412" s="225"/>
+      <c r="C412" s="224"/>
     </row>
     <row r="413" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C413" s="225"/>
+      <c r="C413" s="224"/>
     </row>
     <row r="414" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C414" s="225"/>
+      <c r="C414" s="224"/>
     </row>
     <row r="415" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C415" s="225"/>
+      <c r="C415" s="224"/>
     </row>
     <row r="416" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C416" s="225"/>
+      <c r="C416" s="224"/>
     </row>
     <row r="417" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C417" s="225"/>
+      <c r="C417" s="224"/>
     </row>
     <row r="418" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C418" s="225"/>
+      <c r="C418" s="224"/>
     </row>
     <row r="419" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C419" s="225"/>
+      <c r="C419" s="224"/>
     </row>
     <row r="420" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C420" s="225"/>
+      <c r="C420" s="224"/>
     </row>
     <row r="421" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C421" s="225"/>
+      <c r="C421" s="224"/>
     </row>
     <row r="422" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C422" s="225"/>
+      <c r="C422" s="224"/>
     </row>
     <row r="423" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C423" s="225"/>
+      <c r="C423" s="224"/>
     </row>
     <row r="424" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C424" s="225"/>
+      <c r="C424" s="224"/>
     </row>
     <row r="425" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C425" s="225"/>
+      <c r="C425" s="224"/>
     </row>
     <row r="426" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C426" s="225"/>
+      <c r="C426" s="224"/>
     </row>
     <row r="427" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C427" s="225"/>
+      <c r="C427" s="224"/>
     </row>
     <row r="428" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C428" s="225"/>
+      <c r="C428" s="224"/>
     </row>
     <row r="429" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C429" s="225"/>
+      <c r="C429" s="224"/>
     </row>
     <row r="430" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C430" s="225"/>
+      <c r="C430" s="224"/>
     </row>
     <row r="431" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C431" s="225"/>
+      <c r="C431" s="224"/>
     </row>
     <row r="432" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C432" s="225"/>
+      <c r="C432" s="224"/>
     </row>
     <row r="433" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C433" s="225"/>
+      <c r="C433" s="224"/>
     </row>
     <row r="434" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C434" s="225"/>
+      <c r="C434" s="224"/>
     </row>
     <row r="435" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C435" s="225"/>
+      <c r="C435" s="224"/>
     </row>
     <row r="436" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C436" s="225"/>
+      <c r="C436" s="224"/>
     </row>
     <row r="437" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C437" s="225"/>
+      <c r="C437" s="224"/>
     </row>
     <row r="438" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C438" s="225"/>
+      <c r="C438" s="224"/>
     </row>
     <row r="439" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C439" s="225"/>
+      <c r="C439" s="224"/>
     </row>
     <row r="440" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C440" s="225"/>
+      <c r="C440" s="224"/>
     </row>
     <row r="441" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C441" s="225"/>
+      <c r="C441" s="224"/>
     </row>
     <row r="442" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C442" s="225"/>
+      <c r="C442" s="224"/>
     </row>
     <row r="443" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C443" s="225"/>
+      <c r="C443" s="224"/>
     </row>
     <row r="444" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C444" s="225"/>
+      <c r="C444" s="224"/>
     </row>
     <row r="445" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C445" s="225"/>
+      <c r="C445" s="224"/>
     </row>
     <row r="446" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C446" s="225"/>
+      <c r="C446" s="224"/>
     </row>
     <row r="447" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C447" s="225"/>
+      <c r="C447" s="224"/>
     </row>
     <row r="448" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C448" s="225"/>
+      <c r="C448" s="224"/>
     </row>
     <row r="449" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C449" s="225"/>
+      <c r="C449" s="224"/>
     </row>
     <row r="450" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C450" s="225"/>
+      <c r="C450" s="224"/>
     </row>
     <row r="451" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C451" s="225"/>
+      <c r="C451" s="224"/>
     </row>
     <row r="452" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C452" s="225"/>
+      <c r="C452" s="224"/>
     </row>
     <row r="453" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C453" s="225"/>
+      <c r="C453" s="224"/>
     </row>
     <row r="454" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C454" s="225"/>
+      <c r="C454" s="224"/>
     </row>
     <row r="455" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C455" s="225"/>
+      <c r="C455" s="224"/>
     </row>
     <row r="456" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C456" s="225"/>
+      <c r="C456" s="224"/>
     </row>
     <row r="457" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C457" s="225"/>
+      <c r="C457" s="224"/>
     </row>
     <row r="458" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C458" s="225"/>
+      <c r="C458" s="224"/>
     </row>
     <row r="459" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C459" s="225"/>
+      <c r="C459" s="224"/>
     </row>
     <row r="460" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C460" s="225"/>
+      <c r="C460" s="224"/>
     </row>
     <row r="461" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C461" s="225"/>
+      <c r="C461" s="224"/>
     </row>
     <row r="462" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C462" s="225"/>
+      <c r="C462" s="224"/>
     </row>
     <row r="463" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C463" s="225"/>
+      <c r="C463" s="224"/>
     </row>
     <row r="464" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C464" s="225"/>
+      <c r="C464" s="224"/>
     </row>
     <row r="465" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C465" s="225"/>
+      <c r="C465" s="224"/>
     </row>
     <row r="466" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C466" s="225"/>
+      <c r="C466" s="224"/>
     </row>
     <row r="467" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C467" s="225"/>
+      <c r="C467" s="224"/>
     </row>
     <row r="468" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C468" s="225"/>
+      <c r="C468" s="224"/>
     </row>
     <row r="469" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C469" s="225"/>
+      <c r="C469" s="224"/>
     </row>
     <row r="470" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C470" s="225"/>
+      <c r="C470" s="224"/>
     </row>
     <row r="471" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C471" s="225"/>
+      <c r="C471" s="224"/>
     </row>
     <row r="472" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C472" s="225"/>
+      <c r="C472" s="224"/>
     </row>
     <row r="473" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C473" s="225"/>
+      <c r="C473" s="224"/>
     </row>
     <row r="474" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C474" s="225"/>
+      <c r="C474" s="224"/>
     </row>
     <row r="475" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C475" s="225"/>
+      <c r="C475" s="224"/>
     </row>
     <row r="476" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C476" s="225"/>
+      <c r="C476" s="224"/>
     </row>
     <row r="477" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C477" s="225"/>
+      <c r="C477" s="224"/>
     </row>
     <row r="478" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C478" s="225"/>
+      <c r="C478" s="224"/>
     </row>
     <row r="479" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C479" s="225"/>
+      <c r="C479" s="224"/>
     </row>
     <row r="480" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C480" s="225"/>
+      <c r="C480" s="224"/>
     </row>
     <row r="481" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C481" s="225"/>
+      <c r="C481" s="224"/>
     </row>
     <row r="482" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C482" s="225"/>
+      <c r="C482" s="224"/>
     </row>
     <row r="483" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C483" s="225"/>
+      <c r="C483" s="224"/>
     </row>
     <row r="484" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C484" s="225"/>
+      <c r="C484" s="224"/>
     </row>
     <row r="485" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C485" s="225"/>
+      <c r="C485" s="224"/>
     </row>
     <row r="486" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C486" s="225"/>
+      <c r="C486" s="224"/>
     </row>
     <row r="487" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C487" s="225"/>
+      <c r="C487" s="224"/>
     </row>
     <row r="488" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C488" s="225"/>
+      <c r="C488" s="224"/>
     </row>
     <row r="489" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C489" s="225"/>
+      <c r="C489" s="224"/>
     </row>
     <row r="490" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C490" s="225"/>
+      <c r="C490" s="224"/>
     </row>
     <row r="491" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C491" s="225"/>
+      <c r="C491" s="224"/>
     </row>
     <row r="492" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C492" s="225"/>
+      <c r="C492" s="224"/>
     </row>
     <row r="493" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C493" s="225"/>
+      <c r="C493" s="224"/>
     </row>
     <row r="494" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C494" s="225"/>
+      <c r="C494" s="224"/>
     </row>
     <row r="495" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C495" s="225"/>
+      <c r="C495" s="224"/>
     </row>
     <row r="496" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C496" s="225"/>
+      <c r="C496" s="224"/>
     </row>
     <row r="497" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C497" s="225"/>
+      <c r="C497" s="224"/>
     </row>
     <row r="498" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C498" s="225"/>
+      <c r="C498" s="224"/>
     </row>
     <row r="499" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C499" s="225"/>
+      <c r="C499" s="224"/>
     </row>
     <row r="500" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C500" s="225"/>
+      <c r="C500" s="224"/>
     </row>
     <row r="501" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C501" s="225"/>
+      <c r="C501" s="224"/>
     </row>
     <row r="502" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C502" s="225"/>
+      <c r="C502" s="224"/>
     </row>
     <row r="503" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C503" s="225"/>
+      <c r="C503" s="224"/>
     </row>
     <row r="504" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C504" s="225"/>
+      <c r="C504" s="224"/>
     </row>
     <row r="505" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C505" s="225"/>
+      <c r="C505" s="224"/>
     </row>
     <row r="506" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C506" s="225"/>
+      <c r="C506" s="224"/>
     </row>
     <row r="507" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C507" s="225"/>
+      <c r="C507" s="224"/>
     </row>
     <row r="508" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C508" s="225"/>
+      <c r="C508" s="224"/>
     </row>
     <row r="509" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C509" s="225"/>
+      <c r="C509" s="224"/>
     </row>
     <row r="510" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C510" s="225"/>
+      <c r="C510" s="224"/>
     </row>
     <row r="511" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C511" s="225"/>
+      <c r="C511" s="224"/>
     </row>
     <row r="512" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C512" s="225"/>
+      <c r="C512" s="224"/>
     </row>
     <row r="513" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C513" s="225"/>
+      <c r="C513" s="224"/>
     </row>
     <row r="514" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C514" s="225"/>
+      <c r="C514" s="224"/>
     </row>
     <row r="515" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C515" s="225"/>
+      <c r="C515" s="224"/>
     </row>
     <row r="516" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C516" s="225"/>
+      <c r="C516" s="224"/>
     </row>
     <row r="517" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C517" s="225"/>
+      <c r="C517" s="224"/>
     </row>
     <row r="518" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C518" s="225"/>
+      <c r="C518" s="224"/>
     </row>
     <row r="519" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C519" s="225"/>
+      <c r="C519" s="224"/>
     </row>
     <row r="520" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C520" s="225"/>
+      <c r="C520" s="224"/>
     </row>
     <row r="521" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C521" s="225"/>
+      <c r="C521" s="224"/>
     </row>
     <row r="522" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C522" s="225"/>
+      <c r="C522" s="224"/>
     </row>
     <row r="523" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C523" s="225"/>
+      <c r="C523" s="224"/>
     </row>
     <row r="524" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C524" s="225"/>
+      <c r="C524" s="224"/>
     </row>
     <row r="525" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C525" s="225"/>
+      <c r="C525" s="224"/>
     </row>
     <row r="526" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C526" s="225"/>
+      <c r="C526" s="224"/>
     </row>
     <row r="527" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C527" s="225"/>
+      <c r="C527" s="224"/>
     </row>
     <row r="528" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C528" s="225"/>
+      <c r="C528" s="224"/>
     </row>
     <row r="529" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C529" s="225"/>
+      <c r="C529" s="224"/>
     </row>
     <row r="530" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C530" s="225"/>
+      <c r="C530" s="224"/>
     </row>
     <row r="531" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C531" s="225"/>
+      <c r="C531" s="224"/>
     </row>
     <row r="532" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C532" s="225"/>
+      <c r="C532" s="224"/>
     </row>
     <row r="533" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C533" s="225"/>
+      <c r="C533" s="224"/>
     </row>
     <row r="534" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C534" s="225"/>
+      <c r="C534" s="224"/>
     </row>
     <row r="535" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C535" s="225"/>
+      <c r="C535" s="224"/>
     </row>
     <row r="536" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C536" s="225"/>
+      <c r="C536" s="224"/>
     </row>
     <row r="537" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C537" s="225"/>
+      <c r="C537" s="224"/>
     </row>
     <row r="538" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C538" s="225"/>
+      <c r="C538" s="224"/>
     </row>
     <row r="539" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C539" s="225"/>
+      <c r="C539" s="224"/>
     </row>
     <row r="540" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C540" s="225"/>
+      <c r="C540" s="224"/>
     </row>
     <row r="541" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C541" s="225"/>
+      <c r="C541" s="224"/>
     </row>
     <row r="542" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C542" s="225"/>
+      <c r="C542" s="224"/>
     </row>
     <row r="543" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C543" s="225"/>
+      <c r="C543" s="224"/>
     </row>
     <row r="544" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C544" s="225"/>
+      <c r="C544" s="224"/>
     </row>
     <row r="545" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C545" s="225"/>
+      <c r="C545" s="224"/>
     </row>
     <row r="546" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C546" s="225"/>
+      <c r="C546" s="224"/>
     </row>
     <row r="547" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C547" s="225"/>
+      <c r="C547" s="224"/>
     </row>
     <row r="548" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C548" s="225"/>
+      <c r="C548" s="224"/>
     </row>
     <row r="549" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C549" s="225"/>
+      <c r="C549" s="224"/>
     </row>
     <row r="550" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C550" s="225"/>
+      <c r="C550" s="224"/>
     </row>
     <row r="551" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C551" s="225"/>
+      <c r="C551" s="224"/>
     </row>
     <row r="552" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C552" s="225"/>
+      <c r="C552" s="224"/>
     </row>
     <row r="553" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C553" s="225"/>
+      <c r="C553" s="224"/>
     </row>
     <row r="554" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C554" s="225"/>
+      <c r="C554" s="224"/>
     </row>
     <row r="555" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C555" s="225"/>
+      <c r="C555" s="224"/>
     </row>
     <row r="556" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C556" s="225"/>
+      <c r="C556" s="224"/>
     </row>
     <row r="557" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C557" s="225"/>
+      <c r="C557" s="224"/>
     </row>
     <row r="558" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C558" s="225"/>
+      <c r="C558" s="224"/>
     </row>
     <row r="559" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C559" s="225"/>
+      <c r="C559" s="224"/>
     </row>
     <row r="560" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C560" s="225"/>
+      <c r="C560" s="224"/>
     </row>
     <row r="561" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C561" s="225"/>
+      <c r="C561" s="224"/>
     </row>
     <row r="562" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C562" s="225"/>
+      <c r="C562" s="224"/>
     </row>
     <row r="563" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C563" s="225"/>
+      <c r="C563" s="224"/>
     </row>
     <row r="564" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C564" s="225"/>
+      <c r="C564" s="224"/>
     </row>
     <row r="565" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C565" s="225"/>
+      <c r="C565" s="224"/>
     </row>
     <row r="566" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C566" s="225"/>
+      <c r="C566" s="224"/>
     </row>
     <row r="567" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C567" s="225"/>
+      <c r="C567" s="224"/>
     </row>
     <row r="568" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C568" s="225"/>
+      <c r="C568" s="224"/>
     </row>
     <row r="569" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C569" s="225"/>
+      <c r="C569" s="224"/>
     </row>
     <row r="570" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C570" s="225"/>
+      <c r="C570" s="224"/>
     </row>
     <row r="571" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C571" s="225"/>
+      <c r="C571" s="224"/>
     </row>
     <row r="572" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C572" s="225"/>
+      <c r="C572" s="224"/>
     </row>
     <row r="573" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C573" s="225"/>
+      <c r="C573" s="224"/>
     </row>
     <row r="574" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C574" s="225"/>
+      <c r="C574" s="224"/>
     </row>
     <row r="575" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C575" s="225"/>
+      <c r="C575" s="224"/>
     </row>
     <row r="576" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C576" s="225"/>
+      <c r="C576" s="224"/>
     </row>
     <row r="577" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C577" s="225"/>
+      <c r="C577" s="224"/>
     </row>
     <row r="578" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C578" s="225"/>
+      <c r="C578" s="224"/>
     </row>
     <row r="579" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C579" s="225"/>
+      <c r="C579" s="224"/>
     </row>
     <row r="580" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C580" s="225"/>
+      <c r="C580" s="224"/>
     </row>
     <row r="581" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C581" s="225"/>
+      <c r="C581" s="224"/>
     </row>
     <row r="582" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C582" s="225"/>
+      <c r="C582" s="224"/>
     </row>
     <row r="583" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C583" s="225"/>
+      <c r="C583" s="224"/>
     </row>
     <row r="584" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C584" s="225"/>
+      <c r="C584" s="224"/>
     </row>
     <row r="585" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C585" s="225"/>
+      <c r="C585" s="224"/>
     </row>
     <row r="586" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C586" s="225"/>
+      <c r="C586" s="224"/>
     </row>
     <row r="587" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C587" s="225"/>
+      <c r="C587" s="224"/>
     </row>
     <row r="588" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C588" s="225"/>
+      <c r="C588" s="224"/>
     </row>
     <row r="589" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C589" s="225"/>
+      <c r="C589" s="224"/>
     </row>
     <row r="590" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C590" s="225"/>
+      <c r="C590" s="224"/>
     </row>
     <row r="591" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C591" s="225"/>
+      <c r="C591" s="224"/>
     </row>
     <row r="592" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C592" s="225"/>
+      <c r="C592" s="224"/>
     </row>
     <row r="593" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C593" s="225"/>
+      <c r="C593" s="224"/>
     </row>
     <row r="594" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C594" s="225"/>
+      <c r="C594" s="224"/>
     </row>
     <row r="595" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C595" s="225"/>
+      <c r="C595" s="224"/>
     </row>
     <row r="596" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C596" s="225"/>
+      <c r="C596" s="224"/>
     </row>
     <row r="597" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C597" s="225"/>
+      <c r="C597" s="224"/>
     </row>
     <row r="598" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C598" s="225"/>
+      <c r="C598" s="224"/>
     </row>
     <row r="599" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C599" s="225"/>
+      <c r="C599" s="224"/>
     </row>
     <row r="600" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C600" s="225"/>
+      <c r="C600" s="224"/>
     </row>
     <row r="601" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C601" s="225"/>
+      <c r="C601" s="224"/>
     </row>
     <row r="602" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C602" s="225"/>
+      <c r="C602" s="224"/>
     </row>
     <row r="603" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C603" s="225"/>
+      <c r="C603" s="224"/>
     </row>
     <row r="604" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C604" s="225"/>
+      <c r="C604" s="224"/>
     </row>
     <row r="605" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C605" s="225"/>
+      <c r="C605" s="224"/>
     </row>
     <row r="606" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C606" s="225"/>
+      <c r="C606" s="224"/>
     </row>
     <row r="607" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C607" s="225"/>
+      <c r="C607" s="224"/>
     </row>
     <row r="608" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C608" s="225"/>
+      <c r="C608" s="224"/>
     </row>
     <row r="609" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C609" s="225"/>
+      <c r="C609" s="224"/>
     </row>
     <row r="610" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C610" s="225"/>
+      <c r="C610" s="224"/>
     </row>
     <row r="611" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C611" s="225"/>
+      <c r="C611" s="224"/>
     </row>
     <row r="612" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C612" s="225"/>
+      <c r="C612" s="224"/>
     </row>
     <row r="613" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C613" s="225"/>
+      <c r="C613" s="224"/>
     </row>
     <row r="614" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C614" s="225"/>
+      <c r="C614" s="224"/>
     </row>
     <row r="615" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C615" s="225"/>
+      <c r="C615" s="224"/>
     </row>
     <row r="616" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C616" s="225"/>
+      <c r="C616" s="224"/>
     </row>
     <row r="617" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C617" s="225"/>
+      <c r="C617" s="224"/>
     </row>
     <row r="618" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C618" s="225"/>
+      <c r="C618" s="224"/>
     </row>
     <row r="619" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C619" s="225"/>
+      <c r="C619" s="224"/>
     </row>
     <row r="620" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C620" s="225"/>
+      <c r="C620" s="224"/>
     </row>
     <row r="621" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C621" s="225"/>
+      <c r="C621" s="224"/>
     </row>
     <row r="622" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C622" s="225"/>
+      <c r="C622" s="224"/>
     </row>
     <row r="623" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C623" s="225"/>
+      <c r="C623" s="224"/>
     </row>
     <row r="624" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C624" s="225"/>
+      <c r="C624" s="224"/>
     </row>
     <row r="625" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C625" s="225"/>
+      <c r="C625" s="224"/>
     </row>
     <row r="626" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C626" s="225"/>
+      <c r="C626" s="224"/>
     </row>
     <row r="627" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C627" s="225"/>
+      <c r="C627" s="224"/>
     </row>
     <row r="628" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C628" s="225"/>
+      <c r="C628" s="224"/>
     </row>
     <row r="629" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C629" s="225"/>
+      <c r="C629" s="224"/>
     </row>
     <row r="630" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C630" s="225"/>
+      <c r="C630" s="224"/>
     </row>
     <row r="631" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C631" s="225"/>
+      <c r="C631" s="224"/>
     </row>
     <row r="632" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C632" s="225"/>
+      <c r="C632" s="224"/>
     </row>
     <row r="633" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C633" s="225"/>
+      <c r="C633" s="224"/>
     </row>
     <row r="634" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C634" s="225"/>
+      <c r="C634" s="224"/>
     </row>
     <row r="635" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C635" s="225"/>
+      <c r="C635" s="224"/>
     </row>
     <row r="636" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C636" s="225"/>
+      <c r="C636" s="224"/>
     </row>
     <row r="637" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C637" s="225"/>
+      <c r="C637" s="224"/>
     </row>
     <row r="638" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C638" s="225"/>
+      <c r="C638" s="224"/>
     </row>
     <row r="639" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C639" s="225"/>
+      <c r="C639" s="224"/>
     </row>
     <row r="640" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C640" s="225"/>
+      <c r="C640" s="224"/>
     </row>
     <row r="641" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C641" s="225"/>
+      <c r="C641" s="224"/>
     </row>
     <row r="642" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C642" s="225"/>
+      <c r="C642" s="224"/>
     </row>
     <row r="643" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C643" s="225"/>
+      <c r="C643" s="224"/>
     </row>
     <row r="644" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C644" s="225"/>
+      <c r="C644" s="224"/>
     </row>
     <row r="645" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C645" s="225"/>
+      <c r="C645" s="224"/>
     </row>
     <row r="646" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C646" s="225"/>
+      <c r="C646" s="224"/>
     </row>
     <row r="647" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C647" s="225"/>
+      <c r="C647" s="224"/>
     </row>
     <row r="648" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C648" s="225"/>
+      <c r="C648" s="224"/>
     </row>
     <row r="649" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C649" s="225"/>
+      <c r="C649" s="224"/>
     </row>
     <row r="650" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C650" s="225"/>
+      <c r="C650" s="224"/>
     </row>
     <row r="651" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C651" s="225"/>
+      <c r="C651" s="224"/>
     </row>
     <row r="652" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C652" s="225"/>
+      <c r="C652" s="224"/>
     </row>
     <row r="653" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C653" s="225"/>
+      <c r="C653" s="224"/>
     </row>
     <row r="654" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C654" s="225"/>
+      <c r="C654" s="224"/>
     </row>
     <row r="655" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C655" s="225"/>
+      <c r="C655" s="224"/>
     </row>
     <row r="656" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C656" s="225"/>
+      <c r="C656" s="224"/>
     </row>
     <row r="657" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C657" s="225"/>
+      <c r="C657" s="224"/>
     </row>
     <row r="658" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C658" s="225"/>
+      <c r="C658" s="224"/>
     </row>
     <row r="659" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C659" s="225"/>
+      <c r="C659" s="224"/>
     </row>
     <row r="660" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C660" s="225"/>
+      <c r="C660" s="224"/>
     </row>
     <row r="661" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C661" s="225"/>
+      <c r="C661" s="224"/>
     </row>
     <row r="662" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C662" s="225"/>
+      <c r="C662" s="224"/>
     </row>
     <row r="663" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C663" s="225"/>
+      <c r="C663" s="224"/>
     </row>
     <row r="664" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C664" s="225"/>
+      <c r="C664" s="224"/>
     </row>
     <row r="665" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C665" s="225"/>
+      <c r="C665" s="224"/>
     </row>
     <row r="666" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C666" s="225"/>
+      <c r="C666" s="224"/>
     </row>
     <row r="667" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C667" s="225"/>
+      <c r="C667" s="224"/>
     </row>
     <row r="668" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C668" s="225"/>
+      <c r="C668" s="224"/>
     </row>
     <row r="669" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C669" s="225"/>
+      <c r="C669" s="224"/>
     </row>
     <row r="670" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C670" s="225"/>
+      <c r="C670" s="224"/>
     </row>
     <row r="671" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C671" s="225"/>
+      <c r="C671" s="224"/>
     </row>
     <row r="672" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C672" s="225"/>
+      <c r="C672" s="224"/>
     </row>
     <row r="673" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C673" s="225"/>
+      <c r="C673" s="224"/>
     </row>
     <row r="674" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C674" s="225"/>
+      <c r="C674" s="224"/>
     </row>
     <row r="675" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C675" s="225"/>
+      <c r="C675" s="224"/>
     </row>
     <row r="676" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C676" s="225"/>
+      <c r="C676" s="224"/>
     </row>
     <row r="677" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C677" s="225"/>
+      <c r="C677" s="224"/>
     </row>
     <row r="678" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C678" s="225"/>
+      <c r="C678" s="224"/>
     </row>
     <row r="679" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C679" s="225"/>
+      <c r="C679" s="224"/>
     </row>
     <row r="680" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C680" s="225"/>
+      <c r="C680" s="224"/>
     </row>
     <row r="681" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C681" s="225"/>
+      <c r="C681" s="224"/>
     </row>
     <row r="682" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C682" s="225"/>
+      <c r="C682" s="224"/>
     </row>
     <row r="683" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C683" s="225"/>
+      <c r="C683" s="224"/>
     </row>
     <row r="684" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C684" s="225"/>
+      <c r="C684" s="224"/>
     </row>
     <row r="685" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C685" s="225"/>
+      <c r="C685" s="224"/>
     </row>
     <row r="686" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C686" s="225"/>
+      <c r="C686" s="224"/>
     </row>
     <row r="687" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C687" s="225"/>
+      <c r="C687" s="224"/>
     </row>
     <row r="688" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C688" s="225"/>
+      <c r="C688" s="224"/>
     </row>
     <row r="689" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C689" s="225"/>
+      <c r="C689" s="224"/>
     </row>
     <row r="690" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C690" s="225"/>
+      <c r="C690" s="224"/>
     </row>
     <row r="691" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C691" s="225"/>
+      <c r="C691" s="224"/>
     </row>
     <row r="692" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C692" s="225"/>
+      <c r="C692" s="224"/>
     </row>
     <row r="693" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C693" s="225"/>
+      <c r="C693" s="224"/>
     </row>
     <row r="694" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C694" s="225"/>
+      <c r="C694" s="224"/>
     </row>
     <row r="695" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C695" s="225"/>
+      <c r="C695" s="224"/>
     </row>
     <row r="696" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C696" s="225"/>
+      <c r="C696" s="224"/>
     </row>
     <row r="697" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C697" s="225"/>
+      <c r="C697" s="224"/>
     </row>
     <row r="698" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C698" s="225"/>
+      <c r="C698" s="224"/>
     </row>
     <row r="699" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C699" s="225"/>
+      <c r="C699" s="224"/>
     </row>
     <row r="700" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C700" s="225"/>
+      <c r="C700" s="224"/>
     </row>
     <row r="701" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C701" s="225"/>
+      <c r="C701" s="224"/>
     </row>
     <row r="702" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C702" s="225"/>
+      <c r="C702" s="224"/>
     </row>
     <row r="703" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C703" s="225"/>
+      <c r="C703" s="224"/>
     </row>
     <row r="704" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C704" s="225"/>
+      <c r="C704" s="224"/>
     </row>
     <row r="705" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C705" s="225"/>
+      <c r="C705" s="224"/>
     </row>
     <row r="706" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C706" s="225"/>
+      <c r="C706" s="224"/>
     </row>
     <row r="707" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C707" s="225"/>
+      <c r="C707" s="224"/>
     </row>
     <row r="708" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C708" s="225"/>
+      <c r="C708" s="224"/>
     </row>
     <row r="709" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C709" s="225"/>
+      <c r="C709" s="224"/>
     </row>
     <row r="710" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C710" s="225"/>
+      <c r="C710" s="224"/>
     </row>
     <row r="711" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C711" s="225"/>
+      <c r="C711" s="224"/>
     </row>
     <row r="712" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C712" s="225"/>
+      <c r="C712" s="224"/>
     </row>
     <row r="713" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C713" s="225"/>
+      <c r="C713" s="224"/>
     </row>
     <row r="714" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C714" s="225"/>
+      <c r="C714" s="224"/>
     </row>
     <row r="715" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C715" s="225"/>
+      <c r="C715" s="224"/>
     </row>
     <row r="716" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C716" s="225"/>
+      <c r="C716" s="224"/>
     </row>
     <row r="717" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C717" s="225"/>
+      <c r="C717" s="224"/>
     </row>
     <row r="718" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C718" s="225"/>
+      <c r="C718" s="224"/>
     </row>
     <row r="719" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C719" s="225"/>
+      <c r="C719" s="224"/>
     </row>
     <row r="720" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C720" s="225"/>
+      <c r="C720" s="224"/>
     </row>
     <row r="721" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C721" s="225"/>
+      <c r="C721" s="224"/>
     </row>
     <row r="722" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C722" s="225"/>
+      <c r="C722" s="224"/>
     </row>
     <row r="723" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C723" s="225"/>
+      <c r="C723" s="224"/>
     </row>
     <row r="724" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C724" s="225"/>
+      <c r="C724" s="224"/>
     </row>
     <row r="725" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C725" s="225"/>
+      <c r="C725" s="224"/>
     </row>
     <row r="726" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C726" s="225"/>
+      <c r="C726" s="224"/>
     </row>
     <row r="727" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C727" s="225"/>
+      <c r="C727" s="224"/>
     </row>
     <row r="728" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C728" s="225"/>
+      <c r="C728" s="224"/>
     </row>
     <row r="729" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C729" s="225"/>
+      <c r="C729" s="224"/>
     </row>
     <row r="730" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C730" s="225"/>
+      <c r="C730" s="224"/>
     </row>
     <row r="731" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C731" s="225"/>
+      <c r="C731" s="224"/>
     </row>
     <row r="732" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C732" s="225"/>
+      <c r="C732" s="224"/>
     </row>
     <row r="733" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C733" s="225"/>
+      <c r="C733" s="224"/>
     </row>
     <row r="734" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C734" s="225"/>
+      <c r="C734" s="224"/>
     </row>
     <row r="735" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C735" s="225"/>
+      <c r="C735" s="224"/>
     </row>
     <row r="736" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C736" s="225"/>
+      <c r="C736" s="224"/>
     </row>
     <row r="737" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C737" s="225"/>
+      <c r="C737" s="224"/>
     </row>
     <row r="738" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C738" s="225"/>
+      <c r="C738" s="224"/>
     </row>
     <row r="739" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C739" s="225"/>
+      <c r="C739" s="224"/>
     </row>
     <row r="740" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C740" s="225"/>
+      <c r="C740" s="224"/>
     </row>
     <row r="741" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C741" s="225"/>
+      <c r="C741" s="224"/>
     </row>
     <row r="742" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C742" s="225"/>
+      <c r="C742" s="224"/>
     </row>
     <row r="743" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C743" s="225"/>
+      <c r="C743" s="224"/>
     </row>
     <row r="744" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C744" s="225"/>
+      <c r="C744" s="224"/>
     </row>
     <row r="745" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C745" s="225"/>
+      <c r="C745" s="224"/>
     </row>
     <row r="746" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C746" s="225"/>
+      <c r="C746" s="224"/>
     </row>
     <row r="747" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C747" s="225"/>
+      <c r="C747" s="224"/>
     </row>
     <row r="748" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C748" s="225"/>
+      <c r="C748" s="224"/>
     </row>
     <row r="749" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C749" s="225"/>
+      <c r="C749" s="224"/>
     </row>
     <row r="750" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C750" s="225"/>
+      <c r="C750" s="224"/>
     </row>
     <row r="751" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C751" s="225"/>
+      <c r="C751" s="224"/>
     </row>
     <row r="752" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C752" s="225"/>
+      <c r="C752" s="224"/>
     </row>
     <row r="753" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C753" s="225"/>
+      <c r="C753" s="224"/>
     </row>
     <row r="754" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C754" s="225"/>
+      <c r="C754" s="224"/>
     </row>
     <row r="755" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C755" s="225"/>
+      <c r="C755" s="224"/>
     </row>
     <row r="756" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C756" s="225"/>
+      <c r="C756" s="224"/>
     </row>
     <row r="757" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C757" s="225"/>
+      <c r="C757" s="224"/>
     </row>
     <row r="758" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C758" s="225"/>
+      <c r="C758" s="224"/>
     </row>
     <row r="759" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C759" s="225"/>
+      <c r="C759" s="224"/>
     </row>
     <row r="760" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C760" s="225"/>
+      <c r="C760" s="224"/>
     </row>
     <row r="761" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C761" s="225"/>
+      <c r="C761" s="224"/>
     </row>
     <row r="762" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C762" s="225"/>
+      <c r="C762" s="224"/>
     </row>
     <row r="763" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C763" s="225"/>
+      <c r="C763" s="224"/>
     </row>
     <row r="764" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C764" s="225"/>
+      <c r="C764" s="224"/>
     </row>
     <row r="765" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C765" s="225"/>
+      <c r="C765" s="224"/>
     </row>
     <row r="766" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C766" s="225"/>
+      <c r="C766" s="224"/>
     </row>
     <row r="767" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C767" s="225"/>
+      <c r="C767" s="224"/>
     </row>
     <row r="768" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C768" s="225"/>
+      <c r="C768" s="224"/>
     </row>
     <row r="769" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C769" s="225"/>
+      <c r="C769" s="224"/>
     </row>
     <row r="770" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C770" s="225"/>
+      <c r="C770" s="224"/>
     </row>
     <row r="771" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C771" s="225"/>
+      <c r="C771" s="224"/>
     </row>
     <row r="772" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C772" s="225"/>
+      <c r="C772" s="224"/>
     </row>
     <row r="773" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C773" s="225"/>
+      <c r="C773" s="224"/>
     </row>
     <row r="774" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C774" s="225"/>
+      <c r="C774" s="224"/>
     </row>
     <row r="775" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C775" s="225"/>
+      <c r="C775" s="224"/>
     </row>
     <row r="776" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C776" s="225"/>
+      <c r="C776" s="224"/>
     </row>
     <row r="777" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C777" s="225"/>
+      <c r="C777" s="224"/>
     </row>
     <row r="778" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C778" s="225"/>
+      <c r="C778" s="224"/>
     </row>
     <row r="779" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C779" s="225"/>
+      <c r="C779" s="224"/>
     </row>
     <row r="780" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C780" s="225"/>
+      <c r="C780" s="224"/>
     </row>
     <row r="781" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C781" s="225"/>
+      <c r="C781" s="224"/>
     </row>
     <row r="782" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C782" s="225"/>
+      <c r="C782" s="224"/>
     </row>
     <row r="783" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C783" s="225"/>
+      <c r="C783" s="224"/>
     </row>
     <row r="784" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C784" s="225"/>
+      <c r="C784" s="224"/>
     </row>
     <row r="785" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C785" s="225"/>
+      <c r="C785" s="224"/>
     </row>
     <row r="786" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C786" s="225"/>
+      <c r="C786" s="224"/>
     </row>
     <row r="787" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C787" s="225"/>
+      <c r="C787" s="224"/>
     </row>
     <row r="788" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C788" s="225"/>
+      <c r="C788" s="224"/>
     </row>
     <row r="789" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C789" s="225"/>
+      <c r="C789" s="224"/>
     </row>
     <row r="790" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C790" s="225"/>
+      <c r="C790" s="224"/>
     </row>
     <row r="791" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C791" s="225"/>
+      <c r="C791" s="224"/>
     </row>
     <row r="792" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C792" s="225"/>
+      <c r="C792" s="224"/>
     </row>
     <row r="793" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C793" s="225"/>
+      <c r="C793" s="224"/>
     </row>
     <row r="794" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C794" s="225"/>
+      <c r="C794" s="224"/>
     </row>
     <row r="795" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C795" s="225"/>
+      <c r="C795" s="224"/>
     </row>
     <row r="796" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C796" s="225"/>
+      <c r="C796" s="224"/>
     </row>
     <row r="797" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C797" s="225"/>
+      <c r="C797" s="224"/>
     </row>
     <row r="798" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C798" s="225"/>
+      <c r="C798" s="224"/>
     </row>
     <row r="799" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C799" s="225"/>
+      <c r="C799" s="224"/>
     </row>
     <row r="800" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C800" s="225"/>
+      <c r="C800" s="224"/>
     </row>
     <row r="801" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C801" s="225"/>
+      <c r="C801" s="224"/>
     </row>
     <row r="802" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C802" s="225"/>
+      <c r="C802" s="224"/>
     </row>
     <row r="803" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C803" s="225"/>
+      <c r="C803" s="224"/>
     </row>
     <row r="804" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C804" s="225"/>
+      <c r="C804" s="224"/>
     </row>
     <row r="805" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C805" s="225"/>
+      <c r="C805" s="224"/>
     </row>
     <row r="806" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C806" s="225"/>
+      <c r="C806" s="224"/>
     </row>
     <row r="807" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C807" s="225"/>
+      <c r="C807" s="224"/>
     </row>
     <row r="808" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C808" s="225"/>
+      <c r="C808" s="224"/>
     </row>
     <row r="809" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C809" s="225"/>
+      <c r="C809" s="224"/>
     </row>
     <row r="810" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C810" s="225"/>
+      <c r="C810" s="224"/>
     </row>
     <row r="811" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C811" s="225"/>
+      <c r="C811" s="224"/>
     </row>
     <row r="812" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C812" s="225"/>
+      <c r="C812" s="224"/>
     </row>
     <row r="813" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C813" s="225"/>
+      <c r="C813" s="224"/>
     </row>
     <row r="814" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C814" s="225"/>
+      <c r="C814" s="224"/>
     </row>
     <row r="815" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C815" s="225"/>
+      <c r="C815" s="224"/>
     </row>
     <row r="816" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C816" s="225"/>
+      <c r="C816" s="224"/>
     </row>
     <row r="817" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C817" s="225"/>
+      <c r="C817" s="224"/>
     </row>
     <row r="818" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C818" s="225"/>
+      <c r="C818" s="224"/>
     </row>
     <row r="819" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C819" s="225"/>
+      <c r="C819" s="224"/>
     </row>
     <row r="820" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C820" s="225"/>
+      <c r="C820" s="224"/>
     </row>
     <row r="821" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C821" s="225"/>
+      <c r="C821" s="224"/>
     </row>
     <row r="822" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C822" s="225"/>
+      <c r="C822" s="224"/>
     </row>
     <row r="823" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C823" s="225"/>
+      <c r="C823" s="224"/>
     </row>
     <row r="824" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C824" s="225"/>
+      <c r="C824" s="224"/>
     </row>
     <row r="825" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C825" s="225"/>
+      <c r="C825" s="224"/>
     </row>
     <row r="826" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C826" s="225"/>
+      <c r="C826" s="224"/>
     </row>
     <row r="827" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C827" s="225"/>
+      <c r="C827" s="224"/>
     </row>
     <row r="828" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C828" s="225"/>
+      <c r="C828" s="224"/>
     </row>
     <row r="829" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C829" s="225"/>
+      <c r="C829" s="224"/>
     </row>
     <row r="830" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C830" s="225"/>
+      <c r="C830" s="224"/>
     </row>
     <row r="831" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C831" s="225"/>
+      <c r="C831" s="224"/>
     </row>
     <row r="832" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C832" s="225"/>
+      <c r="C832" s="224"/>
     </row>
     <row r="833" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C833" s="225"/>
+      <c r="C833" s="224"/>
     </row>
     <row r="834" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C834" s="225"/>
+      <c r="C834" s="224"/>
     </row>
     <row r="835" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C835" s="225"/>
+      <c r="C835" s="224"/>
     </row>
     <row r="836" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C836" s="225"/>
+      <c r="C836" s="224"/>
     </row>
     <row r="837" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C837" s="225"/>
+      <c r="C837" s="224"/>
     </row>
     <row r="838" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C838" s="225"/>
+      <c r="C838" s="224"/>
     </row>
     <row r="839" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C839" s="225"/>
+      <c r="C839" s="224"/>
     </row>
     <row r="840" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C840" s="225"/>
+      <c r="C840" s="224"/>
     </row>
     <row r="841" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C841" s="225"/>
+      <c r="C841" s="224"/>
     </row>
     <row r="842" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C842" s="225"/>
+      <c r="C842" s="224"/>
     </row>
     <row r="843" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C843" s="225"/>
+      <c r="C843" s="224"/>
     </row>
     <row r="844" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C844" s="225"/>
+      <c r="C844" s="224"/>
     </row>
     <row r="845" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C845" s="225"/>
+      <c r="C845" s="224"/>
     </row>
     <row r="846" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C846" s="225"/>
+      <c r="C846" s="224"/>
     </row>
     <row r="847" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C847" s="225"/>
+      <c r="C847" s="224"/>
     </row>
     <row r="848" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C848" s="225"/>
+      <c r="C848" s="224"/>
     </row>
     <row r="849" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C849" s="225"/>
+      <c r="C849" s="224"/>
     </row>
     <row r="850" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C850" s="225"/>
+      <c r="C850" s="224"/>
     </row>
     <row r="851" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C851" s="225"/>
+      <c r="C851" s="224"/>
     </row>
     <row r="852" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C852" s="225"/>
+      <c r="C852" s="224"/>
     </row>
     <row r="853" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C853" s="225"/>
+      <c r="C853" s="224"/>
     </row>
     <row r="854" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C854" s="225"/>
+      <c r="C854" s="224"/>
     </row>
     <row r="855" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C855" s="225"/>
+      <c r="C855" s="224"/>
     </row>
     <row r="856" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C856" s="225"/>
+      <c r="C856" s="224"/>
     </row>
     <row r="857" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C857" s="225"/>
+      <c r="C857" s="224"/>
     </row>
     <row r="858" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C858" s="225"/>
+      <c r="C858" s="224"/>
     </row>
     <row r="859" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C859" s="225"/>
+      <c r="C859" s="224"/>
     </row>
     <row r="860" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C860" s="225"/>
+      <c r="C860" s="224"/>
     </row>
     <row r="861" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C861" s="225"/>
+      <c r="C861" s="224"/>
     </row>
     <row r="862" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C862" s="225"/>
+      <c r="C862" s="224"/>
     </row>
     <row r="863" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C863" s="225"/>
+      <c r="C863" s="224"/>
     </row>
     <row r="864" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C864" s="225"/>
+      <c r="C864" s="224"/>
     </row>
     <row r="865" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C865" s="225"/>
+      <c r="C865" s="224"/>
     </row>
     <row r="866" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C866" s="225"/>
+      <c r="C866" s="224"/>
     </row>
     <row r="867" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C867" s="225"/>
+      <c r="C867" s="224"/>
     </row>
     <row r="868" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C868" s="225"/>
+      <c r="C868" s="224"/>
     </row>
     <row r="869" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C869" s="225"/>
+      <c r="C869" s="224"/>
     </row>
     <row r="870" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C870" s="225"/>
+      <c r="C870" s="224"/>
     </row>
     <row r="871" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C871" s="225"/>
+      <c r="C871" s="224"/>
     </row>
     <row r="872" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C872" s="225"/>
+      <c r="C872" s="224"/>
     </row>
     <row r="873" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C873" s="225"/>
+      <c r="C873" s="224"/>
     </row>
     <row r="874" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C874" s="225"/>
+      <c r="C874" s="224"/>
     </row>
     <row r="875" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C875" s="225"/>
+      <c r="C875" s="224"/>
     </row>
     <row r="876" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C876" s="225"/>
+      <c r="C876" s="224"/>
     </row>
     <row r="877" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C877" s="225"/>
+      <c r="C877" s="224"/>
     </row>
     <row r="878" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C878" s="225"/>
+      <c r="C878" s="224"/>
     </row>
     <row r="879" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C879" s="225"/>
+      <c r="C879" s="224"/>
     </row>
     <row r="880" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C880" s="225"/>
+      <c r="C880" s="224"/>
     </row>
     <row r="881" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C881" s="225"/>
+      <c r="C881" s="224"/>
     </row>
     <row r="882" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C882" s="225"/>
+      <c r="C882" s="224"/>
     </row>
     <row r="883" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C883" s="225"/>
+      <c r="C883" s="224"/>
     </row>
     <row r="884" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C884" s="225"/>
+      <c r="C884" s="224"/>
     </row>
     <row r="885" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C885" s="225"/>
+      <c r="C885" s="224"/>
     </row>
     <row r="886" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C886" s="225"/>
+      <c r="C886" s="224"/>
     </row>
     <row r="887" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C887" s="225"/>
+      <c r="C887" s="224"/>
     </row>
     <row r="888" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C888" s="225"/>
+      <c r="C888" s="224"/>
     </row>
     <row r="889" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C889" s="225"/>
+      <c r="C889" s="224"/>
     </row>
     <row r="890" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C890" s="225"/>
+      <c r="C890" s="224"/>
     </row>
     <row r="891" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C891" s="225"/>
+      <c r="C891" s="224"/>
     </row>
     <row r="892" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C892" s="225"/>
+      <c r="C892" s="224"/>
     </row>
     <row r="893" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C893" s="225"/>
+      <c r="C893" s="224"/>
     </row>
     <row r="894" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C894" s="225"/>
+      <c r="C894" s="224"/>
     </row>
     <row r="895" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C895" s="225"/>
+      <c r="C895" s="224"/>
     </row>
     <row r="896" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C896" s="225"/>
+      <c r="C896" s="224"/>
     </row>
     <row r="897" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C897" s="225"/>
+      <c r="C897" s="224"/>
     </row>
     <row r="898" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C898" s="225"/>
+      <c r="C898" s="224"/>
     </row>
     <row r="899" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C899" s="225"/>
+      <c r="C899" s="224"/>
     </row>
     <row r="900" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C900" s="225"/>
+      <c r="C900" s="224"/>
     </row>
     <row r="901" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C901" s="225"/>
+      <c r="C901" s="224"/>
     </row>
     <row r="902" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C902" s="225"/>
+      <c r="C902" s="224"/>
     </row>
     <row r="903" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C903" s="225"/>
+      <c r="C903" s="224"/>
     </row>
     <row r="904" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C904" s="225"/>
+      <c r="C904" s="224"/>
     </row>
     <row r="905" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C905" s="225"/>
+      <c r="C905" s="224"/>
     </row>
     <row r="906" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C906" s="225"/>
+      <c r="C906" s="224"/>
     </row>
     <row r="907" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C907" s="225"/>
+      <c r="C907" s="224"/>
     </row>
     <row r="908" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C908" s="225"/>
+      <c r="C908" s="224"/>
     </row>
     <row r="909" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C909" s="225"/>
+      <c r="C909" s="224"/>
     </row>
     <row r="910" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C910" s="225"/>
+      <c r="C910" s="224"/>
     </row>
     <row r="911" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C911" s="225"/>
+      <c r="C911" s="224"/>
     </row>
     <row r="912" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C912" s="225"/>
+      <c r="C912" s="224"/>
     </row>
     <row r="913" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C913" s="225"/>
+      <c r="C913" s="224"/>
     </row>
     <row r="914" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C914" s="225"/>
+      <c r="C914" s="224"/>
     </row>
     <row r="915" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C915" s="225"/>
+      <c r="C915" s="224"/>
     </row>
     <row r="916" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C916" s="225"/>
+      <c r="C916" s="224"/>
     </row>
     <row r="917" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C917" s="225"/>
+      <c r="C917" s="224"/>
     </row>
     <row r="918" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C918" s="225"/>
+      <c r="C918" s="224"/>
     </row>
     <row r="919" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C919" s="225"/>
+      <c r="C919" s="224"/>
     </row>
     <row r="920" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C920" s="225"/>
+      <c r="C920" s="224"/>
     </row>
     <row r="921" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C921" s="225"/>
+      <c r="C921" s="224"/>
     </row>
     <row r="922" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C922" s="225"/>
+      <c r="C922" s="224"/>
     </row>
     <row r="923" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C923" s="225"/>
+      <c r="C923" s="224"/>
     </row>
     <row r="924" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C924" s="225"/>
+      <c r="C924" s="224"/>
     </row>
     <row r="925" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C925" s="225"/>
+      <c r="C925" s="224"/>
     </row>
     <row r="926" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C926" s="225"/>
+      <c r="C926" s="224"/>
     </row>
     <row r="927" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C927" s="225"/>
+      <c r="C927" s="224"/>
     </row>
     <row r="928" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C928" s="225"/>
+      <c r="C928" s="224"/>
     </row>
     <row r="929" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C929" s="225"/>
+      <c r="C929" s="224"/>
     </row>
     <row r="930" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C930" s="225"/>
+      <c r="C930" s="224"/>
     </row>
     <row r="931" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C931" s="225"/>
+      <c r="C931" s="224"/>
     </row>
     <row r="932" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C932" s="225"/>
+      <c r="C932" s="224"/>
     </row>
     <row r="933" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C933" s="225"/>
+      <c r="C933" s="224"/>
     </row>
     <row r="934" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C934" s="225"/>
+      <c r="C934" s="224"/>
     </row>
     <row r="935" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C935" s="225"/>
+      <c r="C935" s="224"/>
     </row>
     <row r="936" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C936" s="225"/>
+      <c r="C936" s="224"/>
     </row>
     <row r="937" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C937" s="225"/>
+      <c r="C937" s="224"/>
     </row>
     <row r="938" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C938" s="225"/>
+      <c r="C938" s="224"/>
     </row>
     <row r="939" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C939" s="225"/>
+      <c r="C939" s="224"/>
     </row>
     <row r="940" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C940" s="225"/>
+      <c r="C940" s="224"/>
     </row>
     <row r="941" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C941" s="225"/>
+      <c r="C941" s="224"/>
     </row>
     <row r="942" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C942" s="225"/>
+      <c r="C942" s="224"/>
     </row>
     <row r="943" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C943" s="225"/>
+      <c r="C943" s="224"/>
     </row>
     <row r="944" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C944" s="225"/>
+      <c r="C944" s="224"/>
     </row>
     <row r="945" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C945" s="225"/>
+      <c r="C945" s="224"/>
     </row>
     <row r="946" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C946" s="225"/>
+      <c r="C946" s="224"/>
     </row>
     <row r="947" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C947" s="225"/>
+      <c r="C947" s="224"/>
     </row>
     <row r="948" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C948" s="225"/>
+      <c r="C948" s="224"/>
     </row>
     <row r="949" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C949" s="225"/>
+      <c r="C949" s="224"/>
     </row>
     <row r="950" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C950" s="225"/>
+      <c r="C950" s="224"/>
     </row>
     <row r="951" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C951" s="225"/>
+      <c r="C951" s="224"/>
     </row>
     <row r="952" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C952" s="225"/>
+      <c r="C952" s="224"/>
     </row>
     <row r="953" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C953" s="225"/>
+      <c r="C953" s="224"/>
     </row>
     <row r="954" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C954" s="225"/>
+      <c r="C954" s="224"/>
     </row>
     <row r="955" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C955" s="225"/>
+      <c r="C955" s="224"/>
     </row>
     <row r="956" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C956" s="225"/>
+      <c r="C956" s="224"/>
     </row>
     <row r="957" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C957" s="225"/>
+      <c r="C957" s="224"/>
     </row>
     <row r="958" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C958" s="225"/>
+      <c r="C958" s="224"/>
     </row>
     <row r="959" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C959" s="225"/>
+      <c r="C959" s="224"/>
     </row>
     <row r="960" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C960" s="225"/>
+      <c r="C960" s="224"/>
     </row>
     <row r="961" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C961" s="225"/>
+      <c r="C961" s="224"/>
     </row>
     <row r="962" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C962" s="225"/>
+      <c r="C962" s="224"/>
     </row>
     <row r="963" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C963" s="225"/>
+      <c r="C963" s="224"/>
     </row>
     <row r="964" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C964" s="225"/>
+      <c r="C964" s="224"/>
     </row>
     <row r="965" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C965" s="225"/>
+      <c r="C965" s="224"/>
     </row>
     <row r="966" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C966" s="225"/>
+      <c r="C966" s="224"/>
     </row>
     <row r="967" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C967" s="225"/>
+      <c r="C967" s="224"/>
     </row>
     <row r="968" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C968" s="225"/>
+      <c r="C968" s="224"/>
     </row>
     <row r="969" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C969" s="225"/>
+      <c r="C969" s="224"/>
     </row>
     <row r="970" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C970" s="225"/>
+      <c r="C970" s="224"/>
     </row>
     <row r="971" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C971" s="225"/>
+      <c r="C971" s="224"/>
     </row>
     <row r="972" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C972" s="225"/>
+      <c r="C972" s="224"/>
     </row>
     <row r="973" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C973" s="225"/>
+      <c r="C973" s="224"/>
     </row>
     <row r="974" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C974" s="225"/>
+      <c r="C974" s="224"/>
     </row>
     <row r="975" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C975" s="225"/>
+      <c r="C975" s="224"/>
     </row>
     <row r="976" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C976" s="225"/>
+      <c r="C976" s="224"/>
     </row>
     <row r="977" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C977" s="225"/>
+      <c r="C977" s="224"/>
     </row>
     <row r="978" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C978" s="225"/>
+      <c r="C978" s="224"/>
     </row>
     <row r="979" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C979" s="225"/>
+      <c r="C979" s="224"/>
     </row>
     <row r="980" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C980" s="225"/>
+      <c r="C980" s="224"/>
     </row>
     <row r="981" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C981" s="225"/>
+      <c r="C981" s="224"/>
     </row>
     <row r="982" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C982" s="225"/>
+      <c r="C982" s="224"/>
     </row>
     <row r="983" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C983" s="225"/>
+      <c r="C983" s="224"/>
     </row>
     <row r="984" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C984" s="225"/>
+      <c r="C984" s="224"/>
     </row>
     <row r="985" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C985" s="225"/>
+      <c r="C985" s="224"/>
     </row>
     <row r="986" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C986" s="225"/>
+      <c r="C986" s="224"/>
     </row>
     <row r="987" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C987" s="225"/>
+      <c r="C987" s="224"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C31:AE31"/>
+    <mergeCell ref="C32:AE32"/>
+    <mergeCell ref="C34:AE34"/>
+    <mergeCell ref="C35:AE35"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="D13:D20"/>
     <mergeCell ref="D21:D27"/>
@@ -9042,20 +9068,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="D3:D12"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="C31:AE31"/>
-    <mergeCell ref="C32:AE32"/>
-    <mergeCell ref="C34:AE34"/>
-    <mergeCell ref="C35:AE35"/>
-    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -9075,7 +9087,7 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
@@ -9140,112 +9152,112 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="288" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="267"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="267"/>
-      <c r="K2" s="267"/>
-      <c r="L2" s="267"/>
-      <c r="M2" s="267"/>
-      <c r="N2" s="267"/>
-      <c r="O2" s="267"/>
-      <c r="P2" s="267"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="276" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
+      <c r="P2" s="289"/>
+      <c r="Q2" s="290"/>
+      <c r="R2" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="285" t="s">
+      <c r="S2" s="260"/>
+      <c r="T2" s="260"/>
+      <c r="U2" s="260"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="261"/>
+      <c r="X2" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="277"/>
-      <c r="Z2" s="278"/>
+      <c r="Y2" s="260"/>
+      <c r="Z2" s="261"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="289" t="s">
+      <c r="C3" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="269" t="s">
+      <c r="D3" s="273"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="275" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="270"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
-      <c r="O3" s="270"/>
-      <c r="P3" s="270"/>
-      <c r="Q3" s="271"/>
-      <c r="R3" s="279"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="280"/>
-      <c r="U3" s="280"/>
-      <c r="V3" s="280"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="279"/>
-      <c r="Y3" s="280"/>
-      <c r="Z3" s="281"/>
+      <c r="G3" s="291"/>
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="291"/>
+      <c r="N3" s="291"/>
+      <c r="O3" s="291"/>
+      <c r="P3" s="291"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="263"/>
+      <c r="T3" s="263"/>
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="263"/>
+      <c r="Z3" s="264"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="269" t="s">
+      <c r="C4" s="275" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="272"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="274" t="s">
+      <c r="D4" s="276"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="278" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="292"/>
-      <c r="H4" s="274" t="s">
+      <c r="G4" s="279"/>
+      <c r="H4" s="278" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="292"/>
-      <c r="J4" s="269" t="s">
+      <c r="I4" s="279"/>
+      <c r="J4" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="272"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="274" t="s">
+      <c r="K4" s="276"/>
+      <c r="L4" s="277"/>
+      <c r="M4" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="275"/>
-      <c r="O4" s="274" t="s">
+      <c r="N4" s="281"/>
+      <c r="O4" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="293"/>
-      <c r="Q4" s="275"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="283"/>
-      <c r="T4" s="283"/>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="284"/>
-      <c r="X4" s="286"/>
-      <c r="Y4" s="287"/>
-      <c r="Z4" s="288"/>
+      <c r="P4" s="280"/>
+      <c r="Q4" s="281"/>
+      <c r="R4" s="265"/>
+      <c r="S4" s="266"/>
+      <c r="T4" s="266"/>
+      <c r="U4" s="266"/>
+      <c r="V4" s="266"/>
+      <c r="W4" s="267"/>
+      <c r="X4" s="269"/>
+      <c r="Y4" s="270"/>
+      <c r="Z4" s="271"/>
     </row>
     <row r="5" spans="1:26" ht="3.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="260" t="s">
+      <c r="B5" s="282" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7"/>
@@ -9275,7 +9287,7 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="261"/>
+      <c r="B6" s="283"/>
       <c r="C6" s="7"/>
       <c r="D6" s="16" t="s">
         <v>15</v>
@@ -9305,7 +9317,7 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="261"/>
+      <c r="B7" s="283"/>
       <c r="C7" s="7"/>
       <c r="D7" s="16" t="s">
         <v>16</v>
@@ -9335,7 +9347,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="261"/>
+      <c r="B8" s="283"/>
       <c r="C8" s="7"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
@@ -9365,7 +9377,7 @@
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="261"/>
+      <c r="B9" s="283"/>
       <c r="C9" s="7"/>
       <c r="D9" s="16" t="s">
         <v>18</v>
@@ -9397,7 +9409,7 @@
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="261"/>
+      <c r="B10" s="283"/>
       <c r="C10" s="7"/>
       <c r="D10" s="16" t="s">
         <v>19</v>
@@ -9429,7 +9441,7 @@
     </row>
     <row r="11" spans="1:26" ht="5.25" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="262"/>
+      <c r="B11" s="284"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -9457,7 +9469,7 @@
     </row>
     <row r="12" spans="1:26" ht="5.25" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="285" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="18"/>
@@ -9487,7 +9499,7 @@
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="261"/>
+      <c r="B13" s="283"/>
       <c r="C13" s="21"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -9525,7 +9537,7 @@
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="261"/>
+      <c r="B14" s="283"/>
       <c r="C14" s="21"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -9561,7 +9573,7 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="261"/>
+      <c r="B15" s="283"/>
       <c r="C15" s="21"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -9595,7 +9607,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="264"/>
+      <c r="B16" s="286"/>
       <c r="C16" s="48"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
@@ -9627,7 +9639,7 @@
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="261"/>
+      <c r="B17" s="283"/>
       <c r="C17" s="21"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -9661,7 +9673,7 @@
     </row>
     <row r="18" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="262"/>
+      <c r="B18" s="284"/>
       <c r="C18" s="21"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -9689,7 +9701,7 @@
     </row>
     <row r="19" spans="1:26" ht="4.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="265" t="s">
+      <c r="B19" s="287" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="42"/>
@@ -9719,7 +9731,7 @@
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="261"/>
+      <c r="B20" s="283"/>
       <c r="C20" s="20"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -9755,7 +9767,7 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="261"/>
+      <c r="B21" s="283"/>
       <c r="C21" s="20"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -9787,7 +9799,7 @@
     </row>
     <row r="22" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="262"/>
+      <c r="B22" s="284"/>
       <c r="C22" s="49"/>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
@@ -37255,6 +37267,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="R2:W4"/>
     <mergeCell ref="X2:Z4"/>
     <mergeCell ref="C3:E3"/>
@@ -37262,13 +37281,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/Endoscopy education system/EGD_training_progmramming/project_amcgic_bulletin/pages/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/Active_workspace/streamlit_amcgic_bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:3_{40416383-9F76-4C40-A5F8-3492AF9CF68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D788C97-4692-45DE-BFC8-348B17839D2D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A36D10-8528-4CF6-AF78-55CEDB4C5172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38790" yWindow="390" windowWidth="36615" windowHeight="20265" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상부 내시경 교육프로그램 연간 일정" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
   <si>
     <t>Simulation Center</t>
   </si>
@@ -139,23 +139,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>GI training programs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>AI patient Hx. taking</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sim Class</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(https://edu.amc.seoul.kr/)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>(https://gi-training.streamlit.app/)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1796,13 +1780,342 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">PBL </t>
+    </r>
+    <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훈련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발 중)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AI patient Hx taking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훈련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (10 cases)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EGD Lesion Dx. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훈련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESD simulator </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실습</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ESD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출석표)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EUS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출석표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EUS case list </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배포</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dx. EGD 실전 강의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGD Lesion Dx. training</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBL training</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PW; 3180</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">EUS </t>
     </r>
     <r>
@@ -2199,104 +2512,102 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PBL </t>
+      <t xml:space="preserve">AMC GI </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>훈련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발 중)</t>
+      <t>상부 교육 게시판</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>(https://amcgic-bulletin.streamlit.app/)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">AI patient Hx taking </t>
+      <t xml:space="preserve">AMC GI </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">상부 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Simulator training</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(https://amcgic-simulator.streamlit.app/)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AMC GI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
+        <rFont val="맑은 고딕"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>훈련</t>
+      <t>상부</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="major"/>
       </rPr>
-      <t xml:space="preserve"> (10 cases)</t>
+      <t xml:space="preserve"> Education Program</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>(https://amcgic-training.streamlit.app/)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">EGD Lesion Dx. </t>
+      <t xml:space="preserve">AMC GI </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>훈련</t>
+      <t>상부</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매월</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2305,183 +2616,21 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업로드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESD simulator </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실습</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ESD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출석표)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EUS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출석표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EUS case list </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배포</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dx. EGD 실전 강의</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGD Lesion Dx. training</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PBL training</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AMC GI C </t>
+      <t>교육</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="10"/>
         <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시판</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교육에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2490,63 +2639,73 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>대한</t>
+      <t>게시판</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AMC GI </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상부</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Simulator training</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AMC GI </t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>정보</t>
+      <t>상부</t>
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PW; 3180</t>
+      <t xml:space="preserve"> Education Program</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2555,7 +2714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2566,16 +2725,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2590,6 +2752,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2728,19 +2891,46 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -2859,7 +3049,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="130">
+  <borders count="132">
     <border>
       <left/>
       <right/>
@@ -4388,13 +4578,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="57"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4596,9 +4806,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5087,6 +5294,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5196,6 +5406,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="126" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5213,10 +5435,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5417,84 +5635,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE988"/>
+  <dimension ref="A1:AE989"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI33" sqref="AI33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="70"/>
-    <col min="2" max="2" width="18.42578125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="14" style="71" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="70" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="70" customWidth="1"/>
-    <col min="6" max="29" width="3.140625" style="70" customWidth="1"/>
-    <col min="30" max="31" width="3.42578125" style="70" customWidth="1"/>
-    <col min="32" max="16384" width="12.5703125" style="70"/>
+    <col min="1" max="1" width="12.5703125" style="69"/>
+    <col min="2" max="2" width="32.140625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="14" style="70" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="69" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="69" customWidth="1"/>
+    <col min="6" max="29" width="3.140625" style="69" customWidth="1"/>
+    <col min="30" max="31" width="3.42578125" style="69" customWidth="1"/>
+    <col min="32" max="16384" width="12.5703125" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B2" s="72" t="s">
-        <v>52</v>
+      <c r="B2" s="71" t="s">
+        <v>48</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>53</v>
+      <c r="C2" s="71" t="s">
+        <v>49</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="238" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G2" s="239"/>
       <c r="H2" s="238" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" s="239"/>
       <c r="J2" s="238" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K2" s="239"/>
       <c r="L2" s="238" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M2" s="239"/>
       <c r="N2" s="238" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O2" s="239"/>
       <c r="P2" s="238" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="242"/>
       <c r="R2" s="238" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S2" s="239"/>
       <c r="T2" s="238" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U2" s="239"/>
       <c r="V2" s="238" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="W2" s="239"/>
       <c r="X2" s="238" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="239"/>
       <c r="Z2" s="238" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="239"/>
       <c r="AB2" s="238" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="239"/>
       <c r="AD2" s="238" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="239"/>
     </row>
@@ -5503,4125 +5721,4159 @@
         <v>0</v>
       </c>
       <c r="C3" s="252" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="249" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="83"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="82"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1">
       <c r="B4" s="244"/>
       <c r="C4" s="253"/>
       <c r="D4" s="255"/>
-      <c r="E4" s="86" t="s">
-        <v>67</v>
+      <c r="E4" s="85" t="s">
+        <v>63</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="94"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="94"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="93"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1">
       <c r="B5" s="244"/>
       <c r="C5" s="254"/>
       <c r="D5" s="255"/>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="101"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="102"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="101"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1">
       <c r="B6" s="244"/>
       <c r="C6" s="254"/>
       <c r="D6" s="255"/>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="102"/>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="102"/>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="102"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="102"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="101"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="101"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="101"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="101"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1">
       <c r="B7" s="244"/>
       <c r="C7" s="254"/>
       <c r="D7" s="255"/>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="102"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="102"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="101"/>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
       <c r="B8" s="245"/>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="255"/>
+      <c r="E8" s="110" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="117"/>
+      <c r="AE8" s="114"/>
+    </row>
+    <row r="9" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B9" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="255"/>
+      <c r="E9" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="75"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="123"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="78"/>
+    </row>
+    <row r="10" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B10" s="125"/>
+      <c r="C10" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="255"/>
-      <c r="E8" s="111" t="s">
+      <c r="D10" s="255"/>
+      <c r="E10" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="119"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="118"/>
-      <c r="AE8" s="115"/>
-    </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B9" s="122" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="99"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="99"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="99"/>
+    </row>
+    <row r="11" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B11" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="D11" s="255"/>
+      <c r="E11" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="100"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="100"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="100"/>
+      <c r="AE11" s="101"/>
+    </row>
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B12" s="127"/>
+      <c r="C12" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="256"/>
+      <c r="E12" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="255"/>
-      <c r="E9" s="75" t="s">
-        <v>6</v>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="118"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="114"/>
+      <c r="V12" s="115"/>
+      <c r="W12" s="116"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="114"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="114"/>
+      <c r="AB12" s="117"/>
+      <c r="AC12" s="114"/>
+      <c r="AD12" s="117"/>
+      <c r="AE12" s="114"/>
+    </row>
+    <row r="13" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A13" s="73"/>
+      <c r="B13" s="128" t="s">
+        <v>67</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="124"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="79"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="124"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="79"/>
-    </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="255"/>
-      <c r="E10" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="100"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="100"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="100"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="100"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="100"/>
-    </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B11" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="255"/>
-      <c r="E11" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="102"/>
-    </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="256"/>
-      <c r="E12" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="118"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="118"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="118"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="118"/>
-      <c r="AA12" s="115"/>
-      <c r="AB12" s="118"/>
-      <c r="AC12" s="115"/>
-      <c r="AD12" s="118"/>
-      <c r="AE12" s="115"/>
-    </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="129" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="129" t="s">
-        <v>74</v>
+      <c r="C13" s="128" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="130" t="s">
-        <v>44</v>
+      <c r="E13" s="129" t="s">
+        <v>40</v>
       </c>
-      <c r="F13" s="131"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="126" t="s">
-        <v>71</v>
+      <c r="A14" s="73"/>
+      <c r="B14" s="125" t="s">
+        <v>67</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="247"/>
+      <c r="E14" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="103"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="100"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="101"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101"/>
+      <c r="Z14" s="100"/>
+      <c r="AA14" s="101"/>
+      <c r="AB14" s="100"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="100"/>
+      <c r="AE14" s="101"/>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="247"/>
+      <c r="E15" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="103"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="100"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="101"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="100"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="100"/>
+      <c r="AE15" s="101"/>
+    </row>
+    <row r="16" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A16" s="73"/>
+      <c r="B16" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="247"/>
+      <c r="E16" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="103"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="100"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="101"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="100"/>
+      <c r="AA16" s="101"/>
+      <c r="AB16" s="100"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="100"/>
+      <c r="AE16" s="101"/>
+    </row>
+    <row r="17" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="247"/>
+      <c r="E17" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="103"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="100"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="100"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="100"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="100"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="101"/>
+    </row>
+    <row r="18" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A18" s="73"/>
+      <c r="B18" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="247"/>
+      <c r="E18" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="101"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="101"/>
+    </row>
+    <row r="19" spans="1:31" ht="16.5" customHeight="1">
+      <c r="A19" s="73"/>
+      <c r="B19" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="247"/>
-      <c r="E14" s="136" t="s">
+      <c r="C19" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="247"/>
+      <c r="E19" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="103"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="101"/>
+    </row>
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A20" s="73"/>
+      <c r="B20" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="102"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="102"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="102"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="102"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="102"/>
-    </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="247"/>
-      <c r="E15" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="104"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="102"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="102"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="102"/>
-    </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="247"/>
-      <c r="E16" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="102"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="102"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="102"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="102"/>
-    </row>
-    <row r="17" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A17" s="74"/>
-      <c r="B17" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="247"/>
-      <c r="E17" s="136" t="s">
+      <c r="D20" s="248"/>
+      <c r="E20" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="102"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="102"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="102"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="102"/>
-    </row>
-    <row r="18" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A18" s="74"/>
-      <c r="B18" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="126" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="247"/>
-      <c r="E18" s="145" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="102"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="102"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="102"/>
-    </row>
-    <row r="19" spans="1:31" ht="16.5" customHeight="1">
-      <c r="A19" s="74"/>
-      <c r="B19" s="126" t="s">
+      <c r="F20" s="113"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="147"/>
+      <c r="U20" s="114"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="114"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="114"/>
+      <c r="Z20" s="117"/>
+      <c r="AA20" s="114"/>
+      <c r="AB20" s="117"/>
+      <c r="AC20" s="114"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="114"/>
+    </row>
+    <row r="21" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B21" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="247"/>
-      <c r="E19" s="136" t="s">
+      <c r="C21" s="148" t="s">
         <v>79</v>
-      </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="102"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="102"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="102"/>
-    </row>
-    <row r="20" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A20" s="74"/>
-      <c r="B20" s="128" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="248"/>
-      <c r="E20" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="115"/>
-      <c r="AD20" s="118"/>
-      <c r="AE20" s="115"/>
-    </row>
-    <row r="21" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B21" s="149" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="149" t="s">
-        <v>83</v>
       </c>
       <c r="D21" s="249" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="150" t="s">
+      <c r="E21" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="151"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="228"/>
-      <c r="O21" s="230"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="156"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="154"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="154"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="154"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="154"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="154"/>
-      <c r="AB21" s="153"/>
-      <c r="AC21" s="154"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="154"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="227"/>
+      <c r="O21" s="229"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="152"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="152"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="152"/>
+      <c r="W21" s="153"/>
+      <c r="X21" s="152"/>
+      <c r="Y21" s="153"/>
+      <c r="Z21" s="152"/>
+      <c r="AA21" s="153"/>
+      <c r="AB21" s="152"/>
+      <c r="AC21" s="153"/>
+      <c r="AD21" s="152"/>
+      <c r="AE21" s="153"/>
     </row>
     <row r="22" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="250"/>
+      <c r="E22" s="157" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="158"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="228"/>
+      <c r="O22" s="230"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="160"/>
+      <c r="S22" s="161"/>
+      <c r="T22" s="160"/>
+      <c r="U22" s="161"/>
+      <c r="V22" s="160"/>
+      <c r="W22" s="161"/>
+      <c r="X22" s="160"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="160"/>
+      <c r="AA22" s="161"/>
+      <c r="AB22" s="160"/>
+      <c r="AC22" s="161"/>
+      <c r="AD22" s="160"/>
+      <c r="AE22" s="161"/>
+    </row>
+    <row r="23" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B23" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="250"/>
+      <c r="E23" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="158"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="228"/>
+      <c r="O23" s="230"/>
+      <c r="P23" s="160"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="160"/>
+      <c r="S23" s="161"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="161"/>
+      <c r="V23" s="160"/>
+      <c r="W23" s="161"/>
+      <c r="X23" s="160"/>
+      <c r="Y23" s="161"/>
+      <c r="Z23" s="160"/>
+      <c r="AA23" s="161"/>
+      <c r="AB23" s="160"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="160"/>
+      <c r="AE23" s="161"/>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B24" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="250"/>
+      <c r="E24" s="157" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="158"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="158"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="231"/>
+      <c r="Q24" s="232"/>
+      <c r="R24" s="231"/>
+      <c r="S24" s="230"/>
+      <c r="T24" s="231"/>
+      <c r="U24" s="230"/>
+      <c r="V24" s="231"/>
+      <c r="W24" s="230"/>
+      <c r="X24" s="231"/>
+      <c r="Y24" s="230"/>
+      <c r="Z24" s="231"/>
+      <c r="AA24" s="230"/>
+      <c r="AB24" s="231"/>
+      <c r="AC24" s="230"/>
+      <c r="AD24" s="231"/>
+      <c r="AE24" s="161"/>
+    </row>
+    <row r="25" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B25" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="250"/>
+      <c r="E25" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="158"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="230"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="232"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="230"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="230"/>
+      <c r="V25" s="231"/>
+      <c r="W25" s="230"/>
+      <c r="X25" s="231"/>
+      <c r="Y25" s="230"/>
+      <c r="Z25" s="231"/>
+      <c r="AA25" s="230"/>
+      <c r="AB25" s="231"/>
+      <c r="AC25" s="230"/>
+      <c r="AD25" s="231"/>
+      <c r="AE25" s="161"/>
+    </row>
+    <row r="26" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B26" s="163" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="250"/>
+      <c r="E26" s="164" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="158"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="166"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="166"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="169"/>
+      <c r="X26" s="199" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" s="166"/>
+      <c r="Z26" s="165"/>
+      <c r="AA26" s="166"/>
+      <c r="AB26" s="168"/>
+      <c r="AC26" s="169"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="166"/>
+    </row>
+    <row r="27" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B27" s="163"/>
+      <c r="C27" s="163" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="250"/>
+      <c r="E27" s="164" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="158"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="201"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="201"/>
+      <c r="P27" s="200"/>
+      <c r="Q27" s="202"/>
+      <c r="R27" s="165"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="165"/>
+      <c r="U27" s="166"/>
+      <c r="V27" s="165"/>
+      <c r="W27" s="166"/>
+      <c r="X27" s="199"/>
+      <c r="Y27" s="166"/>
+      <c r="Z27" s="165"/>
+      <c r="AA27" s="166"/>
+      <c r="AB27" s="165"/>
+      <c r="AC27" s="166"/>
+      <c r="AD27" s="165"/>
+      <c r="AE27" s="166"/>
+    </row>
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B28" s="170"/>
+      <c r="C28" s="170" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="251"/>
+      <c r="E28" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="158"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="174"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="174"/>
+      <c r="Q28" s="176"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="174"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="174"/>
+      <c r="AE28" s="175"/>
+    </row>
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A29" s="73"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="178" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="240" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="157" t="s">
-        <v>74</v>
+      <c r="E29" s="179" t="s">
+        <v>45</v>
       </c>
-      <c r="D22" s="250"/>
-      <c r="E22" s="158" t="s">
+      <c r="F29" s="180"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="185"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="185"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="188"/>
+      <c r="X29" s="184"/>
+      <c r="Y29" s="185"/>
+      <c r="Z29" s="184"/>
+      <c r="AA29" s="185"/>
+      <c r="AB29" s="184"/>
+      <c r="AC29" s="185"/>
+      <c r="AD29" s="184"/>
+      <c r="AE29" s="185"/>
+    </row>
+    <row r="30" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B30" s="189"/>
+      <c r="C30" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="241"/>
+      <c r="E30" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="191"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="195"/>
+      <c r="M30" s="196"/>
+      <c r="N30" s="195"/>
+      <c r="O30" s="196"/>
+      <c r="P30" s="203"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="203"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="203"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="203"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="203"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="203"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="203"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="203"/>
+      <c r="AE30" s="84"/>
+    </row>
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B31" s="197"/>
+      <c r="C31" s="208" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="241"/>
+      <c r="E31" s="209" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="210"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="213"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="214"/>
+      <c r="Q31" s="216"/>
+      <c r="R31" s="214"/>
+      <c r="S31" s="215"/>
+      <c r="T31" s="214"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="214"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="214"/>
+      <c r="Y31" s="215"/>
+      <c r="Z31" s="214"/>
+      <c r="AA31" s="215"/>
+      <c r="AB31" s="214"/>
+      <c r="AC31" s="215"/>
+      <c r="AD31" s="214"/>
+      <c r="AE31" s="215"/>
+    </row>
+    <row r="32" spans="1:31" ht="16.5" customHeight="1">
+      <c r="B32" s="189" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="205"/>
+      <c r="P32" s="205"/>
+      <c r="Q32" s="205"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="205"/>
+      <c r="W32" s="205"/>
+      <c r="X32" s="205"/>
+      <c r="Y32" s="205"/>
+      <c r="Z32" s="205"/>
+      <c r="AA32" s="205"/>
+      <c r="AB32" s="205"/>
+      <c r="AC32" s="205"/>
+      <c r="AD32" s="221"/>
+      <c r="AE32" s="222"/>
+    </row>
+    <row r="33" spans="2:31" ht="16.5" customHeight="1">
+      <c r="B33" s="218" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="159"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="229"/>
-      <c r="O22" s="231"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="161"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="161"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="162"/>
-    </row>
-    <row r="23" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B23" s="157" t="s">
-        <v>82</v>
+      <c r="D33" s="206"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="206"/>
+      <c r="L33" s="206"/>
+      <c r="M33" s="206"/>
+      <c r="N33" s="206"/>
+      <c r="O33" s="206"/>
+      <c r="P33" s="206"/>
+      <c r="Q33" s="206"/>
+      <c r="R33" s="206"/>
+      <c r="S33" s="206"/>
+      <c r="T33" s="206"/>
+      <c r="U33" s="206"/>
+      <c r="V33" s="206"/>
+      <c r="W33" s="206"/>
+      <c r="X33" s="206"/>
+      <c r="Y33" s="206"/>
+      <c r="Z33" s="206"/>
+      <c r="AA33" s="206"/>
+      <c r="AB33" s="206"/>
+      <c r="AC33" s="206"/>
+      <c r="AD33" s="217"/>
+      <c r="AE33" s="223"/>
+    </row>
+    <row r="34" spans="2:31" ht="16.5" customHeight="1">
+      <c r="B34" s="218" t="s">
+        <v>46</v>
       </c>
-      <c r="C23" s="157" t="s">
-        <v>74</v>
+      <c r="C34" s="97" t="s">
+        <v>83</v>
       </c>
-      <c r="D23" s="250"/>
-      <c r="E23" s="158" t="s">
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="206"/>
+      <c r="L34" s="206"/>
+      <c r="M34" s="206"/>
+      <c r="N34" s="206"/>
+      <c r="O34" s="206"/>
+      <c r="P34" s="206"/>
+      <c r="Q34" s="206"/>
+      <c r="R34" s="206"/>
+      <c r="S34" s="206"/>
+      <c r="T34" s="206"/>
+      <c r="U34" s="206"/>
+      <c r="V34" s="206"/>
+      <c r="W34" s="206"/>
+      <c r="X34" s="206"/>
+      <c r="Y34" s="206"/>
+      <c r="Z34" s="206"/>
+      <c r="AA34" s="206"/>
+      <c r="AB34" s="206"/>
+      <c r="AC34" s="206"/>
+      <c r="AD34" s="217"/>
+      <c r="AE34" s="223"/>
+    </row>
+    <row r="35" spans="2:31" ht="16.5" customHeight="1">
+      <c r="B35" s="219" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="236" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="206"/>
+      <c r="L35" s="206"/>
+      <c r="M35" s="206"/>
+      <c r="N35" s="206"/>
+      <c r="O35" s="206"/>
+      <c r="P35" s="206"/>
+      <c r="Q35" s="206"/>
+      <c r="R35" s="206"/>
+      <c r="S35" s="206"/>
+      <c r="T35" s="206"/>
+      <c r="U35" s="206"/>
+      <c r="V35" s="206"/>
+      <c r="W35" s="206"/>
+      <c r="X35" s="206"/>
+      <c r="Y35" s="206"/>
+      <c r="Z35" s="206"/>
+      <c r="AA35" s="206"/>
+      <c r="AB35" s="206"/>
+      <c r="AC35" s="206"/>
+      <c r="AD35" s="217"/>
+      <c r="AE35" s="223"/>
+    </row>
+    <row r="36" spans="2:31" ht="16.5" customHeight="1">
+      <c r="B36" s="292" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="293"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
+      <c r="H36" s="294"/>
+      <c r="I36" s="294"/>
+      <c r="J36" s="294"/>
+      <c r="K36" s="294"/>
+      <c r="L36" s="294"/>
+      <c r="M36" s="294"/>
+      <c r="N36" s="294"/>
+      <c r="O36" s="294"/>
+      <c r="P36" s="294"/>
+      <c r="Q36" s="294"/>
+      <c r="R36" s="294"/>
+      <c r="S36" s="294"/>
+      <c r="T36" s="294"/>
+      <c r="U36" s="294"/>
+      <c r="V36" s="294"/>
+      <c r="W36" s="294"/>
+      <c r="X36" s="294"/>
+      <c r="Y36" s="294"/>
+      <c r="Z36" s="294"/>
+      <c r="AA36" s="294"/>
+      <c r="AB36" s="294"/>
+      <c r="AC36" s="294"/>
+      <c r="AD36" s="295"/>
+      <c r="AE36" s="296"/>
+    </row>
+    <row r="37" spans="2:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B37" s="220" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="159"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="229"/>
-      <c r="O23" s="231"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="161"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="161"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="161"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="161"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="161"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="161"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="162"/>
-    </row>
-    <row r="24" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B24" s="157" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="157" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="250"/>
-      <c r="E24" s="158" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="159"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="233"/>
-      <c r="R24" s="232"/>
-      <c r="S24" s="231"/>
-      <c r="T24" s="232"/>
-      <c r="U24" s="231"/>
-      <c r="V24" s="232"/>
-      <c r="W24" s="231"/>
-      <c r="X24" s="232"/>
-      <c r="Y24" s="231"/>
-      <c r="Z24" s="232"/>
-      <c r="AA24" s="231"/>
-      <c r="AB24" s="232"/>
-      <c r="AC24" s="231"/>
-      <c r="AD24" s="232"/>
-      <c r="AE24" s="162"/>
-    </row>
-    <row r="25" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B25" s="157" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="157" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="250"/>
-      <c r="E25" s="158" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="159"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="232"/>
-      <c r="O25" s="231"/>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="233"/>
-      <c r="R25" s="232"/>
-      <c r="S25" s="231"/>
-      <c r="T25" s="232"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="232"/>
-      <c r="W25" s="231"/>
-      <c r="X25" s="232"/>
-      <c r="Y25" s="231"/>
-      <c r="Z25" s="232"/>
-      <c r="AA25" s="231"/>
-      <c r="AB25" s="232"/>
-      <c r="AC25" s="231"/>
-      <c r="AD25" s="232"/>
-      <c r="AE25" s="162"/>
-    </row>
-    <row r="26" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B26" s="164" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="164" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="250"/>
-      <c r="E26" s="165" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="159"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="167"/>
-      <c r="P26" s="166"/>
-      <c r="Q26" s="168"/>
-      <c r="R26" s="166"/>
-      <c r="S26" s="167"/>
-      <c r="T26" s="166"/>
-      <c r="U26" s="167"/>
-      <c r="V26" s="169"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="200" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y26" s="167"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="167"/>
-      <c r="AB26" s="169"/>
-      <c r="AC26" s="170"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="167"/>
-    </row>
-    <row r="27" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B27" s="164"/>
-      <c r="C27" s="164" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="250"/>
-      <c r="E27" s="165" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="159"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="202"/>
-      <c r="N27" s="201"/>
-      <c r="O27" s="202"/>
-      <c r="P27" s="201"/>
-      <c r="Q27" s="203"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="167"/>
-      <c r="T27" s="166"/>
-      <c r="U27" s="167"/>
-      <c r="V27" s="166"/>
-      <c r="W27" s="167"/>
-      <c r="X27" s="200"/>
-      <c r="Y27" s="167"/>
-      <c r="Z27" s="166"/>
-      <c r="AA27" s="167"/>
-      <c r="AB27" s="166"/>
-      <c r="AC27" s="167"/>
-      <c r="AD27" s="166"/>
-      <c r="AE27" s="167"/>
-    </row>
-    <row r="28" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="251"/>
-      <c r="E28" s="172" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="159"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="176"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="178"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="176"/>
-      <c r="V28" s="175"/>
-      <c r="W28" s="176"/>
-      <c r="X28" s="175"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="175"/>
-      <c r="AA28" s="178"/>
-      <c r="AB28" s="175"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="175"/>
-      <c r="AE28" s="176"/>
-    </row>
-    <row r="29" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A29" s="74"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="179" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="240" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="180" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="181"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="185"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="185"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="188"/>
-      <c r="W29" s="189"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="186"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="186"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-    </row>
-    <row r="30" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B30" s="190"/>
-      <c r="C30" s="122" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="241"/>
-      <c r="E30" s="191" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="192"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="196"/>
-      <c r="M30" s="197"/>
-      <c r="N30" s="196"/>
-      <c r="O30" s="197"/>
-      <c r="P30" s="204"/>
-      <c r="Q30" s="205"/>
-      <c r="R30" s="204"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="204"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="204"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="204"/>
-      <c r="AE30" s="85"/>
-    </row>
-    <row r="31" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B31" s="198"/>
-      <c r="C31" s="209" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="241"/>
-      <c r="E31" s="210" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="211"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="216"/>
-      <c r="N31" s="215"/>
-      <c r="O31" s="216"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="217"/>
-      <c r="R31" s="215"/>
-      <c r="S31" s="216"/>
-      <c r="T31" s="215"/>
-      <c r="U31" s="216"/>
-      <c r="V31" s="215"/>
-      <c r="W31" s="216"/>
-      <c r="X31" s="215"/>
-      <c r="Y31" s="216"/>
-      <c r="Z31" s="215"/>
-      <c r="AA31" s="216"/>
-      <c r="AB31" s="215"/>
-      <c r="AC31" s="216"/>
-      <c r="AD31" s="215"/>
-      <c r="AE31" s="216"/>
-    </row>
-    <row r="32" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B32" s="190" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="206"/>
-      <c r="E32" s="206"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="206"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="206"/>
-      <c r="J32" s="206"/>
-      <c r="K32" s="206"/>
-      <c r="L32" s="206"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="206"/>
-      <c r="Q32" s="206"/>
-      <c r="R32" s="206"/>
-      <c r="S32" s="206"/>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="206"/>
-      <c r="Y32" s="206"/>
-      <c r="Z32" s="206"/>
-      <c r="AA32" s="206"/>
-      <c r="AB32" s="206"/>
-      <c r="AC32" s="206"/>
-      <c r="AD32" s="222"/>
-      <c r="AE32" s="223"/>
-    </row>
-    <row r="33" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B33" s="219" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="227" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="207"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="207"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="207"/>
-      <c r="K33" s="207"/>
-      <c r="L33" s="207"/>
-      <c r="M33" s="207"/>
-      <c r="N33" s="207"/>
-      <c r="O33" s="207"/>
-      <c r="P33" s="207"/>
-      <c r="Q33" s="207"/>
-      <c r="R33" s="207"/>
-      <c r="S33" s="207"/>
-      <c r="T33" s="207"/>
-      <c r="U33" s="207"/>
-      <c r="V33" s="207"/>
-      <c r="W33" s="207"/>
-      <c r="X33" s="207"/>
-      <c r="Y33" s="207"/>
-      <c r="Z33" s="207"/>
-      <c r="AA33" s="207"/>
-      <c r="AB33" s="207"/>
-      <c r="AC33" s="207"/>
-      <c r="AD33" s="218"/>
-      <c r="AE33" s="224"/>
-    </row>
-    <row r="34" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B34" s="219" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="207"/>
-      <c r="L34" s="207"/>
-      <c r="M34" s="207"/>
-      <c r="N34" s="207"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="207"/>
-      <c r="Q34" s="207"/>
-      <c r="R34" s="207"/>
-      <c r="S34" s="207"/>
-      <c r="T34" s="207"/>
-      <c r="U34" s="207"/>
-      <c r="V34" s="207"/>
-      <c r="W34" s="207"/>
-      <c r="X34" s="207"/>
-      <c r="Y34" s="207"/>
-      <c r="Z34" s="207"/>
-      <c r="AA34" s="207"/>
-      <c r="AB34" s="207"/>
-      <c r="AC34" s="207"/>
-      <c r="AD34" s="218"/>
-      <c r="AE34" s="224"/>
-    </row>
-    <row r="35" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B35" s="220" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="237" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="207"/>
-      <c r="E35" s="207"/>
-      <c r="F35" s="207"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="207"/>
-      <c r="I35" s="207"/>
-      <c r="J35" s="207"/>
-      <c r="K35" s="207"/>
-      <c r="L35" s="207"/>
-      <c r="M35" s="207"/>
-      <c r="N35" s="207"/>
-      <c r="O35" s="207"/>
-      <c r="P35" s="207"/>
-      <c r="Q35" s="207"/>
-      <c r="R35" s="207"/>
-      <c r="S35" s="207"/>
-      <c r="T35" s="207"/>
-      <c r="U35" s="207"/>
-      <c r="V35" s="207"/>
-      <c r="W35" s="207"/>
-      <c r="X35" s="207"/>
-      <c r="Y35" s="207"/>
-      <c r="Z35" s="207"/>
-      <c r="AA35" s="207"/>
-      <c r="AB35" s="207"/>
-      <c r="AC35" s="207"/>
-      <c r="AD35" s="218"/>
-      <c r="AE35" s="224"/>
-    </row>
-    <row r="36" spans="2:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B36" s="221" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="208"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="208"/>
-      <c r="J36" s="208"/>
-      <c r="K36" s="208"/>
-      <c r="L36" s="208"/>
-      <c r="M36" s="208"/>
-      <c r="N36" s="208"/>
-      <c r="O36" s="208"/>
-      <c r="P36" s="208"/>
-      <c r="Q36" s="208"/>
-      <c r="R36" s="208"/>
-      <c r="S36" s="208"/>
-      <c r="T36" s="208"/>
-      <c r="U36" s="208"/>
-      <c r="V36" s="208"/>
-      <c r="W36" s="208"/>
-      <c r="X36" s="208"/>
-      <c r="Y36" s="208"/>
-      <c r="Z36" s="208"/>
-      <c r="AA36" s="208"/>
-      <c r="AB36" s="208"/>
-      <c r="AC36" s="208"/>
-      <c r="AD36" s="225"/>
-      <c r="AE36" s="226"/>
-    </row>
-    <row r="37" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C37" s="199"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="207"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
+      <c r="N37" s="207"/>
+      <c r="O37" s="207"/>
+      <c r="P37" s="207"/>
+      <c r="Q37" s="207"/>
+      <c r="R37" s="207"/>
+      <c r="S37" s="207"/>
+      <c r="T37" s="207"/>
+      <c r="U37" s="207"/>
+      <c r="V37" s="207"/>
+      <c r="W37" s="207"/>
+      <c r="X37" s="207"/>
+      <c r="Y37" s="207"/>
+      <c r="Z37" s="207"/>
+      <c r="AA37" s="207"/>
+      <c r="AB37" s="207"/>
+      <c r="AC37" s="207"/>
+      <c r="AD37" s="224"/>
+      <c r="AE37" s="225"/>
     </row>
     <row r="38" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C38" s="199"/>
+      <c r="C38" s="198"/>
     </row>
     <row r="39" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C39" s="199"/>
+      <c r="C39" s="198"/>
     </row>
     <row r="40" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C40" s="199"/>
+      <c r="C40" s="198"/>
     </row>
     <row r="41" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C41" s="199"/>
+      <c r="C41" s="198"/>
     </row>
     <row r="42" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C42" s="199"/>
+      <c r="C42" s="198"/>
     </row>
     <row r="43" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C43" s="199"/>
+      <c r="C43" s="198"/>
     </row>
     <row r="44" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C44" s="199"/>
+      <c r="C44" s="198"/>
     </row>
     <row r="45" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C45" s="199"/>
+      <c r="C45" s="198"/>
     </row>
     <row r="46" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C46" s="199"/>
+      <c r="C46" s="198"/>
     </row>
     <row r="47" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C47" s="199"/>
+      <c r="C47" s="198"/>
     </row>
     <row r="48" spans="2:31" ht="16.5" customHeight="1">
-      <c r="C48" s="199"/>
+      <c r="C48" s="198"/>
     </row>
     <row r="49" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C49" s="199"/>
+      <c r="C49" s="198"/>
     </row>
     <row r="50" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C50" s="199"/>
+      <c r="C50" s="198"/>
     </row>
     <row r="51" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C51" s="199"/>
+      <c r="C51" s="198"/>
     </row>
     <row r="52" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C52" s="199"/>
+      <c r="C52" s="198"/>
     </row>
     <row r="53" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C53" s="199"/>
+      <c r="C53" s="198"/>
     </row>
     <row r="54" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C54" s="199"/>
+      <c r="C54" s="198"/>
     </row>
     <row r="55" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C55" s="199"/>
+      <c r="C55" s="198"/>
     </row>
     <row r="56" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C56" s="199"/>
+      <c r="C56" s="198"/>
     </row>
     <row r="57" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C57" s="199"/>
+      <c r="C57" s="198"/>
     </row>
     <row r="58" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C58" s="199"/>
+      <c r="C58" s="198"/>
     </row>
     <row r="59" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C59" s="199"/>
+      <c r="C59" s="198"/>
     </row>
     <row r="60" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C60" s="199"/>
+      <c r="C60" s="198"/>
     </row>
     <row r="61" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C61" s="199"/>
+      <c r="C61" s="198"/>
     </row>
     <row r="62" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C62" s="199"/>
+      <c r="C62" s="198"/>
     </row>
     <row r="63" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C63" s="199"/>
+      <c r="C63" s="198"/>
     </row>
     <row r="64" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C64" s="199"/>
+      <c r="C64" s="198"/>
     </row>
     <row r="65" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C65" s="199"/>
+      <c r="C65" s="198"/>
     </row>
     <row r="66" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C66" s="199"/>
+      <c r="C66" s="198"/>
     </row>
     <row r="67" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C67" s="199"/>
+      <c r="C67" s="198"/>
     </row>
     <row r="68" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C68" s="199"/>
+      <c r="C68" s="198"/>
     </row>
     <row r="69" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C69" s="199"/>
+      <c r="C69" s="198"/>
     </row>
     <row r="70" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C70" s="199"/>
+      <c r="C70" s="198"/>
     </row>
     <row r="71" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C71" s="199"/>
+      <c r="C71" s="198"/>
     </row>
     <row r="72" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C72" s="199"/>
+      <c r="C72" s="198"/>
     </row>
     <row r="73" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C73" s="199"/>
+      <c r="C73" s="198"/>
     </row>
     <row r="74" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C74" s="199"/>
+      <c r="C74" s="198"/>
     </row>
     <row r="75" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C75" s="199"/>
+      <c r="C75" s="198"/>
     </row>
     <row r="76" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C76" s="199"/>
+      <c r="C76" s="198"/>
     </row>
     <row r="77" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C77" s="199"/>
+      <c r="C77" s="198"/>
     </row>
     <row r="78" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C78" s="199"/>
+      <c r="C78" s="198"/>
     </row>
     <row r="79" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C79" s="199"/>
+      <c r="C79" s="198"/>
     </row>
     <row r="80" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C80" s="199"/>
+      <c r="C80" s="198"/>
     </row>
     <row r="81" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C81" s="199"/>
+      <c r="C81" s="198"/>
     </row>
     <row r="82" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C82" s="199"/>
+      <c r="C82" s="198"/>
     </row>
     <row r="83" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C83" s="199"/>
+      <c r="C83" s="198"/>
     </row>
     <row r="84" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C84" s="199"/>
+      <c r="C84" s="198"/>
     </row>
     <row r="85" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C85" s="199"/>
+      <c r="C85" s="198"/>
     </row>
     <row r="86" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C86" s="199"/>
+      <c r="C86" s="198"/>
     </row>
     <row r="87" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C87" s="199"/>
+      <c r="C87" s="198"/>
     </row>
     <row r="88" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C88" s="199"/>
+      <c r="C88" s="198"/>
     </row>
     <row r="89" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C89" s="199"/>
+      <c r="C89" s="198"/>
     </row>
     <row r="90" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C90" s="199"/>
+      <c r="C90" s="198"/>
     </row>
     <row r="91" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C91" s="199"/>
+      <c r="C91" s="198"/>
     </row>
     <row r="92" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C92" s="199"/>
+      <c r="C92" s="198"/>
     </row>
     <row r="93" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C93" s="199"/>
+      <c r="C93" s="198"/>
     </row>
     <row r="94" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C94" s="199"/>
+      <c r="C94" s="198"/>
     </row>
     <row r="95" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C95" s="199"/>
+      <c r="C95" s="198"/>
     </row>
     <row r="96" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C96" s="199"/>
+      <c r="C96" s="198"/>
     </row>
     <row r="97" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C97" s="199"/>
+      <c r="C97" s="198"/>
     </row>
     <row r="98" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C98" s="199"/>
+      <c r="C98" s="198"/>
     </row>
     <row r="99" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C99" s="199"/>
+      <c r="C99" s="198"/>
     </row>
     <row r="100" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C100" s="199"/>
+      <c r="C100" s="198"/>
     </row>
     <row r="101" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C101" s="199"/>
+      <c r="C101" s="198"/>
     </row>
     <row r="102" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C102" s="199"/>
+      <c r="C102" s="198"/>
     </row>
     <row r="103" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C103" s="199"/>
+      <c r="C103" s="198"/>
     </row>
     <row r="104" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C104" s="199"/>
+      <c r="C104" s="198"/>
     </row>
     <row r="105" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C105" s="199"/>
+      <c r="C105" s="198"/>
     </row>
     <row r="106" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C106" s="199"/>
+      <c r="C106" s="198"/>
     </row>
     <row r="107" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C107" s="199"/>
+      <c r="C107" s="198"/>
     </row>
     <row r="108" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C108" s="199"/>
+      <c r="C108" s="198"/>
     </row>
     <row r="109" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C109" s="199"/>
+      <c r="C109" s="198"/>
     </row>
     <row r="110" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C110" s="199"/>
+      <c r="C110" s="198"/>
     </row>
     <row r="111" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C111" s="199"/>
+      <c r="C111" s="198"/>
     </row>
     <row r="112" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C112" s="199"/>
+      <c r="C112" s="198"/>
     </row>
     <row r="113" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C113" s="199"/>
+      <c r="C113" s="198"/>
     </row>
     <row r="114" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C114" s="199"/>
+      <c r="C114" s="198"/>
     </row>
     <row r="115" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C115" s="199"/>
+      <c r="C115" s="198"/>
     </row>
     <row r="116" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C116" s="199"/>
+      <c r="C116" s="198"/>
     </row>
     <row r="117" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C117" s="199"/>
+      <c r="C117" s="198"/>
     </row>
     <row r="118" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C118" s="199"/>
+      <c r="C118" s="198"/>
     </row>
     <row r="119" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C119" s="199"/>
+      <c r="C119" s="198"/>
     </row>
     <row r="120" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C120" s="199"/>
+      <c r="C120" s="198"/>
     </row>
     <row r="121" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C121" s="199"/>
+      <c r="C121" s="198"/>
     </row>
     <row r="122" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C122" s="199"/>
+      <c r="C122" s="198"/>
     </row>
     <row r="123" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C123" s="199"/>
+      <c r="C123" s="198"/>
     </row>
     <row r="124" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C124" s="199"/>
+      <c r="C124" s="198"/>
     </row>
     <row r="125" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C125" s="199"/>
+      <c r="C125" s="198"/>
     </row>
     <row r="126" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C126" s="199"/>
+      <c r="C126" s="198"/>
     </row>
     <row r="127" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C127" s="199"/>
+      <c r="C127" s="198"/>
     </row>
     <row r="128" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C128" s="199"/>
+      <c r="C128" s="198"/>
     </row>
     <row r="129" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C129" s="199"/>
+      <c r="C129" s="198"/>
     </row>
     <row r="130" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C130" s="199"/>
+      <c r="C130" s="198"/>
     </row>
     <row r="131" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C131" s="199"/>
+      <c r="C131" s="198"/>
     </row>
     <row r="132" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C132" s="199"/>
+      <c r="C132" s="198"/>
     </row>
     <row r="133" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C133" s="199"/>
+      <c r="C133" s="198"/>
     </row>
     <row r="134" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C134" s="199"/>
+      <c r="C134" s="198"/>
     </row>
     <row r="135" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C135" s="199"/>
+      <c r="C135" s="198"/>
     </row>
     <row r="136" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C136" s="199"/>
+      <c r="C136" s="198"/>
     </row>
     <row r="137" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C137" s="199"/>
+      <c r="C137" s="198"/>
     </row>
     <row r="138" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C138" s="199"/>
+      <c r="C138" s="198"/>
     </row>
     <row r="139" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C139" s="199"/>
+      <c r="C139" s="198"/>
     </row>
     <row r="140" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C140" s="199"/>
+      <c r="C140" s="198"/>
     </row>
     <row r="141" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C141" s="199"/>
+      <c r="C141" s="198"/>
     </row>
     <row r="142" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C142" s="199"/>
+      <c r="C142" s="198"/>
     </row>
     <row r="143" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C143" s="199"/>
+      <c r="C143" s="198"/>
     </row>
     <row r="144" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C144" s="199"/>
+      <c r="C144" s="198"/>
     </row>
     <row r="145" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C145" s="199"/>
+      <c r="C145" s="198"/>
     </row>
     <row r="146" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C146" s="199"/>
+      <c r="C146" s="198"/>
     </row>
     <row r="147" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C147" s="199"/>
+      <c r="C147" s="198"/>
     </row>
     <row r="148" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C148" s="199"/>
+      <c r="C148" s="198"/>
     </row>
     <row r="149" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C149" s="199"/>
+      <c r="C149" s="198"/>
     </row>
     <row r="150" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C150" s="199"/>
+      <c r="C150" s="198"/>
     </row>
     <row r="151" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C151" s="199"/>
+      <c r="C151" s="198"/>
     </row>
     <row r="152" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C152" s="199"/>
+      <c r="C152" s="198"/>
     </row>
     <row r="153" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C153" s="199"/>
+      <c r="C153" s="198"/>
     </row>
     <row r="154" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C154" s="199"/>
+      <c r="C154" s="198"/>
     </row>
     <row r="155" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C155" s="199"/>
+      <c r="C155" s="198"/>
     </row>
     <row r="156" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C156" s="199"/>
+      <c r="C156" s="198"/>
     </row>
     <row r="157" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C157" s="199"/>
+      <c r="C157" s="198"/>
     </row>
     <row r="158" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C158" s="199"/>
+      <c r="C158" s="198"/>
     </row>
     <row r="159" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C159" s="199"/>
+      <c r="C159" s="198"/>
     </row>
     <row r="160" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C160" s="199"/>
+      <c r="C160" s="198"/>
     </row>
     <row r="161" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C161" s="199"/>
+      <c r="C161" s="198"/>
     </row>
     <row r="162" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C162" s="199"/>
+      <c r="C162" s="198"/>
     </row>
     <row r="163" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C163" s="199"/>
+      <c r="C163" s="198"/>
     </row>
     <row r="164" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C164" s="199"/>
+      <c r="C164" s="198"/>
     </row>
     <row r="165" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C165" s="199"/>
+      <c r="C165" s="198"/>
     </row>
     <row r="166" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C166" s="199"/>
+      <c r="C166" s="198"/>
     </row>
     <row r="167" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C167" s="199"/>
+      <c r="C167" s="198"/>
     </row>
     <row r="168" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C168" s="199"/>
+      <c r="C168" s="198"/>
     </row>
     <row r="169" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C169" s="199"/>
+      <c r="C169" s="198"/>
     </row>
     <row r="170" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C170" s="199"/>
+      <c r="C170" s="198"/>
     </row>
     <row r="171" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C171" s="199"/>
+      <c r="C171" s="198"/>
     </row>
     <row r="172" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C172" s="199"/>
+      <c r="C172" s="198"/>
     </row>
     <row r="173" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C173" s="199"/>
+      <c r="C173" s="198"/>
     </row>
     <row r="174" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C174" s="199"/>
+      <c r="C174" s="198"/>
     </row>
     <row r="175" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C175" s="199"/>
+      <c r="C175" s="198"/>
     </row>
     <row r="176" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C176" s="199"/>
+      <c r="C176" s="198"/>
     </row>
     <row r="177" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C177" s="199"/>
+      <c r="C177" s="198"/>
     </row>
     <row r="178" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C178" s="199"/>
+      <c r="C178" s="198"/>
     </row>
     <row r="179" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C179" s="199"/>
+      <c r="C179" s="198"/>
     </row>
     <row r="180" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C180" s="199"/>
+      <c r="C180" s="198"/>
     </row>
     <row r="181" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C181" s="199"/>
+      <c r="C181" s="198"/>
     </row>
     <row r="182" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C182" s="199"/>
+      <c r="C182" s="198"/>
     </row>
     <row r="183" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C183" s="199"/>
+      <c r="C183" s="198"/>
     </row>
     <row r="184" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C184" s="199"/>
+      <c r="C184" s="198"/>
     </row>
     <row r="185" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C185" s="199"/>
+      <c r="C185" s="198"/>
     </row>
     <row r="186" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C186" s="199"/>
+      <c r="C186" s="198"/>
     </row>
     <row r="187" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C187" s="199"/>
+      <c r="C187" s="198"/>
     </row>
     <row r="188" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C188" s="199"/>
+      <c r="C188" s="198"/>
     </row>
     <row r="189" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C189" s="199"/>
+      <c r="C189" s="198"/>
     </row>
     <row r="190" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C190" s="199"/>
+      <c r="C190" s="198"/>
     </row>
     <row r="191" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C191" s="199"/>
+      <c r="C191" s="198"/>
     </row>
     <row r="192" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C192" s="199"/>
+      <c r="C192" s="198"/>
     </row>
     <row r="193" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C193" s="199"/>
+      <c r="C193" s="198"/>
     </row>
     <row r="194" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C194" s="199"/>
+      <c r="C194" s="198"/>
     </row>
     <row r="195" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C195" s="199"/>
+      <c r="C195" s="198"/>
     </row>
     <row r="196" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C196" s="199"/>
+      <c r="C196" s="198"/>
     </row>
     <row r="197" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C197" s="199"/>
+      <c r="C197" s="198"/>
     </row>
     <row r="198" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C198" s="199"/>
+      <c r="C198" s="198"/>
     </row>
     <row r="199" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C199" s="199"/>
+      <c r="C199" s="198"/>
     </row>
     <row r="200" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C200" s="199"/>
+      <c r="C200" s="198"/>
     </row>
     <row r="201" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C201" s="199"/>
+      <c r="C201" s="198"/>
     </row>
     <row r="202" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C202" s="199"/>
+      <c r="C202" s="198"/>
     </row>
     <row r="203" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C203" s="199"/>
+      <c r="C203" s="198"/>
     </row>
     <row r="204" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C204" s="199"/>
+      <c r="C204" s="198"/>
     </row>
     <row r="205" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C205" s="199"/>
+      <c r="C205" s="198"/>
     </row>
     <row r="206" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C206" s="199"/>
+      <c r="C206" s="198"/>
     </row>
     <row r="207" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C207" s="199"/>
+      <c r="C207" s="198"/>
     </row>
     <row r="208" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C208" s="199"/>
+      <c r="C208" s="198"/>
     </row>
     <row r="209" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C209" s="199"/>
+      <c r="C209" s="198"/>
     </row>
     <row r="210" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C210" s="199"/>
+      <c r="C210" s="198"/>
     </row>
     <row r="211" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C211" s="199"/>
+      <c r="C211" s="198"/>
     </row>
     <row r="212" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C212" s="199"/>
+      <c r="C212" s="198"/>
     </row>
     <row r="213" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C213" s="199"/>
+      <c r="C213" s="198"/>
     </row>
     <row r="214" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C214" s="199"/>
+      <c r="C214" s="198"/>
     </row>
     <row r="215" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C215" s="199"/>
+      <c r="C215" s="198"/>
     </row>
     <row r="216" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C216" s="199"/>
+      <c r="C216" s="198"/>
     </row>
     <row r="217" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C217" s="199"/>
+      <c r="C217" s="198"/>
     </row>
     <row r="218" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C218" s="199"/>
+      <c r="C218" s="198"/>
     </row>
     <row r="219" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C219" s="199"/>
+      <c r="C219" s="198"/>
     </row>
     <row r="220" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C220" s="199"/>
+      <c r="C220" s="198"/>
     </row>
     <row r="221" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C221" s="199"/>
+      <c r="C221" s="198"/>
     </row>
     <row r="222" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C222" s="199"/>
+      <c r="C222" s="198"/>
     </row>
     <row r="223" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C223" s="199"/>
+      <c r="C223" s="198"/>
     </row>
     <row r="224" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C224" s="199"/>
+      <c r="C224" s="198"/>
     </row>
     <row r="225" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C225" s="199"/>
+      <c r="C225" s="198"/>
     </row>
     <row r="226" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C226" s="199"/>
+      <c r="C226" s="198"/>
     </row>
     <row r="227" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C227" s="199"/>
+      <c r="C227" s="198"/>
     </row>
     <row r="228" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C228" s="199"/>
+      <c r="C228" s="198"/>
     </row>
     <row r="229" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C229" s="199"/>
+      <c r="C229" s="198"/>
     </row>
     <row r="230" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C230" s="199"/>
+      <c r="C230" s="198"/>
     </row>
     <row r="231" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C231" s="199"/>
+      <c r="C231" s="198"/>
     </row>
     <row r="232" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C232" s="199"/>
+      <c r="C232" s="198"/>
     </row>
     <row r="233" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C233" s="199"/>
+      <c r="C233" s="198"/>
     </row>
     <row r="234" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C234" s="199"/>
+      <c r="C234" s="198"/>
     </row>
     <row r="235" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C235" s="199"/>
+      <c r="C235" s="198"/>
     </row>
     <row r="236" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C236" s="199"/>
+      <c r="C236" s="198"/>
     </row>
     <row r="237" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C237" s="199"/>
+      <c r="C237" s="198"/>
     </row>
     <row r="238" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C238" s="199"/>
+      <c r="C238" s="198"/>
     </row>
     <row r="239" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C239" s="199"/>
+      <c r="C239" s="198"/>
     </row>
     <row r="240" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C240" s="199"/>
+      <c r="C240" s="198"/>
     </row>
     <row r="241" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C241" s="199"/>
+      <c r="C241" s="198"/>
     </row>
     <row r="242" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C242" s="199"/>
+      <c r="C242" s="198"/>
     </row>
     <row r="243" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C243" s="199"/>
+      <c r="C243" s="198"/>
     </row>
     <row r="244" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C244" s="199"/>
+      <c r="C244" s="198"/>
     </row>
     <row r="245" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C245" s="199"/>
+      <c r="C245" s="198"/>
     </row>
     <row r="246" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C246" s="199"/>
+      <c r="C246" s="198"/>
     </row>
     <row r="247" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C247" s="199"/>
+      <c r="C247" s="198"/>
     </row>
     <row r="248" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C248" s="199"/>
+      <c r="C248" s="198"/>
     </row>
     <row r="249" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C249" s="199"/>
+      <c r="C249" s="198"/>
     </row>
     <row r="250" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C250" s="199"/>
+      <c r="C250" s="198"/>
     </row>
     <row r="251" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C251" s="199"/>
+      <c r="C251" s="198"/>
     </row>
     <row r="252" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C252" s="199"/>
+      <c r="C252" s="198"/>
     </row>
     <row r="253" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C253" s="199"/>
+      <c r="C253" s="198"/>
     </row>
     <row r="254" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C254" s="199"/>
+      <c r="C254" s="198"/>
     </row>
     <row r="255" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C255" s="199"/>
+      <c r="C255" s="198"/>
     </row>
     <row r="256" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C256" s="199"/>
+      <c r="C256" s="198"/>
     </row>
     <row r="257" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C257" s="199"/>
+      <c r="C257" s="198"/>
     </row>
     <row r="258" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C258" s="199"/>
+      <c r="C258" s="198"/>
     </row>
     <row r="259" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C259" s="199"/>
+      <c r="C259" s="198"/>
     </row>
     <row r="260" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C260" s="199"/>
+      <c r="C260" s="198"/>
     </row>
     <row r="261" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C261" s="199"/>
+      <c r="C261" s="198"/>
     </row>
     <row r="262" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C262" s="199"/>
+      <c r="C262" s="198"/>
     </row>
     <row r="263" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C263" s="199"/>
+      <c r="C263" s="198"/>
     </row>
     <row r="264" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C264" s="199"/>
+      <c r="C264" s="198"/>
     </row>
     <row r="265" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C265" s="199"/>
+      <c r="C265" s="198"/>
     </row>
     <row r="266" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C266" s="199"/>
+      <c r="C266" s="198"/>
     </row>
     <row r="267" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C267" s="199"/>
+      <c r="C267" s="198"/>
     </row>
     <row r="268" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C268" s="199"/>
+      <c r="C268" s="198"/>
     </row>
     <row r="269" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C269" s="199"/>
+      <c r="C269" s="198"/>
     </row>
     <row r="270" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C270" s="199"/>
+      <c r="C270" s="198"/>
     </row>
     <row r="271" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C271" s="199"/>
+      <c r="C271" s="198"/>
     </row>
     <row r="272" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C272" s="199"/>
+      <c r="C272" s="198"/>
     </row>
     <row r="273" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C273" s="199"/>
+      <c r="C273" s="198"/>
     </row>
     <row r="274" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C274" s="199"/>
+      <c r="C274" s="198"/>
     </row>
     <row r="275" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C275" s="199"/>
+      <c r="C275" s="198"/>
     </row>
     <row r="276" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C276" s="199"/>
+      <c r="C276" s="198"/>
     </row>
     <row r="277" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C277" s="199"/>
+      <c r="C277" s="198"/>
     </row>
     <row r="278" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C278" s="199"/>
+      <c r="C278" s="198"/>
     </row>
     <row r="279" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C279" s="199"/>
+      <c r="C279" s="198"/>
     </row>
     <row r="280" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C280" s="199"/>
+      <c r="C280" s="198"/>
     </row>
     <row r="281" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C281" s="199"/>
+      <c r="C281" s="198"/>
     </row>
     <row r="282" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C282" s="199"/>
+      <c r="C282" s="198"/>
     </row>
     <row r="283" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C283" s="199"/>
+      <c r="C283" s="198"/>
     </row>
     <row r="284" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C284" s="199"/>
+      <c r="C284" s="198"/>
     </row>
     <row r="285" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C285" s="199"/>
+      <c r="C285" s="198"/>
     </row>
     <row r="286" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C286" s="199"/>
+      <c r="C286" s="198"/>
     </row>
     <row r="287" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C287" s="199"/>
+      <c r="C287" s="198"/>
     </row>
     <row r="288" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C288" s="199"/>
+      <c r="C288" s="198"/>
     </row>
     <row r="289" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C289" s="199"/>
+      <c r="C289" s="198"/>
     </row>
     <row r="290" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C290" s="199"/>
+      <c r="C290" s="198"/>
     </row>
     <row r="291" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C291" s="199"/>
+      <c r="C291" s="198"/>
     </row>
     <row r="292" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C292" s="199"/>
+      <c r="C292" s="198"/>
     </row>
     <row r="293" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C293" s="199"/>
+      <c r="C293" s="198"/>
     </row>
     <row r="294" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C294" s="199"/>
+      <c r="C294" s="198"/>
     </row>
     <row r="295" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C295" s="199"/>
+      <c r="C295" s="198"/>
     </row>
     <row r="296" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C296" s="199"/>
+      <c r="C296" s="198"/>
     </row>
     <row r="297" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C297" s="199"/>
+      <c r="C297" s="198"/>
     </row>
     <row r="298" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C298" s="199"/>
+      <c r="C298" s="198"/>
     </row>
     <row r="299" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C299" s="199"/>
+      <c r="C299" s="198"/>
     </row>
     <row r="300" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C300" s="199"/>
+      <c r="C300" s="198"/>
     </row>
     <row r="301" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C301" s="199"/>
+      <c r="C301" s="198"/>
     </row>
     <row r="302" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C302" s="199"/>
+      <c r="C302" s="198"/>
     </row>
     <row r="303" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C303" s="199"/>
+      <c r="C303" s="198"/>
     </row>
     <row r="304" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C304" s="199"/>
+      <c r="C304" s="198"/>
     </row>
     <row r="305" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C305" s="199"/>
+      <c r="C305" s="198"/>
     </row>
     <row r="306" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C306" s="199"/>
+      <c r="C306" s="198"/>
     </row>
     <row r="307" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C307" s="199"/>
+      <c r="C307" s="198"/>
     </row>
     <row r="308" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C308" s="199"/>
+      <c r="C308" s="198"/>
     </row>
     <row r="309" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C309" s="199"/>
+      <c r="C309" s="198"/>
     </row>
     <row r="310" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C310" s="199"/>
+      <c r="C310" s="198"/>
     </row>
     <row r="311" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C311" s="199"/>
+      <c r="C311" s="198"/>
     </row>
     <row r="312" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C312" s="199"/>
+      <c r="C312" s="198"/>
     </row>
     <row r="313" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C313" s="199"/>
+      <c r="C313" s="198"/>
     </row>
     <row r="314" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C314" s="199"/>
+      <c r="C314" s="198"/>
     </row>
     <row r="315" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C315" s="199"/>
+      <c r="C315" s="198"/>
     </row>
     <row r="316" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C316" s="199"/>
+      <c r="C316" s="198"/>
     </row>
     <row r="317" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C317" s="199"/>
+      <c r="C317" s="198"/>
     </row>
     <row r="318" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C318" s="199"/>
+      <c r="C318" s="198"/>
     </row>
     <row r="319" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C319" s="199"/>
+      <c r="C319" s="198"/>
     </row>
     <row r="320" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C320" s="199"/>
+      <c r="C320" s="198"/>
     </row>
     <row r="321" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C321" s="199"/>
+      <c r="C321" s="198"/>
     </row>
     <row r="322" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C322" s="199"/>
+      <c r="C322" s="198"/>
     </row>
     <row r="323" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C323" s="199"/>
+      <c r="C323" s="198"/>
     </row>
     <row r="324" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C324" s="199"/>
+      <c r="C324" s="198"/>
     </row>
     <row r="325" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C325" s="199"/>
+      <c r="C325" s="198"/>
     </row>
     <row r="326" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C326" s="199"/>
+      <c r="C326" s="198"/>
     </row>
     <row r="327" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C327" s="199"/>
+      <c r="C327" s="198"/>
     </row>
     <row r="328" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C328" s="199"/>
+      <c r="C328" s="198"/>
     </row>
     <row r="329" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C329" s="199"/>
+      <c r="C329" s="198"/>
     </row>
     <row r="330" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C330" s="199"/>
+      <c r="C330" s="198"/>
     </row>
     <row r="331" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C331" s="199"/>
+      <c r="C331" s="198"/>
     </row>
     <row r="332" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C332" s="199"/>
+      <c r="C332" s="198"/>
     </row>
     <row r="333" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C333" s="199"/>
+      <c r="C333" s="198"/>
     </row>
     <row r="334" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C334" s="199"/>
+      <c r="C334" s="198"/>
     </row>
     <row r="335" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C335" s="199"/>
+      <c r="C335" s="198"/>
     </row>
     <row r="336" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C336" s="199"/>
+      <c r="C336" s="198"/>
     </row>
     <row r="337" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C337" s="199"/>
+      <c r="C337" s="198"/>
     </row>
     <row r="338" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C338" s="199"/>
+      <c r="C338" s="198"/>
     </row>
     <row r="339" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C339" s="199"/>
+      <c r="C339" s="198"/>
     </row>
     <row r="340" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C340" s="199"/>
+      <c r="C340" s="198"/>
     </row>
     <row r="341" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C341" s="199"/>
+      <c r="C341" s="198"/>
     </row>
     <row r="342" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C342" s="199"/>
+      <c r="C342" s="198"/>
     </row>
     <row r="343" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C343" s="199"/>
+      <c r="C343" s="198"/>
     </row>
     <row r="344" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C344" s="199"/>
+      <c r="C344" s="198"/>
     </row>
     <row r="345" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C345" s="199"/>
+      <c r="C345" s="198"/>
     </row>
     <row r="346" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C346" s="199"/>
+      <c r="C346" s="198"/>
     </row>
     <row r="347" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C347" s="199"/>
+      <c r="C347" s="198"/>
     </row>
     <row r="348" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C348" s="199"/>
+      <c r="C348" s="198"/>
     </row>
     <row r="349" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C349" s="199"/>
+      <c r="C349" s="198"/>
     </row>
     <row r="350" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C350" s="199"/>
+      <c r="C350" s="198"/>
     </row>
     <row r="351" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C351" s="199"/>
+      <c r="C351" s="198"/>
     </row>
     <row r="352" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C352" s="199"/>
+      <c r="C352" s="198"/>
     </row>
     <row r="353" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C353" s="199"/>
+      <c r="C353" s="198"/>
     </row>
     <row r="354" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C354" s="199"/>
+      <c r="C354" s="198"/>
     </row>
     <row r="355" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C355" s="199"/>
+      <c r="C355" s="198"/>
     </row>
     <row r="356" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C356" s="199"/>
+      <c r="C356" s="198"/>
     </row>
     <row r="357" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C357" s="199"/>
+      <c r="C357" s="198"/>
     </row>
     <row r="358" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C358" s="199"/>
+      <c r="C358" s="198"/>
     </row>
     <row r="359" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C359" s="199"/>
+      <c r="C359" s="198"/>
     </row>
     <row r="360" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C360" s="199"/>
+      <c r="C360" s="198"/>
     </row>
     <row r="361" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C361" s="199"/>
+      <c r="C361" s="198"/>
     </row>
     <row r="362" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C362" s="199"/>
+      <c r="C362" s="198"/>
     </row>
     <row r="363" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C363" s="199"/>
+      <c r="C363" s="198"/>
     </row>
     <row r="364" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C364" s="199"/>
+      <c r="C364" s="198"/>
     </row>
     <row r="365" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C365" s="199"/>
+      <c r="C365" s="198"/>
     </row>
     <row r="366" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C366" s="199"/>
+      <c r="C366" s="198"/>
     </row>
     <row r="367" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C367" s="199"/>
+      <c r="C367" s="198"/>
     </row>
     <row r="368" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C368" s="199"/>
+      <c r="C368" s="198"/>
     </row>
     <row r="369" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C369" s="199"/>
+      <c r="C369" s="198"/>
     </row>
     <row r="370" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C370" s="199"/>
+      <c r="C370" s="198"/>
     </row>
     <row r="371" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C371" s="199"/>
+      <c r="C371" s="198"/>
     </row>
     <row r="372" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C372" s="199"/>
+      <c r="C372" s="198"/>
     </row>
     <row r="373" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C373" s="199"/>
+      <c r="C373" s="198"/>
     </row>
     <row r="374" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C374" s="199"/>
+      <c r="C374" s="198"/>
     </row>
     <row r="375" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C375" s="199"/>
+      <c r="C375" s="198"/>
     </row>
     <row r="376" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C376" s="199"/>
+      <c r="C376" s="198"/>
     </row>
     <row r="377" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C377" s="199"/>
+      <c r="C377" s="198"/>
     </row>
     <row r="378" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C378" s="199"/>
+      <c r="C378" s="198"/>
     </row>
     <row r="379" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C379" s="199"/>
+      <c r="C379" s="198"/>
     </row>
     <row r="380" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C380" s="199"/>
+      <c r="C380" s="198"/>
     </row>
     <row r="381" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C381" s="199"/>
+      <c r="C381" s="198"/>
     </row>
     <row r="382" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C382" s="199"/>
+      <c r="C382" s="198"/>
     </row>
     <row r="383" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C383" s="199"/>
+      <c r="C383" s="198"/>
     </row>
     <row r="384" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C384" s="199"/>
+      <c r="C384" s="198"/>
     </row>
     <row r="385" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C385" s="199"/>
+      <c r="C385" s="198"/>
     </row>
     <row r="386" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C386" s="199"/>
+      <c r="C386" s="198"/>
     </row>
     <row r="387" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C387" s="199"/>
+      <c r="C387" s="198"/>
     </row>
     <row r="388" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C388" s="199"/>
+      <c r="C388" s="198"/>
     </row>
     <row r="389" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C389" s="199"/>
+      <c r="C389" s="198"/>
     </row>
     <row r="390" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C390" s="199"/>
+      <c r="C390" s="198"/>
     </row>
     <row r="391" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C391" s="199"/>
+      <c r="C391" s="198"/>
     </row>
     <row r="392" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C392" s="199"/>
+      <c r="C392" s="198"/>
     </row>
     <row r="393" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C393" s="199"/>
+      <c r="C393" s="198"/>
     </row>
     <row r="394" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C394" s="199"/>
+      <c r="C394" s="198"/>
     </row>
     <row r="395" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C395" s="199"/>
+      <c r="C395" s="198"/>
     </row>
     <row r="396" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C396" s="199"/>
+      <c r="C396" s="198"/>
     </row>
     <row r="397" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C397" s="199"/>
+      <c r="C397" s="198"/>
     </row>
     <row r="398" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C398" s="199"/>
+      <c r="C398" s="198"/>
     </row>
     <row r="399" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C399" s="199"/>
+      <c r="C399" s="198"/>
     </row>
     <row r="400" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C400" s="199"/>
+      <c r="C400" s="198"/>
     </row>
     <row r="401" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C401" s="199"/>
+      <c r="C401" s="198"/>
     </row>
     <row r="402" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C402" s="199"/>
+      <c r="C402" s="198"/>
     </row>
     <row r="403" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C403" s="199"/>
+      <c r="C403" s="198"/>
     </row>
     <row r="404" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C404" s="199"/>
+      <c r="C404" s="198"/>
     </row>
     <row r="405" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C405" s="199"/>
+      <c r="C405" s="198"/>
     </row>
     <row r="406" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C406" s="199"/>
+      <c r="C406" s="198"/>
     </row>
     <row r="407" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C407" s="199"/>
+      <c r="C407" s="198"/>
     </row>
     <row r="408" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C408" s="199"/>
+      <c r="C408" s="198"/>
     </row>
     <row r="409" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C409" s="199"/>
+      <c r="C409" s="198"/>
     </row>
     <row r="410" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C410" s="199"/>
+      <c r="C410" s="198"/>
     </row>
     <row r="411" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C411" s="199"/>
+      <c r="C411" s="198"/>
     </row>
     <row r="412" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C412" s="199"/>
+      <c r="C412" s="198"/>
     </row>
     <row r="413" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C413" s="199"/>
+      <c r="C413" s="198"/>
     </row>
     <row r="414" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C414" s="199"/>
+      <c r="C414" s="198"/>
     </row>
     <row r="415" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C415" s="199"/>
+      <c r="C415" s="198"/>
     </row>
     <row r="416" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C416" s="199"/>
+      <c r="C416" s="198"/>
     </row>
     <row r="417" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C417" s="199"/>
+      <c r="C417" s="198"/>
     </row>
     <row r="418" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C418" s="199"/>
+      <c r="C418" s="198"/>
     </row>
     <row r="419" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C419" s="199"/>
+      <c r="C419" s="198"/>
     </row>
     <row r="420" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C420" s="199"/>
+      <c r="C420" s="198"/>
     </row>
     <row r="421" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C421" s="199"/>
+      <c r="C421" s="198"/>
     </row>
     <row r="422" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C422" s="199"/>
+      <c r="C422" s="198"/>
     </row>
     <row r="423" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C423" s="199"/>
+      <c r="C423" s="198"/>
     </row>
     <row r="424" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C424" s="199"/>
+      <c r="C424" s="198"/>
     </row>
     <row r="425" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C425" s="199"/>
+      <c r="C425" s="198"/>
     </row>
     <row r="426" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C426" s="199"/>
+      <c r="C426" s="198"/>
     </row>
     <row r="427" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C427" s="199"/>
+      <c r="C427" s="198"/>
     </row>
     <row r="428" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C428" s="199"/>
+      <c r="C428" s="198"/>
     </row>
     <row r="429" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C429" s="199"/>
+      <c r="C429" s="198"/>
     </row>
     <row r="430" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C430" s="199"/>
+      <c r="C430" s="198"/>
     </row>
     <row r="431" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C431" s="199"/>
+      <c r="C431" s="198"/>
     </row>
     <row r="432" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C432" s="199"/>
+      <c r="C432" s="198"/>
     </row>
     <row r="433" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C433" s="199"/>
+      <c r="C433" s="198"/>
     </row>
     <row r="434" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C434" s="199"/>
+      <c r="C434" s="198"/>
     </row>
     <row r="435" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C435" s="199"/>
+      <c r="C435" s="198"/>
     </row>
     <row r="436" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C436" s="199"/>
+      <c r="C436" s="198"/>
     </row>
     <row r="437" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C437" s="199"/>
+      <c r="C437" s="198"/>
     </row>
     <row r="438" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C438" s="199"/>
+      <c r="C438" s="198"/>
     </row>
     <row r="439" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C439" s="199"/>
+      <c r="C439" s="198"/>
     </row>
     <row r="440" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C440" s="199"/>
+      <c r="C440" s="198"/>
     </row>
     <row r="441" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C441" s="199"/>
+      <c r="C441" s="198"/>
     </row>
     <row r="442" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C442" s="199"/>
+      <c r="C442" s="198"/>
     </row>
     <row r="443" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C443" s="199"/>
+      <c r="C443" s="198"/>
     </row>
     <row r="444" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C444" s="199"/>
+      <c r="C444" s="198"/>
     </row>
     <row r="445" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C445" s="199"/>
+      <c r="C445" s="198"/>
     </row>
     <row r="446" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C446" s="199"/>
+      <c r="C446" s="198"/>
     </row>
     <row r="447" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C447" s="199"/>
+      <c r="C447" s="198"/>
     </row>
     <row r="448" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C448" s="199"/>
+      <c r="C448" s="198"/>
     </row>
     <row r="449" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C449" s="199"/>
+      <c r="C449" s="198"/>
     </row>
     <row r="450" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C450" s="199"/>
+      <c r="C450" s="198"/>
     </row>
     <row r="451" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C451" s="199"/>
+      <c r="C451" s="198"/>
     </row>
     <row r="452" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C452" s="199"/>
+      <c r="C452" s="198"/>
     </row>
     <row r="453" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C453" s="199"/>
+      <c r="C453" s="198"/>
     </row>
     <row r="454" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C454" s="199"/>
+      <c r="C454" s="198"/>
     </row>
     <row r="455" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C455" s="199"/>
+      <c r="C455" s="198"/>
     </row>
     <row r="456" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C456" s="199"/>
+      <c r="C456" s="198"/>
     </row>
     <row r="457" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C457" s="199"/>
+      <c r="C457" s="198"/>
     </row>
     <row r="458" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C458" s="199"/>
+      <c r="C458" s="198"/>
     </row>
     <row r="459" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C459" s="199"/>
+      <c r="C459" s="198"/>
     </row>
     <row r="460" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C460" s="199"/>
+      <c r="C460" s="198"/>
     </row>
     <row r="461" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C461" s="199"/>
+      <c r="C461" s="198"/>
     </row>
     <row r="462" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C462" s="199"/>
+      <c r="C462" s="198"/>
     </row>
     <row r="463" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C463" s="199"/>
+      <c r="C463" s="198"/>
     </row>
     <row r="464" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C464" s="199"/>
+      <c r="C464" s="198"/>
     </row>
     <row r="465" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C465" s="199"/>
+      <c r="C465" s="198"/>
     </row>
     <row r="466" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C466" s="199"/>
+      <c r="C466" s="198"/>
     </row>
     <row r="467" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C467" s="199"/>
+      <c r="C467" s="198"/>
     </row>
     <row r="468" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C468" s="199"/>
+      <c r="C468" s="198"/>
     </row>
     <row r="469" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C469" s="199"/>
+      <c r="C469" s="198"/>
     </row>
     <row r="470" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C470" s="199"/>
+      <c r="C470" s="198"/>
     </row>
     <row r="471" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C471" s="199"/>
+      <c r="C471" s="198"/>
     </row>
     <row r="472" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C472" s="199"/>
+      <c r="C472" s="198"/>
     </row>
     <row r="473" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C473" s="199"/>
+      <c r="C473" s="198"/>
     </row>
     <row r="474" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C474" s="199"/>
+      <c r="C474" s="198"/>
     </row>
     <row r="475" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C475" s="199"/>
+      <c r="C475" s="198"/>
     </row>
     <row r="476" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C476" s="199"/>
+      <c r="C476" s="198"/>
     </row>
     <row r="477" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C477" s="199"/>
+      <c r="C477" s="198"/>
     </row>
     <row r="478" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C478" s="199"/>
+      <c r="C478" s="198"/>
     </row>
     <row r="479" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C479" s="199"/>
+      <c r="C479" s="198"/>
     </row>
     <row r="480" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C480" s="199"/>
+      <c r="C480" s="198"/>
     </row>
     <row r="481" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C481" s="199"/>
+      <c r="C481" s="198"/>
     </row>
     <row r="482" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C482" s="199"/>
+      <c r="C482" s="198"/>
     </row>
     <row r="483" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C483" s="199"/>
+      <c r="C483" s="198"/>
     </row>
     <row r="484" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C484" s="199"/>
+      <c r="C484" s="198"/>
     </row>
     <row r="485" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C485" s="199"/>
+      <c r="C485" s="198"/>
     </row>
     <row r="486" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C486" s="199"/>
+      <c r="C486" s="198"/>
     </row>
     <row r="487" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C487" s="199"/>
+      <c r="C487" s="198"/>
     </row>
     <row r="488" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C488" s="199"/>
+      <c r="C488" s="198"/>
     </row>
     <row r="489" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C489" s="199"/>
+      <c r="C489" s="198"/>
     </row>
     <row r="490" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C490" s="199"/>
+      <c r="C490" s="198"/>
     </row>
     <row r="491" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C491" s="199"/>
+      <c r="C491" s="198"/>
     </row>
     <row r="492" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C492" s="199"/>
+      <c r="C492" s="198"/>
     </row>
     <row r="493" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C493" s="199"/>
+      <c r="C493" s="198"/>
     </row>
     <row r="494" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C494" s="199"/>
+      <c r="C494" s="198"/>
     </row>
     <row r="495" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C495" s="199"/>
+      <c r="C495" s="198"/>
     </row>
     <row r="496" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C496" s="199"/>
+      <c r="C496" s="198"/>
     </row>
     <row r="497" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C497" s="199"/>
+      <c r="C497" s="198"/>
     </row>
     <row r="498" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C498" s="199"/>
+      <c r="C498" s="198"/>
     </row>
     <row r="499" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C499" s="199"/>
+      <c r="C499" s="198"/>
     </row>
     <row r="500" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C500" s="199"/>
+      <c r="C500" s="198"/>
     </row>
     <row r="501" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C501" s="199"/>
+      <c r="C501" s="198"/>
     </row>
     <row r="502" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C502" s="199"/>
+      <c r="C502" s="198"/>
     </row>
     <row r="503" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C503" s="199"/>
+      <c r="C503" s="198"/>
     </row>
     <row r="504" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C504" s="199"/>
+      <c r="C504" s="198"/>
     </row>
     <row r="505" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C505" s="199"/>
+      <c r="C505" s="198"/>
     </row>
     <row r="506" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C506" s="199"/>
+      <c r="C506" s="198"/>
     </row>
     <row r="507" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C507" s="199"/>
+      <c r="C507" s="198"/>
     </row>
     <row r="508" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C508" s="199"/>
+      <c r="C508" s="198"/>
     </row>
     <row r="509" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C509" s="199"/>
+      <c r="C509" s="198"/>
     </row>
     <row r="510" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C510" s="199"/>
+      <c r="C510" s="198"/>
     </row>
     <row r="511" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C511" s="199"/>
+      <c r="C511" s="198"/>
     </row>
     <row r="512" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C512" s="199"/>
+      <c r="C512" s="198"/>
     </row>
     <row r="513" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C513" s="199"/>
+      <c r="C513" s="198"/>
     </row>
     <row r="514" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C514" s="199"/>
+      <c r="C514" s="198"/>
     </row>
     <row r="515" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C515" s="199"/>
+      <c r="C515" s="198"/>
     </row>
     <row r="516" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C516" s="199"/>
+      <c r="C516" s="198"/>
     </row>
     <row r="517" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C517" s="199"/>
+      <c r="C517" s="198"/>
     </row>
     <row r="518" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C518" s="199"/>
+      <c r="C518" s="198"/>
     </row>
     <row r="519" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C519" s="199"/>
+      <c r="C519" s="198"/>
     </row>
     <row r="520" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C520" s="199"/>
+      <c r="C520" s="198"/>
     </row>
     <row r="521" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C521" s="199"/>
+      <c r="C521" s="198"/>
     </row>
     <row r="522" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C522" s="199"/>
+      <c r="C522" s="198"/>
     </row>
     <row r="523" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C523" s="199"/>
+      <c r="C523" s="198"/>
     </row>
     <row r="524" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C524" s="199"/>
+      <c r="C524" s="198"/>
     </row>
     <row r="525" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C525" s="199"/>
+      <c r="C525" s="198"/>
     </row>
     <row r="526" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C526" s="199"/>
+      <c r="C526" s="198"/>
     </row>
     <row r="527" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C527" s="199"/>
+      <c r="C527" s="198"/>
     </row>
     <row r="528" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C528" s="199"/>
+      <c r="C528" s="198"/>
     </row>
     <row r="529" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C529" s="199"/>
+      <c r="C529" s="198"/>
     </row>
     <row r="530" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C530" s="199"/>
+      <c r="C530" s="198"/>
     </row>
     <row r="531" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C531" s="199"/>
+      <c r="C531" s="198"/>
     </row>
     <row r="532" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C532" s="199"/>
+      <c r="C532" s="198"/>
     </row>
     <row r="533" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C533" s="199"/>
+      <c r="C533" s="198"/>
     </row>
     <row r="534" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C534" s="199"/>
+      <c r="C534" s="198"/>
     </row>
     <row r="535" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C535" s="199"/>
+      <c r="C535" s="198"/>
     </row>
     <row r="536" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C536" s="199"/>
+      <c r="C536" s="198"/>
     </row>
     <row r="537" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C537" s="199"/>
+      <c r="C537" s="198"/>
     </row>
     <row r="538" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C538" s="199"/>
+      <c r="C538" s="198"/>
     </row>
     <row r="539" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C539" s="199"/>
+      <c r="C539" s="198"/>
     </row>
     <row r="540" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C540" s="199"/>
+      <c r="C540" s="198"/>
     </row>
     <row r="541" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C541" s="199"/>
+      <c r="C541" s="198"/>
     </row>
     <row r="542" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C542" s="199"/>
+      <c r="C542" s="198"/>
     </row>
     <row r="543" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C543" s="199"/>
+      <c r="C543" s="198"/>
     </row>
     <row r="544" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C544" s="199"/>
+      <c r="C544" s="198"/>
     </row>
     <row r="545" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C545" s="199"/>
+      <c r="C545" s="198"/>
     </row>
     <row r="546" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C546" s="199"/>
+      <c r="C546" s="198"/>
     </row>
     <row r="547" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C547" s="199"/>
+      <c r="C547" s="198"/>
     </row>
     <row r="548" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C548" s="199"/>
+      <c r="C548" s="198"/>
     </row>
     <row r="549" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C549" s="199"/>
+      <c r="C549" s="198"/>
     </row>
     <row r="550" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C550" s="199"/>
+      <c r="C550" s="198"/>
     </row>
     <row r="551" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C551" s="199"/>
+      <c r="C551" s="198"/>
     </row>
     <row r="552" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C552" s="199"/>
+      <c r="C552" s="198"/>
     </row>
     <row r="553" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C553" s="199"/>
+      <c r="C553" s="198"/>
     </row>
     <row r="554" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C554" s="199"/>
+      <c r="C554" s="198"/>
     </row>
     <row r="555" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C555" s="199"/>
+      <c r="C555" s="198"/>
     </row>
     <row r="556" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C556" s="199"/>
+      <c r="C556" s="198"/>
     </row>
     <row r="557" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C557" s="199"/>
+      <c r="C557" s="198"/>
     </row>
     <row r="558" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C558" s="199"/>
+      <c r="C558" s="198"/>
     </row>
     <row r="559" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C559" s="199"/>
+      <c r="C559" s="198"/>
     </row>
     <row r="560" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C560" s="199"/>
+      <c r="C560" s="198"/>
     </row>
     <row r="561" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C561" s="199"/>
+      <c r="C561" s="198"/>
     </row>
     <row r="562" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C562" s="199"/>
+      <c r="C562" s="198"/>
     </row>
     <row r="563" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C563" s="199"/>
+      <c r="C563" s="198"/>
     </row>
     <row r="564" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C564" s="199"/>
+      <c r="C564" s="198"/>
     </row>
     <row r="565" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C565" s="199"/>
+      <c r="C565" s="198"/>
     </row>
     <row r="566" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C566" s="199"/>
+      <c r="C566" s="198"/>
     </row>
     <row r="567" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C567" s="199"/>
+      <c r="C567" s="198"/>
     </row>
     <row r="568" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C568" s="199"/>
+      <c r="C568" s="198"/>
     </row>
     <row r="569" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C569" s="199"/>
+      <c r="C569" s="198"/>
     </row>
     <row r="570" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C570" s="199"/>
+      <c r="C570" s="198"/>
     </row>
     <row r="571" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C571" s="199"/>
+      <c r="C571" s="198"/>
     </row>
     <row r="572" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C572" s="199"/>
+      <c r="C572" s="198"/>
     </row>
     <row r="573" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C573" s="199"/>
+      <c r="C573" s="198"/>
     </row>
     <row r="574" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C574" s="199"/>
+      <c r="C574" s="198"/>
     </row>
     <row r="575" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C575" s="199"/>
+      <c r="C575" s="198"/>
     </row>
     <row r="576" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C576" s="199"/>
+      <c r="C576" s="198"/>
     </row>
     <row r="577" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C577" s="199"/>
+      <c r="C577" s="198"/>
     </row>
     <row r="578" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C578" s="199"/>
+      <c r="C578" s="198"/>
     </row>
     <row r="579" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C579" s="199"/>
+      <c r="C579" s="198"/>
     </row>
     <row r="580" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C580" s="199"/>
+      <c r="C580" s="198"/>
     </row>
     <row r="581" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C581" s="199"/>
+      <c r="C581" s="198"/>
     </row>
     <row r="582" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C582" s="199"/>
+      <c r="C582" s="198"/>
     </row>
     <row r="583" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C583" s="199"/>
+      <c r="C583" s="198"/>
     </row>
     <row r="584" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C584" s="199"/>
+      <c r="C584" s="198"/>
     </row>
     <row r="585" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C585" s="199"/>
+      <c r="C585" s="198"/>
     </row>
     <row r="586" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C586" s="199"/>
+      <c r="C586" s="198"/>
     </row>
     <row r="587" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C587" s="199"/>
+      <c r="C587" s="198"/>
     </row>
     <row r="588" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C588" s="199"/>
+      <c r="C588" s="198"/>
     </row>
     <row r="589" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C589" s="199"/>
+      <c r="C589" s="198"/>
     </row>
     <row r="590" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C590" s="199"/>
+      <c r="C590" s="198"/>
     </row>
     <row r="591" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C591" s="199"/>
+      <c r="C591" s="198"/>
     </row>
     <row r="592" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C592" s="199"/>
+      <c r="C592" s="198"/>
     </row>
     <row r="593" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C593" s="199"/>
+      <c r="C593" s="198"/>
     </row>
     <row r="594" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C594" s="199"/>
+      <c r="C594" s="198"/>
     </row>
     <row r="595" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C595" s="199"/>
+      <c r="C595" s="198"/>
     </row>
     <row r="596" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C596" s="199"/>
+      <c r="C596" s="198"/>
     </row>
     <row r="597" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C597" s="199"/>
+      <c r="C597" s="198"/>
     </row>
     <row r="598" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C598" s="199"/>
+      <c r="C598" s="198"/>
     </row>
     <row r="599" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C599" s="199"/>
+      <c r="C599" s="198"/>
     </row>
     <row r="600" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C600" s="199"/>
+      <c r="C600" s="198"/>
     </row>
     <row r="601" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C601" s="199"/>
+      <c r="C601" s="198"/>
     </row>
     <row r="602" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C602" s="199"/>
+      <c r="C602" s="198"/>
     </row>
     <row r="603" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C603" s="199"/>
+      <c r="C603" s="198"/>
     </row>
     <row r="604" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C604" s="199"/>
+      <c r="C604" s="198"/>
     </row>
     <row r="605" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C605" s="199"/>
+      <c r="C605" s="198"/>
     </row>
     <row r="606" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C606" s="199"/>
+      <c r="C606" s="198"/>
     </row>
     <row r="607" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C607" s="199"/>
+      <c r="C607" s="198"/>
     </row>
     <row r="608" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C608" s="199"/>
+      <c r="C608" s="198"/>
     </row>
     <row r="609" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C609" s="199"/>
+      <c r="C609" s="198"/>
     </row>
     <row r="610" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C610" s="199"/>
+      <c r="C610" s="198"/>
     </row>
     <row r="611" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C611" s="199"/>
+      <c r="C611" s="198"/>
     </row>
     <row r="612" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C612" s="199"/>
+      <c r="C612" s="198"/>
     </row>
     <row r="613" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C613" s="199"/>
+      <c r="C613" s="198"/>
     </row>
     <row r="614" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C614" s="199"/>
+      <c r="C614" s="198"/>
     </row>
     <row r="615" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C615" s="199"/>
+      <c r="C615" s="198"/>
     </row>
     <row r="616" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C616" s="199"/>
+      <c r="C616" s="198"/>
     </row>
     <row r="617" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C617" s="199"/>
+      <c r="C617" s="198"/>
     </row>
     <row r="618" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C618" s="199"/>
+      <c r="C618" s="198"/>
     </row>
     <row r="619" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C619" s="199"/>
+      <c r="C619" s="198"/>
     </row>
     <row r="620" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C620" s="199"/>
+      <c r="C620" s="198"/>
     </row>
     <row r="621" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C621" s="199"/>
+      <c r="C621" s="198"/>
     </row>
     <row r="622" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C622" s="199"/>
+      <c r="C622" s="198"/>
     </row>
     <row r="623" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C623" s="199"/>
+      <c r="C623" s="198"/>
     </row>
     <row r="624" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C624" s="199"/>
+      <c r="C624" s="198"/>
     </row>
     <row r="625" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C625" s="199"/>
+      <c r="C625" s="198"/>
     </row>
     <row r="626" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C626" s="199"/>
+      <c r="C626" s="198"/>
     </row>
     <row r="627" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C627" s="199"/>
+      <c r="C627" s="198"/>
     </row>
     <row r="628" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C628" s="199"/>
+      <c r="C628" s="198"/>
     </row>
     <row r="629" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C629" s="199"/>
+      <c r="C629" s="198"/>
     </row>
     <row r="630" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C630" s="199"/>
+      <c r="C630" s="198"/>
     </row>
     <row r="631" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C631" s="199"/>
+      <c r="C631" s="198"/>
     </row>
     <row r="632" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C632" s="199"/>
+      <c r="C632" s="198"/>
     </row>
     <row r="633" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C633" s="199"/>
+      <c r="C633" s="198"/>
     </row>
     <row r="634" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C634" s="199"/>
+      <c r="C634" s="198"/>
     </row>
     <row r="635" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C635" s="199"/>
+      <c r="C635" s="198"/>
     </row>
     <row r="636" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C636" s="199"/>
+      <c r="C636" s="198"/>
     </row>
     <row r="637" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C637" s="199"/>
+      <c r="C637" s="198"/>
     </row>
     <row r="638" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C638" s="199"/>
+      <c r="C638" s="198"/>
     </row>
     <row r="639" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C639" s="199"/>
+      <c r="C639" s="198"/>
     </row>
     <row r="640" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C640" s="199"/>
+      <c r="C640" s="198"/>
     </row>
     <row r="641" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C641" s="199"/>
+      <c r="C641" s="198"/>
     </row>
     <row r="642" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C642" s="199"/>
+      <c r="C642" s="198"/>
     </row>
     <row r="643" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C643" s="199"/>
+      <c r="C643" s="198"/>
     </row>
     <row r="644" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C644" s="199"/>
+      <c r="C644" s="198"/>
     </row>
     <row r="645" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C645" s="199"/>
+      <c r="C645" s="198"/>
     </row>
     <row r="646" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C646" s="199"/>
+      <c r="C646" s="198"/>
     </row>
     <row r="647" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C647" s="199"/>
+      <c r="C647" s="198"/>
     </row>
     <row r="648" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C648" s="199"/>
+      <c r="C648" s="198"/>
     </row>
     <row r="649" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C649" s="199"/>
+      <c r="C649" s="198"/>
     </row>
     <row r="650" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C650" s="199"/>
+      <c r="C650" s="198"/>
     </row>
     <row r="651" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C651" s="199"/>
+      <c r="C651" s="198"/>
     </row>
     <row r="652" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C652" s="199"/>
+      <c r="C652" s="198"/>
     </row>
     <row r="653" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C653" s="199"/>
+      <c r="C653" s="198"/>
     </row>
     <row r="654" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C654" s="199"/>
+      <c r="C654" s="198"/>
     </row>
     <row r="655" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C655" s="199"/>
+      <c r="C655" s="198"/>
     </row>
     <row r="656" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C656" s="199"/>
+      <c r="C656" s="198"/>
     </row>
     <row r="657" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C657" s="199"/>
+      <c r="C657" s="198"/>
     </row>
     <row r="658" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C658" s="199"/>
+      <c r="C658" s="198"/>
     </row>
     <row r="659" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C659" s="199"/>
+      <c r="C659" s="198"/>
     </row>
     <row r="660" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C660" s="199"/>
+      <c r="C660" s="198"/>
     </row>
     <row r="661" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C661" s="199"/>
+      <c r="C661" s="198"/>
     </row>
     <row r="662" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C662" s="199"/>
+      <c r="C662" s="198"/>
     </row>
     <row r="663" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C663" s="199"/>
+      <c r="C663" s="198"/>
     </row>
     <row r="664" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C664" s="199"/>
+      <c r="C664" s="198"/>
     </row>
     <row r="665" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C665" s="199"/>
+      <c r="C665" s="198"/>
     </row>
     <row r="666" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C666" s="199"/>
+      <c r="C666" s="198"/>
     </row>
     <row r="667" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C667" s="199"/>
+      <c r="C667" s="198"/>
     </row>
     <row r="668" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C668" s="199"/>
+      <c r="C668" s="198"/>
     </row>
     <row r="669" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C669" s="199"/>
+      <c r="C669" s="198"/>
     </row>
     <row r="670" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C670" s="199"/>
+      <c r="C670" s="198"/>
     </row>
     <row r="671" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C671" s="199"/>
+      <c r="C671" s="198"/>
     </row>
     <row r="672" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C672" s="199"/>
+      <c r="C672" s="198"/>
     </row>
     <row r="673" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C673" s="199"/>
+      <c r="C673" s="198"/>
     </row>
     <row r="674" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C674" s="199"/>
+      <c r="C674" s="198"/>
     </row>
     <row r="675" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C675" s="199"/>
+      <c r="C675" s="198"/>
     </row>
     <row r="676" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C676" s="199"/>
+      <c r="C676" s="198"/>
     </row>
     <row r="677" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C677" s="199"/>
+      <c r="C677" s="198"/>
     </row>
     <row r="678" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C678" s="199"/>
+      <c r="C678" s="198"/>
     </row>
     <row r="679" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C679" s="199"/>
+      <c r="C679" s="198"/>
     </row>
     <row r="680" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C680" s="199"/>
+      <c r="C680" s="198"/>
     </row>
     <row r="681" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C681" s="199"/>
+      <c r="C681" s="198"/>
     </row>
     <row r="682" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C682" s="199"/>
+      <c r="C682" s="198"/>
     </row>
     <row r="683" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C683" s="199"/>
+      <c r="C683" s="198"/>
     </row>
     <row r="684" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C684" s="199"/>
+      <c r="C684" s="198"/>
     </row>
     <row r="685" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C685" s="199"/>
+      <c r="C685" s="198"/>
     </row>
     <row r="686" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C686" s="199"/>
+      <c r="C686" s="198"/>
     </row>
     <row r="687" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C687" s="199"/>
+      <c r="C687" s="198"/>
     </row>
     <row r="688" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C688" s="199"/>
+      <c r="C688" s="198"/>
     </row>
     <row r="689" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C689" s="199"/>
+      <c r="C689" s="198"/>
     </row>
     <row r="690" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C690" s="199"/>
+      <c r="C690" s="198"/>
     </row>
     <row r="691" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C691" s="199"/>
+      <c r="C691" s="198"/>
     </row>
     <row r="692" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C692" s="199"/>
+      <c r="C692" s="198"/>
     </row>
     <row r="693" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C693" s="199"/>
+      <c r="C693" s="198"/>
     </row>
     <row r="694" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C694" s="199"/>
+      <c r="C694" s="198"/>
     </row>
     <row r="695" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C695" s="199"/>
+      <c r="C695" s="198"/>
     </row>
     <row r="696" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C696" s="199"/>
+      <c r="C696" s="198"/>
     </row>
     <row r="697" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C697" s="199"/>
+      <c r="C697" s="198"/>
     </row>
     <row r="698" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C698" s="199"/>
+      <c r="C698" s="198"/>
     </row>
     <row r="699" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C699" s="199"/>
+      <c r="C699" s="198"/>
     </row>
     <row r="700" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C700" s="199"/>
+      <c r="C700" s="198"/>
     </row>
     <row r="701" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C701" s="199"/>
+      <c r="C701" s="198"/>
     </row>
     <row r="702" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C702" s="199"/>
+      <c r="C702" s="198"/>
     </row>
     <row r="703" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C703" s="199"/>
+      <c r="C703" s="198"/>
     </row>
     <row r="704" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C704" s="199"/>
+      <c r="C704" s="198"/>
     </row>
     <row r="705" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C705" s="199"/>
+      <c r="C705" s="198"/>
     </row>
     <row r="706" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C706" s="199"/>
+      <c r="C706" s="198"/>
     </row>
     <row r="707" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C707" s="199"/>
+      <c r="C707" s="198"/>
     </row>
     <row r="708" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C708" s="199"/>
+      <c r="C708" s="198"/>
     </row>
     <row r="709" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C709" s="199"/>
+      <c r="C709" s="198"/>
     </row>
     <row r="710" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C710" s="199"/>
+      <c r="C710" s="198"/>
     </row>
     <row r="711" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C711" s="199"/>
+      <c r="C711" s="198"/>
     </row>
     <row r="712" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C712" s="199"/>
+      <c r="C712" s="198"/>
     </row>
     <row r="713" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C713" s="199"/>
+      <c r="C713" s="198"/>
     </row>
     <row r="714" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C714" s="199"/>
+      <c r="C714" s="198"/>
     </row>
     <row r="715" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C715" s="199"/>
+      <c r="C715" s="198"/>
     </row>
     <row r="716" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C716" s="199"/>
+      <c r="C716" s="198"/>
     </row>
     <row r="717" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C717" s="199"/>
+      <c r="C717" s="198"/>
     </row>
     <row r="718" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C718" s="199"/>
+      <c r="C718" s="198"/>
     </row>
     <row r="719" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C719" s="199"/>
+      <c r="C719" s="198"/>
     </row>
     <row r="720" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C720" s="199"/>
+      <c r="C720" s="198"/>
     </row>
     <row r="721" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C721" s="199"/>
+      <c r="C721" s="198"/>
     </row>
     <row r="722" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C722" s="199"/>
+      <c r="C722" s="198"/>
     </row>
     <row r="723" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C723" s="199"/>
+      <c r="C723" s="198"/>
     </row>
     <row r="724" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C724" s="199"/>
+      <c r="C724" s="198"/>
     </row>
     <row r="725" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C725" s="199"/>
+      <c r="C725" s="198"/>
     </row>
     <row r="726" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C726" s="199"/>
+      <c r="C726" s="198"/>
     </row>
     <row r="727" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C727" s="199"/>
+      <c r="C727" s="198"/>
     </row>
     <row r="728" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C728" s="199"/>
+      <c r="C728" s="198"/>
     </row>
     <row r="729" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C729" s="199"/>
+      <c r="C729" s="198"/>
     </row>
     <row r="730" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C730" s="199"/>
+      <c r="C730" s="198"/>
     </row>
     <row r="731" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C731" s="199"/>
+      <c r="C731" s="198"/>
     </row>
     <row r="732" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C732" s="199"/>
+      <c r="C732" s="198"/>
     </row>
     <row r="733" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C733" s="199"/>
+      <c r="C733" s="198"/>
     </row>
     <row r="734" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C734" s="199"/>
+      <c r="C734" s="198"/>
     </row>
     <row r="735" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C735" s="199"/>
+      <c r="C735" s="198"/>
     </row>
     <row r="736" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C736" s="199"/>
+      <c r="C736" s="198"/>
     </row>
     <row r="737" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C737" s="199"/>
+      <c r="C737" s="198"/>
     </row>
     <row r="738" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C738" s="199"/>
+      <c r="C738" s="198"/>
     </row>
     <row r="739" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C739" s="199"/>
+      <c r="C739" s="198"/>
     </row>
     <row r="740" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C740" s="199"/>
+      <c r="C740" s="198"/>
     </row>
     <row r="741" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C741" s="199"/>
+      <c r="C741" s="198"/>
     </row>
     <row r="742" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C742" s="199"/>
+      <c r="C742" s="198"/>
     </row>
     <row r="743" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C743" s="199"/>
+      <c r="C743" s="198"/>
     </row>
     <row r="744" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C744" s="199"/>
+      <c r="C744" s="198"/>
     </row>
     <row r="745" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C745" s="199"/>
+      <c r="C745" s="198"/>
     </row>
     <row r="746" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C746" s="199"/>
+      <c r="C746" s="198"/>
     </row>
     <row r="747" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C747" s="199"/>
+      <c r="C747" s="198"/>
     </row>
     <row r="748" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C748" s="199"/>
+      <c r="C748" s="198"/>
     </row>
     <row r="749" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C749" s="199"/>
+      <c r="C749" s="198"/>
     </row>
     <row r="750" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C750" s="199"/>
+      <c r="C750" s="198"/>
     </row>
     <row r="751" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C751" s="199"/>
+      <c r="C751" s="198"/>
     </row>
     <row r="752" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C752" s="199"/>
+      <c r="C752" s="198"/>
     </row>
     <row r="753" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C753" s="199"/>
+      <c r="C753" s="198"/>
     </row>
     <row r="754" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C754" s="199"/>
+      <c r="C754" s="198"/>
     </row>
     <row r="755" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C755" s="199"/>
+      <c r="C755" s="198"/>
     </row>
     <row r="756" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C756" s="199"/>
+      <c r="C756" s="198"/>
     </row>
     <row r="757" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C757" s="199"/>
+      <c r="C757" s="198"/>
     </row>
     <row r="758" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C758" s="199"/>
+      <c r="C758" s="198"/>
     </row>
     <row r="759" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C759" s="199"/>
+      <c r="C759" s="198"/>
     </row>
     <row r="760" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C760" s="199"/>
+      <c r="C760" s="198"/>
     </row>
     <row r="761" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C761" s="199"/>
+      <c r="C761" s="198"/>
     </row>
     <row r="762" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C762" s="199"/>
+      <c r="C762" s="198"/>
     </row>
     <row r="763" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C763" s="199"/>
+      <c r="C763" s="198"/>
     </row>
     <row r="764" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C764" s="199"/>
+      <c r="C764" s="198"/>
     </row>
     <row r="765" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C765" s="199"/>
+      <c r="C765" s="198"/>
     </row>
     <row r="766" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C766" s="199"/>
+      <c r="C766" s="198"/>
     </row>
     <row r="767" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C767" s="199"/>
+      <c r="C767" s="198"/>
     </row>
     <row r="768" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C768" s="199"/>
+      <c r="C768" s="198"/>
     </row>
     <row r="769" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C769" s="199"/>
+      <c r="C769" s="198"/>
     </row>
     <row r="770" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C770" s="199"/>
+      <c r="C770" s="198"/>
     </row>
     <row r="771" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C771" s="199"/>
+      <c r="C771" s="198"/>
     </row>
     <row r="772" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C772" s="199"/>
+      <c r="C772" s="198"/>
     </row>
     <row r="773" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C773" s="199"/>
+      <c r="C773" s="198"/>
     </row>
     <row r="774" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C774" s="199"/>
+      <c r="C774" s="198"/>
     </row>
     <row r="775" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C775" s="199"/>
+      <c r="C775" s="198"/>
     </row>
     <row r="776" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C776" s="199"/>
+      <c r="C776" s="198"/>
     </row>
     <row r="777" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C777" s="199"/>
+      <c r="C777" s="198"/>
     </row>
     <row r="778" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C778" s="199"/>
+      <c r="C778" s="198"/>
     </row>
     <row r="779" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C779" s="199"/>
+      <c r="C779" s="198"/>
     </row>
     <row r="780" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C780" s="199"/>
+      <c r="C780" s="198"/>
     </row>
     <row r="781" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C781" s="199"/>
+      <c r="C781" s="198"/>
     </row>
     <row r="782" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C782" s="199"/>
+      <c r="C782" s="198"/>
     </row>
     <row r="783" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C783" s="199"/>
+      <c r="C783" s="198"/>
     </row>
     <row r="784" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C784" s="199"/>
+      <c r="C784" s="198"/>
     </row>
     <row r="785" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C785" s="199"/>
+      <c r="C785" s="198"/>
     </row>
     <row r="786" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C786" s="199"/>
+      <c r="C786" s="198"/>
     </row>
     <row r="787" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C787" s="199"/>
+      <c r="C787" s="198"/>
     </row>
     <row r="788" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C788" s="199"/>
+      <c r="C788" s="198"/>
     </row>
     <row r="789" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C789" s="199"/>
+      <c r="C789" s="198"/>
     </row>
     <row r="790" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C790" s="199"/>
+      <c r="C790" s="198"/>
     </row>
     <row r="791" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C791" s="199"/>
+      <c r="C791" s="198"/>
     </row>
     <row r="792" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C792" s="199"/>
+      <c r="C792" s="198"/>
     </row>
     <row r="793" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C793" s="199"/>
+      <c r="C793" s="198"/>
     </row>
     <row r="794" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C794" s="199"/>
+      <c r="C794" s="198"/>
     </row>
     <row r="795" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C795" s="199"/>
+      <c r="C795" s="198"/>
     </row>
     <row r="796" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C796" s="199"/>
+      <c r="C796" s="198"/>
     </row>
     <row r="797" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C797" s="199"/>
+      <c r="C797" s="198"/>
     </row>
     <row r="798" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C798" s="199"/>
+      <c r="C798" s="198"/>
     </row>
     <row r="799" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C799" s="199"/>
+      <c r="C799" s="198"/>
     </row>
     <row r="800" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C800" s="199"/>
+      <c r="C800" s="198"/>
     </row>
     <row r="801" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C801" s="199"/>
+      <c r="C801" s="198"/>
     </row>
     <row r="802" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C802" s="199"/>
+      <c r="C802" s="198"/>
     </row>
     <row r="803" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C803" s="199"/>
+      <c r="C803" s="198"/>
     </row>
     <row r="804" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C804" s="199"/>
+      <c r="C804" s="198"/>
     </row>
     <row r="805" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C805" s="199"/>
+      <c r="C805" s="198"/>
     </row>
     <row r="806" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C806" s="199"/>
+      <c r="C806" s="198"/>
     </row>
     <row r="807" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C807" s="199"/>
+      <c r="C807" s="198"/>
     </row>
     <row r="808" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C808" s="199"/>
+      <c r="C808" s="198"/>
     </row>
     <row r="809" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C809" s="199"/>
+      <c r="C809" s="198"/>
     </row>
     <row r="810" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C810" s="199"/>
+      <c r="C810" s="198"/>
     </row>
     <row r="811" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C811" s="199"/>
+      <c r="C811" s="198"/>
     </row>
     <row r="812" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C812" s="199"/>
+      <c r="C812" s="198"/>
     </row>
     <row r="813" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C813" s="199"/>
+      <c r="C813" s="198"/>
     </row>
     <row r="814" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C814" s="199"/>
+      <c r="C814" s="198"/>
     </row>
     <row r="815" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C815" s="199"/>
+      <c r="C815" s="198"/>
     </row>
     <row r="816" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C816" s="199"/>
+      <c r="C816" s="198"/>
     </row>
     <row r="817" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C817" s="199"/>
+      <c r="C817" s="198"/>
     </row>
     <row r="818" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C818" s="199"/>
+      <c r="C818" s="198"/>
     </row>
     <row r="819" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C819" s="199"/>
+      <c r="C819" s="198"/>
     </row>
     <row r="820" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C820" s="199"/>
+      <c r="C820" s="198"/>
     </row>
     <row r="821" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C821" s="199"/>
+      <c r="C821" s="198"/>
     </row>
     <row r="822" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C822" s="199"/>
+      <c r="C822" s="198"/>
     </row>
     <row r="823" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C823" s="199"/>
+      <c r="C823" s="198"/>
     </row>
     <row r="824" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C824" s="199"/>
+      <c r="C824" s="198"/>
     </row>
     <row r="825" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C825" s="199"/>
+      <c r="C825" s="198"/>
     </row>
     <row r="826" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C826" s="199"/>
+      <c r="C826" s="198"/>
     </row>
     <row r="827" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C827" s="199"/>
+      <c r="C827" s="198"/>
     </row>
     <row r="828" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C828" s="199"/>
+      <c r="C828" s="198"/>
     </row>
     <row r="829" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C829" s="199"/>
+      <c r="C829" s="198"/>
     </row>
     <row r="830" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C830" s="199"/>
+      <c r="C830" s="198"/>
     </row>
     <row r="831" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C831" s="199"/>
+      <c r="C831" s="198"/>
     </row>
     <row r="832" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C832" s="199"/>
+      <c r="C832" s="198"/>
     </row>
     <row r="833" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C833" s="199"/>
+      <c r="C833" s="198"/>
     </row>
     <row r="834" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C834" s="199"/>
+      <c r="C834" s="198"/>
     </row>
     <row r="835" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C835" s="199"/>
+      <c r="C835" s="198"/>
     </row>
     <row r="836" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C836" s="199"/>
+      <c r="C836" s="198"/>
     </row>
     <row r="837" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C837" s="199"/>
+      <c r="C837" s="198"/>
     </row>
     <row r="838" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C838" s="199"/>
+      <c r="C838" s="198"/>
     </row>
     <row r="839" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C839" s="199"/>
+      <c r="C839" s="198"/>
     </row>
     <row r="840" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C840" s="199"/>
+      <c r="C840" s="198"/>
     </row>
     <row r="841" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C841" s="199"/>
+      <c r="C841" s="198"/>
     </row>
     <row r="842" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C842" s="199"/>
+      <c r="C842" s="198"/>
     </row>
     <row r="843" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C843" s="199"/>
+      <c r="C843" s="198"/>
     </row>
     <row r="844" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C844" s="199"/>
+      <c r="C844" s="198"/>
     </row>
     <row r="845" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C845" s="199"/>
+      <c r="C845" s="198"/>
     </row>
     <row r="846" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C846" s="199"/>
+      <c r="C846" s="198"/>
     </row>
     <row r="847" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C847" s="199"/>
+      <c r="C847" s="198"/>
     </row>
     <row r="848" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C848" s="199"/>
+      <c r="C848" s="198"/>
     </row>
     <row r="849" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C849" s="199"/>
+      <c r="C849" s="198"/>
     </row>
     <row r="850" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C850" s="199"/>
+      <c r="C850" s="198"/>
     </row>
     <row r="851" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C851" s="199"/>
+      <c r="C851" s="198"/>
     </row>
     <row r="852" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C852" s="199"/>
+      <c r="C852" s="198"/>
     </row>
     <row r="853" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C853" s="199"/>
+      <c r="C853" s="198"/>
     </row>
     <row r="854" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C854" s="199"/>
+      <c r="C854" s="198"/>
     </row>
     <row r="855" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C855" s="199"/>
+      <c r="C855" s="198"/>
     </row>
     <row r="856" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C856" s="199"/>
+      <c r="C856" s="198"/>
     </row>
     <row r="857" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C857" s="199"/>
+      <c r="C857" s="198"/>
     </row>
     <row r="858" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C858" s="199"/>
+      <c r="C858" s="198"/>
     </row>
     <row r="859" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C859" s="199"/>
+      <c r="C859" s="198"/>
     </row>
     <row r="860" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C860" s="199"/>
+      <c r="C860" s="198"/>
     </row>
     <row r="861" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C861" s="199"/>
+      <c r="C861" s="198"/>
     </row>
     <row r="862" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C862" s="199"/>
+      <c r="C862" s="198"/>
     </row>
     <row r="863" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C863" s="199"/>
+      <c r="C863" s="198"/>
     </row>
     <row r="864" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C864" s="199"/>
+      <c r="C864" s="198"/>
     </row>
     <row r="865" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C865" s="199"/>
+      <c r="C865" s="198"/>
     </row>
     <row r="866" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C866" s="199"/>
+      <c r="C866" s="198"/>
     </row>
     <row r="867" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C867" s="199"/>
+      <c r="C867" s="198"/>
     </row>
     <row r="868" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C868" s="199"/>
+      <c r="C868" s="198"/>
     </row>
     <row r="869" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C869" s="199"/>
+      <c r="C869" s="198"/>
     </row>
     <row r="870" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C870" s="199"/>
+      <c r="C870" s="198"/>
     </row>
     <row r="871" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C871" s="199"/>
+      <c r="C871" s="198"/>
     </row>
     <row r="872" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C872" s="199"/>
+      <c r="C872" s="198"/>
     </row>
     <row r="873" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C873" s="199"/>
+      <c r="C873" s="198"/>
     </row>
     <row r="874" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C874" s="199"/>
+      <c r="C874" s="198"/>
     </row>
     <row r="875" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C875" s="199"/>
+      <c r="C875" s="198"/>
     </row>
     <row r="876" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C876" s="199"/>
+      <c r="C876" s="198"/>
     </row>
     <row r="877" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C877" s="199"/>
+      <c r="C877" s="198"/>
     </row>
     <row r="878" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C878" s="199"/>
+      <c r="C878" s="198"/>
     </row>
     <row r="879" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C879" s="199"/>
+      <c r="C879" s="198"/>
     </row>
     <row r="880" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C880" s="199"/>
+      <c r="C880" s="198"/>
     </row>
     <row r="881" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C881" s="199"/>
+      <c r="C881" s="198"/>
     </row>
     <row r="882" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C882" s="199"/>
+      <c r="C882" s="198"/>
     </row>
     <row r="883" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C883" s="199"/>
+      <c r="C883" s="198"/>
     </row>
     <row r="884" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C884" s="199"/>
+      <c r="C884" s="198"/>
     </row>
     <row r="885" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C885" s="199"/>
+      <c r="C885" s="198"/>
     </row>
     <row r="886" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C886" s="199"/>
+      <c r="C886" s="198"/>
     </row>
     <row r="887" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C887" s="199"/>
+      <c r="C887" s="198"/>
     </row>
     <row r="888" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C888" s="199"/>
+      <c r="C888" s="198"/>
     </row>
     <row r="889" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C889" s="199"/>
+      <c r="C889" s="198"/>
     </row>
     <row r="890" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C890" s="199"/>
+      <c r="C890" s="198"/>
     </row>
     <row r="891" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C891" s="199"/>
+      <c r="C891" s="198"/>
     </row>
     <row r="892" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C892" s="199"/>
+      <c r="C892" s="198"/>
     </row>
     <row r="893" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C893" s="199"/>
+      <c r="C893" s="198"/>
     </row>
     <row r="894" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C894" s="199"/>
+      <c r="C894" s="198"/>
     </row>
     <row r="895" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C895" s="199"/>
+      <c r="C895" s="198"/>
     </row>
     <row r="896" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C896" s="199"/>
+      <c r="C896" s="198"/>
     </row>
     <row r="897" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C897" s="199"/>
+      <c r="C897" s="198"/>
     </row>
     <row r="898" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C898" s="199"/>
+      <c r="C898" s="198"/>
     </row>
     <row r="899" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C899" s="199"/>
+      <c r="C899" s="198"/>
     </row>
     <row r="900" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C900" s="199"/>
+      <c r="C900" s="198"/>
     </row>
     <row r="901" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C901" s="199"/>
+      <c r="C901" s="198"/>
     </row>
     <row r="902" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C902" s="199"/>
+      <c r="C902" s="198"/>
     </row>
     <row r="903" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C903" s="199"/>
+      <c r="C903" s="198"/>
     </row>
     <row r="904" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C904" s="199"/>
+      <c r="C904" s="198"/>
     </row>
     <row r="905" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C905" s="199"/>
+      <c r="C905" s="198"/>
     </row>
     <row r="906" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C906" s="199"/>
+      <c r="C906" s="198"/>
     </row>
     <row r="907" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C907" s="199"/>
+      <c r="C907" s="198"/>
     </row>
     <row r="908" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C908" s="199"/>
+      <c r="C908" s="198"/>
     </row>
     <row r="909" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C909" s="199"/>
+      <c r="C909" s="198"/>
     </row>
     <row r="910" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C910" s="199"/>
+      <c r="C910" s="198"/>
     </row>
     <row r="911" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C911" s="199"/>
+      <c r="C911" s="198"/>
     </row>
     <row r="912" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C912" s="199"/>
+      <c r="C912" s="198"/>
     </row>
     <row r="913" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C913" s="199"/>
+      <c r="C913" s="198"/>
     </row>
     <row r="914" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C914" s="199"/>
+      <c r="C914" s="198"/>
     </row>
     <row r="915" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C915" s="199"/>
+      <c r="C915" s="198"/>
     </row>
     <row r="916" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C916" s="199"/>
+      <c r="C916" s="198"/>
     </row>
     <row r="917" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C917" s="199"/>
+      <c r="C917" s="198"/>
     </row>
     <row r="918" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C918" s="199"/>
+      <c r="C918" s="198"/>
     </row>
     <row r="919" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C919" s="199"/>
+      <c r="C919" s="198"/>
     </row>
     <row r="920" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C920" s="199"/>
+      <c r="C920" s="198"/>
     </row>
     <row r="921" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C921" s="199"/>
+      <c r="C921" s="198"/>
     </row>
     <row r="922" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C922" s="199"/>
+      <c r="C922" s="198"/>
     </row>
     <row r="923" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C923" s="199"/>
+      <c r="C923" s="198"/>
     </row>
     <row r="924" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C924" s="199"/>
+      <c r="C924" s="198"/>
     </row>
     <row r="925" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C925" s="199"/>
+      <c r="C925" s="198"/>
     </row>
     <row r="926" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C926" s="199"/>
+      <c r="C926" s="198"/>
     </row>
     <row r="927" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C927" s="199"/>
+      <c r="C927" s="198"/>
     </row>
     <row r="928" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C928" s="199"/>
+      <c r="C928" s="198"/>
     </row>
     <row r="929" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C929" s="199"/>
+      <c r="C929" s="198"/>
     </row>
     <row r="930" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C930" s="199"/>
+      <c r="C930" s="198"/>
     </row>
     <row r="931" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C931" s="199"/>
+      <c r="C931" s="198"/>
     </row>
     <row r="932" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C932" s="199"/>
+      <c r="C932" s="198"/>
     </row>
     <row r="933" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C933" s="199"/>
+      <c r="C933" s="198"/>
     </row>
     <row r="934" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C934" s="199"/>
+      <c r="C934" s="198"/>
     </row>
     <row r="935" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C935" s="199"/>
+      <c r="C935" s="198"/>
     </row>
     <row r="936" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C936" s="199"/>
+      <c r="C936" s="198"/>
     </row>
     <row r="937" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C937" s="199"/>
+      <c r="C937" s="198"/>
     </row>
     <row r="938" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C938" s="199"/>
+      <c r="C938" s="198"/>
     </row>
     <row r="939" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C939" s="199"/>
+      <c r="C939" s="198"/>
     </row>
     <row r="940" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C940" s="199"/>
+      <c r="C940" s="198"/>
     </row>
     <row r="941" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C941" s="199"/>
+      <c r="C941" s="198"/>
     </row>
     <row r="942" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C942" s="199"/>
+      <c r="C942" s="198"/>
     </row>
     <row r="943" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C943" s="199"/>
+      <c r="C943" s="198"/>
     </row>
     <row r="944" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C944" s="199"/>
+      <c r="C944" s="198"/>
     </row>
     <row r="945" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C945" s="199"/>
+      <c r="C945" s="198"/>
     </row>
     <row r="946" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C946" s="199"/>
+      <c r="C946" s="198"/>
     </row>
     <row r="947" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C947" s="199"/>
+      <c r="C947" s="198"/>
     </row>
     <row r="948" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C948" s="199"/>
+      <c r="C948" s="198"/>
     </row>
     <row r="949" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C949" s="199"/>
+      <c r="C949" s="198"/>
     </row>
     <row r="950" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C950" s="199"/>
+      <c r="C950" s="198"/>
     </row>
     <row r="951" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C951" s="199"/>
+      <c r="C951" s="198"/>
     </row>
     <row r="952" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C952" s="199"/>
+      <c r="C952" s="198"/>
     </row>
     <row r="953" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C953" s="199"/>
+      <c r="C953" s="198"/>
     </row>
     <row r="954" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C954" s="199"/>
+      <c r="C954" s="198"/>
     </row>
     <row r="955" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C955" s="199"/>
+      <c r="C955" s="198"/>
     </row>
     <row r="956" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C956" s="199"/>
+      <c r="C956" s="198"/>
     </row>
     <row r="957" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C957" s="199"/>
+      <c r="C957" s="198"/>
     </row>
     <row r="958" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C958" s="199"/>
+      <c r="C958" s="198"/>
     </row>
     <row r="959" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C959" s="199"/>
+      <c r="C959" s="198"/>
     </row>
     <row r="960" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C960" s="199"/>
+      <c r="C960" s="198"/>
     </row>
     <row r="961" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C961" s="199"/>
+      <c r="C961" s="198"/>
     </row>
     <row r="962" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C962" s="199"/>
+      <c r="C962" s="198"/>
     </row>
     <row r="963" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C963" s="199"/>
+      <c r="C963" s="198"/>
     </row>
     <row r="964" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C964" s="199"/>
+      <c r="C964" s="198"/>
     </row>
     <row r="965" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C965" s="199"/>
+      <c r="C965" s="198"/>
     </row>
     <row r="966" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C966" s="199"/>
+      <c r="C966" s="198"/>
     </row>
     <row r="967" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C967" s="199"/>
+      <c r="C967" s="198"/>
     </row>
     <row r="968" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C968" s="199"/>
+      <c r="C968" s="198"/>
     </row>
     <row r="969" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C969" s="199"/>
+      <c r="C969" s="198"/>
     </row>
     <row r="970" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C970" s="199"/>
+      <c r="C970" s="198"/>
     </row>
     <row r="971" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C971" s="199"/>
+      <c r="C971" s="198"/>
     </row>
     <row r="972" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C972" s="199"/>
+      <c r="C972" s="198"/>
     </row>
     <row r="973" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C973" s="199"/>
+      <c r="C973" s="198"/>
     </row>
     <row r="974" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C974" s="199"/>
+      <c r="C974" s="198"/>
     </row>
     <row r="975" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C975" s="199"/>
+      <c r="C975" s="198"/>
     </row>
     <row r="976" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C976" s="199"/>
+      <c r="C976" s="198"/>
     </row>
     <row r="977" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C977" s="199"/>
+      <c r="C977" s="198"/>
     </row>
     <row r="978" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C978" s="199"/>
+      <c r="C978" s="198"/>
     </row>
     <row r="979" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C979" s="199"/>
+      <c r="C979" s="198"/>
     </row>
     <row r="980" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C980" s="199"/>
+      <c r="C980" s="198"/>
     </row>
     <row r="981" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C981" s="199"/>
+      <c r="C981" s="198"/>
     </row>
     <row r="982" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C982" s="199"/>
+      <c r="C982" s="198"/>
     </row>
     <row r="983" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C983" s="199"/>
+      <c r="C983" s="198"/>
     </row>
     <row r="984" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C984" s="199"/>
+      <c r="C984" s="198"/>
     </row>
     <row r="985" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C985" s="199"/>
+      <c r="C985" s="198"/>
     </row>
     <row r="986" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C986" s="199"/>
+      <c r="C986" s="198"/>
     </row>
     <row r="987" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C987" s="199"/>
+      <c r="C987" s="198"/>
     </row>
     <row r="988" spans="3:3" ht="16.5" customHeight="1">
-      <c r="C988" s="199"/>
+      <c r="C988" s="198"/>
+    </row>
+    <row r="989" spans="3:3" ht="16.5" customHeight="1">
+      <c r="C989" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -9647,12 +9899,13 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B36" r:id="rId1" xr:uid="{4979F45E-7C3C-4B7F-BAA2-A859A4FAFF1F}"/>
-    <hyperlink ref="B35" r:id="rId2" display="AMC GI 게시판" xr:uid="{41DC7969-F268-4D91-885F-E0E4B7AF65AC}"/>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{4979F45E-7C3C-4B7F-BAA2-A859A4FAFF1F}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{41DC7969-F268-4D91-885F-E0E4B7AF65AC}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{E1A80070-BA18-4B16-B2A2-6B151B1A3A52}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -9664,7 +9917,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9693,7 +9946,7 @@
     <col min="22" max="22" width="25.7109375" customWidth="1"/>
     <col min="23" max="23" width="1.85546875" customWidth="1"/>
     <col min="24" max="24" width="1.28515625" customWidth="1"/>
-    <col min="25" max="25" width="29.42578125" customWidth="1"/>
+    <col min="25" max="25" width="34.28515625" customWidth="1"/>
     <col min="26" max="26" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9978,8 +10231,8 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
       <c r="X9" s="23"/>
-      <c r="Y9" s="68" t="s">
-        <v>39</v>
+      <c r="Y9" s="291" t="s">
+        <v>98</v>
       </c>
       <c r="Z9" s="24"/>
     </row>
@@ -10010,8 +10263,8 @@
       <c r="V10" s="21"/>
       <c r="W10" s="22"/>
       <c r="X10" s="23"/>
-      <c r="Y10" s="69" t="s">
-        <v>40</v>
+      <c r="Y10" s="68" t="s">
+        <v>99</v>
       </c>
       <c r="Z10" s="24"/>
     </row>
@@ -10106,8 +10359,8 @@
       </c>
       <c r="W13" s="38"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="68" t="s">
-        <v>37</v>
+      <c r="Y13" s="291" t="s">
+        <v>100</v>
       </c>
       <c r="Z13" s="24"/>
     </row>
@@ -10143,7 +10396,7 @@
       <c r="W14" s="38"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="67" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="Z14" s="24"/>
     </row>
@@ -10174,7 +10427,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="37"/>
       <c r="V15" s="59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="W15" s="38"/>
       <c r="X15" s="23"/>
@@ -10206,11 +10459,13 @@
       <c r="T16" s="7"/>
       <c r="U16" s="63"/>
       <c r="V16" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W16" s="64"/>
       <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
+      <c r="Y16" s="237" t="s">
+        <v>102</v>
+      </c>
       <c r="Z16" s="65"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
@@ -10240,11 +10495,13 @@
       <c r="T17" s="58"/>
       <c r="U17" s="37"/>
       <c r="V17" s="59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="W17" s="38"/>
       <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
+      <c r="Y17" s="67" t="s">
+        <v>103</v>
+      </c>
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
@@ -10344,10 +10601,10 @@
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="261"/>
-      <c r="C21" s="234"/>
+      <c r="C21" s="233"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
-      <c r="F21" s="235"/>
+      <c r="F21" s="234"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
@@ -10366,9 +10623,9 @@
       <c r="T21" s="7"/>
       <c r="U21" s="63"/>
       <c r="V21" s="59" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
-      <c r="W21" s="236"/>
+      <c r="W21" s="235"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="65"/>
@@ -10395,7 +10652,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="37"/>
       <c r="V22" s="59" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="W22" s="47"/>
       <c r="X22" s="23"/>
@@ -37891,6 +38148,7 @@
   <hyperlinks>
     <hyperlink ref="Y10" r:id="rId1" display="https://edu.amc.seoul.kr/" xr:uid="{E1C85D80-62D2-4A04-8038-96517482501D}"/>
     <hyperlink ref="Y14" r:id="rId2" display="https://gi-training.streamlit.app/" xr:uid="{809ABBD8-A99D-4363-99D2-452E249A0201}"/>
+    <hyperlink ref="Y17" r:id="rId3" display="(https://amcgic-bulletin-v2.streamlit.app/)" xr:uid="{BA02AB11-A27D-4221-AE06-571CAB692BD4}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/Active_workspace/streamlit_amcgic_bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40A36D10-8528-4CF6-AF78-55CEDB4C5172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{F765A5D1-4D06-471A-89C3-B4438D485EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="390" windowWidth="36615" windowHeight="20265" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38790" yWindow="390" windowWidth="36615" windowHeight="20265" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상부 내시경 교육프로그램 연간 일정" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>Simulation Center</t>
   </si>
@@ -2033,89 +2033,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교육에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PW; 3180</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">EUS </t>
     </r>
     <r>
@@ -2709,12 +2626,109 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">안내 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PW; 3180</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이터 이용 EGD basic training 관련 자료 및 수행 결과 업로드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2931,6 +2945,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="20">
@@ -5410,14 +5431,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="126" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5637,8 +5658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE989"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI33" sqref="AI33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6846,7 +6867,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="226" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="206"/>
       <c r="E33" s="206"/>
@@ -6915,10 +6936,10 @@
     </row>
     <row r="35" spans="2:31" ht="16.5" customHeight="1">
       <c r="B35" s="219" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="236" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D35" s="206"/>
       <c r="E35" s="206"/>
@@ -6951,41 +6972,43 @@
     </row>
     <row r="36" spans="2:31" ht="16.5" customHeight="1">
       <c r="B36" s="292" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="294"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="294"/>
-      <c r="H36" s="294"/>
-      <c r="I36" s="294"/>
-      <c r="J36" s="294"/>
-      <c r="K36" s="294"/>
-      <c r="L36" s="294"/>
-      <c r="M36" s="294"/>
-      <c r="N36" s="294"/>
-      <c r="O36" s="294"/>
-      <c r="P36" s="294"/>
-      <c r="Q36" s="294"/>
-      <c r="R36" s="294"/>
-      <c r="S36" s="294"/>
-      <c r="T36" s="294"/>
-      <c r="U36" s="294"/>
-      <c r="V36" s="294"/>
-      <c r="W36" s="294"/>
-      <c r="X36" s="294"/>
-      <c r="Y36" s="294"/>
-      <c r="Z36" s="294"/>
-      <c r="AA36" s="294"/>
-      <c r="AB36" s="294"/>
-      <c r="AC36" s="294"/>
-      <c r="AD36" s="295"/>
-      <c r="AE36" s="296"/>
+      <c r="C36" s="296" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="293"/>
+      <c r="E36" s="293"/>
+      <c r="F36" s="293"/>
+      <c r="G36" s="293"/>
+      <c r="H36" s="293"/>
+      <c r="I36" s="293"/>
+      <c r="J36" s="293"/>
+      <c r="K36" s="293"/>
+      <c r="L36" s="293"/>
+      <c r="M36" s="293"/>
+      <c r="N36" s="293"/>
+      <c r="O36" s="293"/>
+      <c r="P36" s="293"/>
+      <c r="Q36" s="293"/>
+      <c r="R36" s="293"/>
+      <c r="S36" s="293"/>
+      <c r="T36" s="293"/>
+      <c r="U36" s="293"/>
+      <c r="V36" s="293"/>
+      <c r="W36" s="293"/>
+      <c r="X36" s="293"/>
+      <c r="Y36" s="293"/>
+      <c r="Z36" s="293"/>
+      <c r="AA36" s="293"/>
+      <c r="AB36" s="293"/>
+      <c r="AC36" s="293"/>
+      <c r="AD36" s="294"/>
+      <c r="AE36" s="295"/>
     </row>
     <row r="37" spans="2:31" ht="16.5" customHeight="1" thickBot="1">
       <c r="B37" s="220" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="110" t="s">
         <v>84</v>
@@ -9916,7 +9939,7 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -10232,7 +10255,7 @@
       <c r="W9" s="22"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="291" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z9" s="24"/>
     </row>
@@ -10264,7 +10287,7 @@
       <c r="W10" s="22"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z10" s="24"/>
     </row>
@@ -10360,7 +10383,7 @@
       <c r="W13" s="38"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="291" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z13" s="24"/>
     </row>
@@ -10396,7 +10419,7 @@
       <c r="W14" s="38"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z14" s="24"/>
     </row>
@@ -10464,7 +10487,7 @@
       <c r="W16" s="64"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="237" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z16" s="65"/>
     </row>
@@ -10500,7 +10523,7 @@
       <c r="W17" s="38"/>
       <c r="X17" s="23"/>
       <c r="Y17" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z17" s="24"/>
     </row>

--- a/pages/data/EGD_training_programs.xlsx
+++ b/pages/data/EGD_training_programs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/Active_workspace/streamlit_amcgic_bulletin/pages/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{F765A5D1-4D06-471A-89C3-B4438D485EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{50265534-8A32-4119-8C12-6D9110B376E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="390" windowWidth="36615" windowHeight="20265" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상부 내시경 교육프로그램 연간 일정" sheetId="1" r:id="rId1"/>
@@ -1780,42 +1780,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">PBL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>훈련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개발 중)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">AI patient Hx taking </t>
     </r>
     <r>
@@ -2635,6 +2599,166 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>시뮬레이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EGD basic training </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업로드</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>교육에</t>
     </r>
     <r>
@@ -2720,7 +2844,39 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>시뮬레이터 이용 EGD basic training 관련 자료 및 수행 결과 업로드</t>
+    <r>
+      <t xml:space="preserve">PBL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>훈련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (14 cases</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2954,7 +3110,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3067,6 +3223,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor rgb="FFE36C09"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4625,7 +4787,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="57"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5220,15 +5382,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5318,17 +5471,18 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="126" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5352,6 +5506,10 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5367,42 +5525,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5425,19 +5554,55 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="126" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="130" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="131" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="126" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5658,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE989"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5684,67 +5849,67 @@
       </c>
       <c r="D2" s="71"/>
       <c r="E2" s="72"/>
-      <c r="F2" s="238" t="s">
+      <c r="F2" s="250" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="239"/>
-      <c r="H2" s="238" t="s">
+      <c r="G2" s="251"/>
+      <c r="H2" s="250" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="239"/>
-      <c r="J2" s="238" t="s">
+      <c r="I2" s="251"/>
+      <c r="J2" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="239"/>
-      <c r="L2" s="238" t="s">
+      <c r="K2" s="251"/>
+      <c r="L2" s="250" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="239"/>
-      <c r="N2" s="238" t="s">
+      <c r="M2" s="251"/>
+      <c r="N2" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="239"/>
-      <c r="P2" s="238" t="s">
+      <c r="O2" s="251"/>
+      <c r="P2" s="250" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="242"/>
-      <c r="R2" s="238" t="s">
+      <c r="Q2" s="259"/>
+      <c r="R2" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="239"/>
-      <c r="T2" s="238" t="s">
+      <c r="S2" s="251"/>
+      <c r="T2" s="250" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="239"/>
-      <c r="V2" s="238" t="s">
+      <c r="U2" s="251"/>
+      <c r="V2" s="250" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="239"/>
-      <c r="X2" s="238" t="s">
+      <c r="W2" s="251"/>
+      <c r="X2" s="250" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="238" t="s">
+      <c r="Y2" s="251"/>
+      <c r="Z2" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="238" t="s">
+      <c r="AA2" s="251"/>
+      <c r="AB2" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="238" t="s">
+      <c r="AC2" s="251"/>
+      <c r="AD2" s="250" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="239"/>
+      <c r="AE2" s="251"/>
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="241" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="252" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="249" t="s">
+      <c r="D3" s="247" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="74" t="s">
@@ -5778,7 +5943,7 @@
       <c r="AE3" s="82"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B4" s="244"/>
+      <c r="B4" s="242"/>
       <c r="C4" s="253"/>
       <c r="D4" s="255"/>
       <c r="E4" s="85" t="s">
@@ -5812,7 +5977,7 @@
       <c r="AE4" s="93"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B5" s="244"/>
+      <c r="B5" s="242"/>
       <c r="C5" s="254"/>
       <c r="D5" s="255"/>
       <c r="E5" s="97" t="s">
@@ -5846,7 +6011,7 @@
       <c r="AE5" s="101"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B6" s="244"/>
+      <c r="B6" s="242"/>
       <c r="C6" s="254"/>
       <c r="D6" s="255"/>
       <c r="E6" s="97" t="s">
@@ -5880,7 +6045,7 @@
       <c r="AE6" s="101"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1">
-      <c r="B7" s="244"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="254"/>
       <c r="D7" s="255"/>
       <c r="E7" s="97" t="s">
@@ -5914,7 +6079,7 @@
       <c r="AE7" s="101"/>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B8" s="245"/>
+      <c r="B8" s="243"/>
       <c r="C8" s="109" t="s">
         <v>64</v>
       </c>
@@ -6105,7 +6270,7 @@
       <c r="C13" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="246" t="s">
+      <c r="D13" s="244" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="129" t="s">
@@ -6146,7 +6311,7 @@
       <c r="C14" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="247"/>
+      <c r="D14" s="245"/>
       <c r="E14" s="135" t="s">
         <v>72</v>
       </c>
@@ -6185,7 +6350,7 @@
       <c r="C15" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="247"/>
+      <c r="D15" s="245"/>
       <c r="E15" s="135" t="s">
         <v>41</v>
       </c>
@@ -6224,7 +6389,7 @@
       <c r="C16" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="247"/>
+      <c r="D16" s="245"/>
       <c r="E16" s="135" t="s">
         <v>85</v>
       </c>
@@ -6263,7 +6428,7 @@
       <c r="C17" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="247"/>
+      <c r="D17" s="245"/>
       <c r="E17" s="135" t="s">
         <v>73</v>
       </c>
@@ -6302,7 +6467,7 @@
       <c r="C18" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="247"/>
+      <c r="D18" s="245"/>
       <c r="E18" s="144" t="s">
         <v>11</v>
       </c>
@@ -6341,7 +6506,7 @@
       <c r="C19" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="247"/>
+      <c r="D19" s="245"/>
       <c r="E19" s="135" t="s">
         <v>75</v>
       </c>
@@ -6380,7 +6545,7 @@
       <c r="C20" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="248"/>
+      <c r="D20" s="246"/>
       <c r="E20" s="146" t="s">
         <v>77</v>
       </c>
@@ -6418,7 +6583,7 @@
       <c r="C21" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="249" t="s">
+      <c r="D21" s="247" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="149" t="s">
@@ -6432,8 +6597,8 @@
       <c r="K21" s="151"/>
       <c r="L21" s="152"/>
       <c r="M21" s="153"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="229"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="226"/>
       <c r="P21" s="154"/>
       <c r="Q21" s="155"/>
       <c r="R21" s="152"/>
@@ -6458,9 +6623,9 @@
       <c r="C22" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="250"/>
+      <c r="D22" s="248"/>
       <c r="E22" s="157" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="158"/>
       <c r="G22" s="159"/>
@@ -6470,8 +6635,8 @@
       <c r="K22" s="159"/>
       <c r="L22" s="160"/>
       <c r="M22" s="161"/>
-      <c r="N22" s="228"/>
-      <c r="O22" s="230"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="227"/>
       <c r="P22" s="160"/>
       <c r="Q22" s="162"/>
       <c r="R22" s="160"/>
@@ -6496,7 +6661,7 @@
       <c r="C23" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="250"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="157" t="s">
         <v>80</v>
       </c>
@@ -6508,8 +6673,8 @@
       <c r="K23" s="159"/>
       <c r="L23" s="160"/>
       <c r="M23" s="161"/>
-      <c r="N23" s="228"/>
-      <c r="O23" s="230"/>
+      <c r="N23" s="225"/>
+      <c r="O23" s="227"/>
       <c r="P23" s="160"/>
       <c r="Q23" s="162"/>
       <c r="R23" s="160"/>
@@ -6534,9 +6699,9 @@
       <c r="C24" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="250"/>
+      <c r="D24" s="248"/>
       <c r="E24" s="157" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="158"/>
       <c r="G24" s="159"/>
@@ -6548,21 +6713,21 @@
       <c r="M24" s="161"/>
       <c r="N24" s="160"/>
       <c r="O24" s="161"/>
-      <c r="P24" s="231"/>
-      <c r="Q24" s="232"/>
-      <c r="R24" s="231"/>
-      <c r="S24" s="230"/>
-      <c r="T24" s="231"/>
-      <c r="U24" s="230"/>
-      <c r="V24" s="231"/>
-      <c r="W24" s="230"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="230"/>
-      <c r="Z24" s="231"/>
-      <c r="AA24" s="230"/>
-      <c r="AB24" s="231"/>
-      <c r="AC24" s="230"/>
-      <c r="AD24" s="231"/>
+      <c r="P24" s="228"/>
+      <c r="Q24" s="229"/>
+      <c r="R24" s="228"/>
+      <c r="S24" s="227"/>
+      <c r="T24" s="228"/>
+      <c r="U24" s="227"/>
+      <c r="V24" s="228"/>
+      <c r="W24" s="227"/>
+      <c r="X24" s="228"/>
+      <c r="Y24" s="227"/>
+      <c r="Z24" s="228"/>
+      <c r="AA24" s="227"/>
+      <c r="AB24" s="228"/>
+      <c r="AC24" s="227"/>
+      <c r="AD24" s="228"/>
       <c r="AE24" s="161"/>
     </row>
     <row r="25" spans="1:31" ht="16.5" customHeight="1">
@@ -6572,9 +6737,9 @@
       <c r="C25" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="250"/>
+      <c r="D25" s="248"/>
       <c r="E25" s="157" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="158"/>
       <c r="G25" s="159"/>
@@ -6584,23 +6749,23 @@
       <c r="K25" s="159"/>
       <c r="L25" s="160"/>
       <c r="M25" s="161"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="230"/>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="232"/>
-      <c r="R25" s="231"/>
-      <c r="S25" s="230"/>
-      <c r="T25" s="231"/>
-      <c r="U25" s="230"/>
-      <c r="V25" s="231"/>
-      <c r="W25" s="230"/>
-      <c r="X25" s="231"/>
-      <c r="Y25" s="230"/>
-      <c r="Z25" s="231"/>
-      <c r="AA25" s="230"/>
-      <c r="AB25" s="231"/>
-      <c r="AC25" s="230"/>
-      <c r="AD25" s="231"/>
+      <c r="N25" s="228"/>
+      <c r="O25" s="227"/>
+      <c r="P25" s="228"/>
+      <c r="Q25" s="229"/>
+      <c r="R25" s="228"/>
+      <c r="S25" s="227"/>
+      <c r="T25" s="228"/>
+      <c r="U25" s="227"/>
+      <c r="V25" s="228"/>
+      <c r="W25" s="227"/>
+      <c r="X25" s="228"/>
+      <c r="Y25" s="227"/>
+      <c r="Z25" s="228"/>
+      <c r="AA25" s="227"/>
+      <c r="AB25" s="228"/>
+      <c r="AC25" s="227"/>
+      <c r="AD25" s="228"/>
       <c r="AE25" s="161"/>
     </row>
     <row r="26" spans="1:31" ht="16.5" customHeight="1">
@@ -6610,9 +6775,9 @@
       <c r="C26" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="250"/>
+      <c r="D26" s="248"/>
       <c r="E26" s="164" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="158"/>
       <c r="G26" s="159"/>
@@ -6648,9 +6813,9 @@
       <c r="C27" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="250"/>
+      <c r="D27" s="248"/>
       <c r="E27" s="164" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F27" s="158"/>
       <c r="G27" s="159"/>
@@ -6658,25 +6823,25 @@
       <c r="I27" s="159"/>
       <c r="J27" s="158"/>
       <c r="K27" s="159"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="201"/>
-      <c r="P27" s="200"/>
-      <c r="Q27" s="202"/>
-      <c r="R27" s="165"/>
-      <c r="S27" s="166"/>
-      <c r="T27" s="165"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="165"/>
-      <c r="W27" s="166"/>
-      <c r="X27" s="199"/>
-      <c r="Y27" s="166"/>
-      <c r="Z27" s="165"/>
-      <c r="AA27" s="166"/>
-      <c r="AB27" s="165"/>
-      <c r="AC27" s="166"/>
-      <c r="AD27" s="165"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="295"/>
+      <c r="N27" s="294"/>
+      <c r="O27" s="295"/>
+      <c r="P27" s="294"/>
+      <c r="Q27" s="296"/>
+      <c r="R27" s="294"/>
+      <c r="S27" s="295"/>
+      <c r="T27" s="294"/>
+      <c r="U27" s="295"/>
+      <c r="V27" s="294"/>
+      <c r="W27" s="295"/>
+      <c r="X27" s="297"/>
+      <c r="Y27" s="295"/>
+      <c r="Z27" s="294"/>
+      <c r="AA27" s="295"/>
+      <c r="AB27" s="294"/>
+      <c r="AC27" s="295"/>
+      <c r="AD27" s="294"/>
       <c r="AE27" s="166"/>
     </row>
     <row r="28" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
@@ -6684,7 +6849,7 @@
       <c r="C28" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="251"/>
+      <c r="D28" s="249"/>
       <c r="E28" s="171" t="s">
         <v>44</v>
       </c>
@@ -6721,7 +6886,7 @@
       <c r="C29" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="240" t="s">
+      <c r="D29" s="257" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="179" t="s">
@@ -6759,9 +6924,9 @@
       <c r="C30" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="241"/>
+      <c r="D30" s="258"/>
       <c r="E30" s="190" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="191"/>
       <c r="G30" s="192"/>
@@ -6773,58 +6938,58 @@
       <c r="M30" s="196"/>
       <c r="N30" s="195"/>
       <c r="O30" s="196"/>
-      <c r="P30" s="203"/>
-      <c r="Q30" s="204"/>
-      <c r="R30" s="203"/>
+      <c r="P30" s="200"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="200"/>
       <c r="S30" s="84"/>
-      <c r="T30" s="203"/>
+      <c r="T30" s="200"/>
       <c r="U30" s="84"/>
-      <c r="V30" s="203"/>
+      <c r="V30" s="200"/>
       <c r="W30" s="84"/>
-      <c r="X30" s="203"/>
+      <c r="X30" s="200"/>
       <c r="Y30" s="84"/>
-      <c r="Z30" s="203"/>
+      <c r="Z30" s="200"/>
       <c r="AA30" s="84"/>
-      <c r="AB30" s="203"/>
+      <c r="AB30" s="200"/>
       <c r="AC30" s="84"/>
-      <c r="AD30" s="203"/>
+      <c r="AD30" s="200"/>
       <c r="AE30" s="84"/>
     </row>
     <row r="31" spans="1:31" ht="16.5" customHeight="1" thickBot="1">
       <c r="B31" s="197"/>
-      <c r="C31" s="208" t="s">
+      <c r="C31" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="241"/>
-      <c r="E31" s="209" t="s">
-        <v>88</v>
+      <c r="D31" s="258"/>
+      <c r="E31" s="206" t="s">
+        <v>87</v>
       </c>
-      <c r="F31" s="210"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="213"/>
-      <c r="L31" s="214"/>
-      <c r="M31" s="215"/>
-      <c r="N31" s="214"/>
-      <c r="O31" s="215"/>
-      <c r="P31" s="214"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="214"/>
-      <c r="S31" s="215"/>
-      <c r="T31" s="214"/>
-      <c r="U31" s="215"/>
-      <c r="V31" s="214"/>
-      <c r="W31" s="215"/>
-      <c r="X31" s="214"/>
-      <c r="Y31" s="215"/>
-      <c r="Z31" s="214"/>
-      <c r="AA31" s="215"/>
-      <c r="AB31" s="214"/>
-      <c r="AC31" s="215"/>
-      <c r="AD31" s="214"/>
-      <c r="AE31" s="215"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="210"/>
+      <c r="L31" s="211"/>
+      <c r="M31" s="212"/>
+      <c r="N31" s="211"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="211"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="211"/>
+      <c r="S31" s="212"/>
+      <c r="T31" s="211"/>
+      <c r="U31" s="212"/>
+      <c r="V31" s="211"/>
+      <c r="W31" s="212"/>
+      <c r="X31" s="211"/>
+      <c r="Y31" s="212"/>
+      <c r="Z31" s="211"/>
+      <c r="AA31" s="212"/>
+      <c r="AB31" s="211"/>
+      <c r="AC31" s="212"/>
+      <c r="AD31" s="211"/>
+      <c r="AE31" s="212"/>
     </row>
     <row r="32" spans="1:31" ht="16.5" customHeight="1">
       <c r="B32" s="189" t="s">
@@ -6833,214 +6998,214 @@
       <c r="C32" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="205"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="205"/>
-      <c r="N32" s="205"/>
-      <c r="O32" s="205"/>
-      <c r="P32" s="205"/>
-      <c r="Q32" s="205"/>
-      <c r="R32" s="205"/>
-      <c r="S32" s="205"/>
-      <c r="T32" s="205"/>
-      <c r="U32" s="205"/>
-      <c r="V32" s="205"/>
-      <c r="W32" s="205"/>
-      <c r="X32" s="205"/>
-      <c r="Y32" s="205"/>
-      <c r="Z32" s="205"/>
-      <c r="AA32" s="205"/>
-      <c r="AB32" s="205"/>
-      <c r="AC32" s="205"/>
-      <c r="AD32" s="221"/>
-      <c r="AE32" s="222"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="202"/>
+      <c r="F32" s="202"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="202"/>
+      <c r="J32" s="202"/>
+      <c r="K32" s="202"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="202"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="202"/>
+      <c r="R32" s="202"/>
+      <c r="S32" s="202"/>
+      <c r="T32" s="202"/>
+      <c r="U32" s="202"/>
+      <c r="V32" s="202"/>
+      <c r="W32" s="202"/>
+      <c r="X32" s="202"/>
+      <c r="Y32" s="202"/>
+      <c r="Z32" s="202"/>
+      <c r="AA32" s="202"/>
+      <c r="AB32" s="202"/>
+      <c r="AC32" s="202"/>
+      <c r="AD32" s="218"/>
+      <c r="AE32" s="219"/>
     </row>
     <row r="33" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B33" s="218" t="s">
+      <c r="B33" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="226" t="s">
-        <v>96</v>
+      <c r="C33" s="223" t="s">
+        <v>95</v>
       </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="206"/>
-      <c r="L33" s="206"/>
-      <c r="M33" s="206"/>
-      <c r="N33" s="206"/>
-      <c r="O33" s="206"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="206"/>
-      <c r="R33" s="206"/>
-      <c r="S33" s="206"/>
-      <c r="T33" s="206"/>
-      <c r="U33" s="206"/>
-      <c r="V33" s="206"/>
-      <c r="W33" s="206"/>
-      <c r="X33" s="206"/>
-      <c r="Y33" s="206"/>
-      <c r="Z33" s="206"/>
-      <c r="AA33" s="206"/>
-      <c r="AB33" s="206"/>
-      <c r="AC33" s="206"/>
-      <c r="AD33" s="217"/>
-      <c r="AE33" s="223"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="203"/>
+      <c r="S33" s="203"/>
+      <c r="T33" s="203"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="203"/>
+      <c r="W33" s="203"/>
+      <c r="X33" s="203"/>
+      <c r="Y33" s="203"/>
+      <c r="Z33" s="203"/>
+      <c r="AA33" s="203"/>
+      <c r="AB33" s="203"/>
+      <c r="AC33" s="203"/>
+      <c r="AD33" s="214"/>
+      <c r="AE33" s="220"/>
     </row>
     <row r="34" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B34" s="218" t="s">
+      <c r="B34" s="215" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="206"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="206"/>
-      <c r="K34" s="206"/>
-      <c r="L34" s="206"/>
-      <c r="M34" s="206"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206"/>
-      <c r="P34" s="206"/>
-      <c r="Q34" s="206"/>
-      <c r="R34" s="206"/>
-      <c r="S34" s="206"/>
-      <c r="T34" s="206"/>
-      <c r="U34" s="206"/>
-      <c r="V34" s="206"/>
-      <c r="W34" s="206"/>
-      <c r="X34" s="206"/>
-      <c r="Y34" s="206"/>
-      <c r="Z34" s="206"/>
-      <c r="AA34" s="206"/>
-      <c r="AB34" s="206"/>
-      <c r="AC34" s="206"/>
-      <c r="AD34" s="217"/>
-      <c r="AE34" s="223"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="203"/>
+      <c r="L34" s="203"/>
+      <c r="M34" s="203"/>
+      <c r="N34" s="203"/>
+      <c r="O34" s="203"/>
+      <c r="P34" s="203"/>
+      <c r="Q34" s="203"/>
+      <c r="R34" s="203"/>
+      <c r="S34" s="203"/>
+      <c r="T34" s="203"/>
+      <c r="U34" s="203"/>
+      <c r="V34" s="203"/>
+      <c r="W34" s="203"/>
+      <c r="X34" s="203"/>
+      <c r="Y34" s="203"/>
+      <c r="Z34" s="203"/>
+      <c r="AA34" s="203"/>
+      <c r="AB34" s="203"/>
+      <c r="AC34" s="203"/>
+      <c r="AD34" s="214"/>
+      <c r="AE34" s="220"/>
     </row>
     <row r="35" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B35" s="219" t="s">
+      <c r="B35" s="216" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="233" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="203"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="203"/>
+      <c r="M35" s="203"/>
+      <c r="N35" s="203"/>
+      <c r="O35" s="203"/>
+      <c r="P35" s="203"/>
+      <c r="Q35" s="203"/>
+      <c r="R35" s="203"/>
+      <c r="S35" s="203"/>
+      <c r="T35" s="203"/>
+      <c r="U35" s="203"/>
+      <c r="V35" s="203"/>
+      <c r="W35" s="203"/>
+      <c r="X35" s="203"/>
+      <c r="Y35" s="203"/>
+      <c r="Z35" s="203"/>
+      <c r="AA35" s="203"/>
+      <c r="AB35" s="203"/>
+      <c r="AC35" s="203"/>
+      <c r="AD35" s="214"/>
+      <c r="AE35" s="220"/>
+    </row>
+    <row r="36" spans="2:31" ht="16.5" customHeight="1">
+      <c r="B36" s="236" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="236" t="s">
-        <v>106</v>
+      <c r="C36" s="237" t="s">
+        <v>105</v>
       </c>
-      <c r="D35" s="206"/>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
-      <c r="K35" s="206"/>
-      <c r="L35" s="206"/>
-      <c r="M35" s="206"/>
-      <c r="N35" s="206"/>
-      <c r="O35" s="206"/>
-      <c r="P35" s="206"/>
-      <c r="Q35" s="206"/>
-      <c r="R35" s="206"/>
-      <c r="S35" s="206"/>
-      <c r="T35" s="206"/>
-      <c r="U35" s="206"/>
-      <c r="V35" s="206"/>
-      <c r="W35" s="206"/>
-      <c r="X35" s="206"/>
-      <c r="Y35" s="206"/>
-      <c r="Z35" s="206"/>
-      <c r="AA35" s="206"/>
-      <c r="AB35" s="206"/>
-      <c r="AC35" s="206"/>
-      <c r="AD35" s="217"/>
-      <c r="AE35" s="223"/>
-    </row>
-    <row r="36" spans="2:31" ht="16.5" customHeight="1">
-      <c r="B36" s="292" t="s">
+      <c r="D36" s="238"/>
+      <c r="E36" s="238"/>
+      <c r="F36" s="238"/>
+      <c r="G36" s="238"/>
+      <c r="H36" s="238"/>
+      <c r="I36" s="238"/>
+      <c r="J36" s="238"/>
+      <c r="K36" s="238"/>
+      <c r="L36" s="238"/>
+      <c r="M36" s="238"/>
+      <c r="N36" s="238"/>
+      <c r="O36" s="238"/>
+      <c r="P36" s="238"/>
+      <c r="Q36" s="238"/>
+      <c r="R36" s="238"/>
+      <c r="S36" s="238"/>
+      <c r="T36" s="238"/>
+      <c r="U36" s="238"/>
+      <c r="V36" s="238"/>
+      <c r="W36" s="238"/>
+      <c r="X36" s="238"/>
+      <c r="Y36" s="238"/>
+      <c r="Z36" s="238"/>
+      <c r="AA36" s="238"/>
+      <c r="AB36" s="238"/>
+      <c r="AC36" s="238"/>
+      <c r="AD36" s="239"/>
+      <c r="AE36" s="240"/>
+    </row>
+    <row r="37" spans="2:31" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B37" s="217" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" s="296" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="293"/>
-      <c r="E36" s="293"/>
-      <c r="F36" s="293"/>
-      <c r="G36" s="293"/>
-      <c r="H36" s="293"/>
-      <c r="I36" s="293"/>
-      <c r="J36" s="293"/>
-      <c r="K36" s="293"/>
-      <c r="L36" s="293"/>
-      <c r="M36" s="293"/>
-      <c r="N36" s="293"/>
-      <c r="O36" s="293"/>
-      <c r="P36" s="293"/>
-      <c r="Q36" s="293"/>
-      <c r="R36" s="293"/>
-      <c r="S36" s="293"/>
-      <c r="T36" s="293"/>
-      <c r="U36" s="293"/>
-      <c r="V36" s="293"/>
-      <c r="W36" s="293"/>
-      <c r="X36" s="293"/>
-      <c r="Y36" s="293"/>
-      <c r="Z36" s="293"/>
-      <c r="AA36" s="293"/>
-      <c r="AB36" s="293"/>
-      <c r="AC36" s="293"/>
-      <c r="AD36" s="294"/>
-      <c r="AE36" s="295"/>
-    </row>
-    <row r="37" spans="2:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B37" s="220" t="s">
-        <v>105</v>
       </c>
       <c r="C37" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="207"/>
-      <c r="E37" s="207"/>
-      <c r="F37" s="207"/>
-      <c r="G37" s="207"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="207"/>
-      <c r="J37" s="207"/>
-      <c r="K37" s="207"/>
-      <c r="L37" s="207"/>
-      <c r="M37" s="207"/>
-      <c r="N37" s="207"/>
-      <c r="O37" s="207"/>
-      <c r="P37" s="207"/>
-      <c r="Q37" s="207"/>
-      <c r="R37" s="207"/>
-      <c r="S37" s="207"/>
-      <c r="T37" s="207"/>
-      <c r="U37" s="207"/>
-      <c r="V37" s="207"/>
-      <c r="W37" s="207"/>
-      <c r="X37" s="207"/>
-      <c r="Y37" s="207"/>
-      <c r="Z37" s="207"/>
-      <c r="AA37" s="207"/>
-      <c r="AB37" s="207"/>
-      <c r="AC37" s="207"/>
-      <c r="AD37" s="224"/>
-      <c r="AE37" s="225"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="204"/>
+      <c r="O37" s="204"/>
+      <c r="P37" s="204"/>
+      <c r="Q37" s="204"/>
+      <c r="R37" s="204"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="204"/>
+      <c r="U37" s="204"/>
+      <c r="V37" s="204"/>
+      <c r="W37" s="204"/>
+      <c r="X37" s="204"/>
+      <c r="Y37" s="204"/>
+      <c r="Z37" s="204"/>
+      <c r="AA37" s="204"/>
+      <c r="AB37" s="204"/>
+      <c r="AC37" s="204"/>
+      <c r="AD37" s="221"/>
+      <c r="AE37" s="222"/>
     </row>
     <row r="38" spans="2:31" ht="16.5" customHeight="1">
       <c r="C38" s="198"/>
@@ -9900,15 +10065,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:D12"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="AB2:AC2"/>
@@ -9919,6 +10075,15 @@
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D3:D12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -9939,8 +10104,8 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10004,112 +10169,112 @@
     <row r="2" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="263" t="s">
+      <c r="C2" s="289" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="264"/>
-      <c r="Q2" s="265"/>
-      <c r="R2" s="273" t="s">
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="274"/>
-      <c r="T2" s="274"/>
-      <c r="U2" s="274"/>
-      <c r="V2" s="274"/>
-      <c r="W2" s="275"/>
-      <c r="X2" s="282" t="s">
+      <c r="S2" s="261"/>
+      <c r="T2" s="261"/>
+      <c r="U2" s="261"/>
+      <c r="V2" s="261"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="274"/>
-      <c r="Z2" s="275"/>
+      <c r="Y2" s="261"/>
+      <c r="Z2" s="262"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="286" t="s">
+      <c r="C3" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="287"/>
-      <c r="E3" s="288"/>
-      <c r="F3" s="266" t="s">
+      <c r="D3" s="274"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="276" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
-      <c r="L3" s="267"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="267"/>
-      <c r="O3" s="267"/>
-      <c r="P3" s="267"/>
-      <c r="Q3" s="268"/>
-      <c r="R3" s="276"/>
-      <c r="S3" s="277"/>
-      <c r="T3" s="277"/>
-      <c r="U3" s="277"/>
-      <c r="V3" s="277"/>
-      <c r="W3" s="278"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="277"/>
-      <c r="Z3" s="278"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="293"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="264"/>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="263"/>
+      <c r="Y3" s="264"/>
+      <c r="Z3" s="265"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="266" t="s">
+      <c r="C4" s="276" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="269"/>
-      <c r="E4" s="270"/>
-      <c r="F4" s="271" t="s">
+      <c r="D4" s="277"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="279" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="289"/>
-      <c r="H4" s="271" t="s">
+      <c r="G4" s="280"/>
+      <c r="H4" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="289"/>
-      <c r="J4" s="266" t="s">
+      <c r="I4" s="280"/>
+      <c r="J4" s="276" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="269"/>
-      <c r="L4" s="270"/>
-      <c r="M4" s="271" t="s">
+      <c r="K4" s="277"/>
+      <c r="L4" s="278"/>
+      <c r="M4" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="272"/>
-      <c r="O4" s="271" t="s">
+      <c r="N4" s="282"/>
+      <c r="O4" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="290"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="280"/>
-      <c r="T4" s="280"/>
-      <c r="U4" s="280"/>
-      <c r="V4" s="280"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="283"/>
-      <c r="Y4" s="284"/>
-      <c r="Z4" s="285"/>
+      <c r="P4" s="281"/>
+      <c r="Q4" s="282"/>
+      <c r="R4" s="266"/>
+      <c r="S4" s="267"/>
+      <c r="T4" s="267"/>
+      <c r="U4" s="267"/>
+      <c r="V4" s="267"/>
+      <c r="W4" s="268"/>
+      <c r="X4" s="270"/>
+      <c r="Y4" s="271"/>
+      <c r="Z4" s="272"/>
     </row>
     <row r="5" spans="1:26" ht="3.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="283" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7"/>
@@ -10139,7 +10304,7 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="258"/>
+      <c r="B6" s="284"/>
       <c r="C6" s="7"/>
       <c r="D6" s="16" t="s">
         <v>3</v>
@@ -10169,7 +10334,7 @@
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="258"/>
+      <c r="B7" s="284"/>
       <c r="C7" s="7"/>
       <c r="D7" s="16" t="s">
         <v>4</v>
@@ -10199,7 +10364,7 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="258"/>
+      <c r="B8" s="284"/>
       <c r="C8" s="7"/>
       <c r="D8" s="16" t="s">
         <v>5</v>
@@ -10229,7 +10394,7 @@
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="258"/>
+      <c r="B9" s="284"/>
       <c r="C9" s="7"/>
       <c r="D9" s="16" t="s">
         <v>6</v>
@@ -10254,14 +10419,14 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
       <c r="X9" s="23"/>
-      <c r="Y9" s="291" t="s">
-        <v>97</v>
+      <c r="Y9" s="235" t="s">
+        <v>96</v>
       </c>
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="258"/>
+      <c r="B10" s="284"/>
       <c r="C10" s="7"/>
       <c r="D10" s="16" t="s">
         <v>7</v>
@@ -10287,13 +10452,13 @@
       <c r="W10" s="22"/>
       <c r="X10" s="23"/>
       <c r="Y10" s="68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="5.25" customHeight="1" thickBot="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="259"/>
+      <c r="B11" s="285"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -10321,7 +10486,7 @@
     </row>
     <row r="12" spans="1:26" ht="5.25" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="260" t="s">
+      <c r="B12" s="286" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="18"/>
@@ -10351,7 +10516,7 @@
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="258"/>
+      <c r="B13" s="284"/>
       <c r="C13" s="21"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -10382,14 +10547,14 @@
       </c>
       <c r="W13" s="38"/>
       <c r="X13" s="23"/>
-      <c r="Y13" s="291" t="s">
-        <v>99</v>
+      <c r="Y13" s="235" t="s">
+        <v>98</v>
       </c>
       <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="258"/>
+      <c r="B14" s="284"/>
       <c r="C14" s="21"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -10419,13 +10584,13 @@
       <c r="W14" s="38"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="258"/>
+      <c r="B15" s="284"/>
       <c r="C15" s="21"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -10450,7 +10615,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="37"/>
       <c r="V15" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W15" s="38"/>
       <c r="X15" s="23"/>
@@ -10459,7 +10624,7 @@
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1">
       <c r="A16" s="2"/>
-      <c r="B16" s="261"/>
+      <c r="B16" s="287"/>
       <c r="C16" s="48"/>
       <c r="D16" s="60"/>
       <c r="E16" s="60"/>
@@ -10486,14 +10651,14 @@
       </c>
       <c r="W16" s="64"/>
       <c r="X16" s="23"/>
-      <c r="Y16" s="237" t="s">
-        <v>101</v>
+      <c r="Y16" s="234" t="s">
+        <v>100</v>
       </c>
       <c r="Z16" s="65"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" customHeight="1">
       <c r="A17" s="2"/>
-      <c r="B17" s="258"/>
+      <c r="B17" s="284"/>
       <c r="C17" s="21"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -10518,18 +10683,18 @@
       <c r="T17" s="58"/>
       <c r="U17" s="37"/>
       <c r="V17" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W17" s="38"/>
       <c r="X17" s="23"/>
       <c r="Y17" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="259"/>
+      <c r="B18" s="285"/>
       <c r="C18" s="21"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -10557,7 +10722,7 @@
     </row>
     <row r="19" spans="1:26" ht="4.5" customHeight="1">
       <c r="A19" s="2"/>
-      <c r="B19" s="262" t="s">
+      <c r="B19" s="288" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="42"/>
@@ -10587,7 +10752,7 @@
     </row>
     <row r="20" spans="1:26" ht="16.5" customHeight="1">
       <c r="A20" s="2"/>
-      <c r="B20" s="258"/>
+      <c r="B20" s="284"/>
       <c r="C20" s="20"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -10614,7 +10779,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="37"/>
       <c r="V20" s="59" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="W20" s="47"/>
       <c r="X20" s="23"/>
@@ -10623,11 +10788,11 @@
     </row>
     <row r="21" spans="1:26" ht="16.5" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="261"/>
-      <c r="C21" s="233"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="230"/>
       <c r="D21" s="60"/>
       <c r="E21" s="60"/>
-      <c r="F21" s="234"/>
+      <c r="F21" s="231"/>
       <c r="G21" s="60"/>
       <c r="H21" s="60"/>
       <c r="I21" s="60"/>
@@ -10648,14 +10813,14 @@
       <c r="V21" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="W21" s="235"/>
+      <c r="W21" s="232"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="65"/>
     </row>
     <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="2"/>
-      <c r="B22" s="258"/>
+      <c r="B22" s="284"/>
       <c r="C22" s="20"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -10675,7 +10840,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="37"/>
       <c r="V22" s="59" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="W22" s="47"/>
       <c r="X22" s="23"/>
@@ -10684,7 +10849,7 @@
     </row>
     <row r="23" spans="1:26" ht="4.5" customHeight="1" thickBot="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="259"/>
+      <c r="B23" s="285"/>
       <c r="C23" s="49"/>
       <c r="D23" s="50"/>
       <c r="E23" s="50"/>
@@ -10816,7 +10981,6 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -10844,7 +11008,6 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -10872,7 +11035,6 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -38152,6 +38314,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C2:Q2"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="R2:W4"/>
     <mergeCell ref="X2:Z4"/>
     <mergeCell ref="C3:E3"/>
@@ -38159,13 +38328,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C2:Q2"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
